--- a/data/Risk Report Format Master Sheet.xlsx
+++ b/data/Risk Report Format Master Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bwilzbach\CascadeProjects\BD Script\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\BW Code\BD Script\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B1FEA02-B21E-4DBD-AC2A-C5D91EED7775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDA9DB6-9B8C-41CB-8C12-47C01E2A6D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29520" yWindow="1590" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="31920" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Key Stats" sheetId="10" r:id="rId1"/>
@@ -20,11 +20,10 @@
     <sheet name="Postion Level" sheetId="2" r:id="rId5"/>
     <sheet name="Risk Rating Movement" sheetId="9" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="214">
   <si>
     <t>CMBS F1</t>
   </si>
@@ -673,6 +672,18 @@
   <si>
     <t>Total Leverage</t>
   </si>
+  <si>
+    <t>CLO F1</t>
+  </si>
+  <si>
+    <t>CLO Margin Loan</t>
+  </si>
+  <si>
+    <t>CLO Long MV</t>
+  </si>
+  <si>
+    <t>Equity</t>
+  </si>
 </sst>
 </file>
 
@@ -692,9 +703,16 @@
     <numFmt numFmtId="169" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.0_);[Red]\(&quot;$&quot;#,##0.0\)"/>
   </numFmts>
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1347,544 +1365,549 @@
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="308">
+  <cellXfs count="313">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="10" fontId="20" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="10" fontId="21" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="20" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="21" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="22" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="17" fillId="4" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="17" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="17" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="23" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="18" fillId="4" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="18" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="18" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="24" fillId="4" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="25" fillId="4" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="17" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="18" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="14" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="15" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="22" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="21" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="23" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="22" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="17" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="17" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="18" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="18" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="20" fillId="3" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="21" fillId="3" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="28" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="20" fillId="4" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="22" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="29" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="21" fillId="4" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="20" fillId="4" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="21" fillId="4" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="22" fillId="3" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="22" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="3" fontId="21" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="13" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="23" fillId="3" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="23" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="3" fontId="22" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="18" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="8" fontId="17" fillId="4" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="18" fillId="4" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="17" fillId="4" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="5" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="8" fontId="18" fillId="4" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" pivotButton="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="10" fontId="30" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" pivotButton="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="10" fontId="31" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="30" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="8" fontId="22" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="20" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="31" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="8" fontId="23" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="21" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="20" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="21" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="20" fillId="4" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="21" fillId="4" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="4" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="4" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="4" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="4" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="4" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="4" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="17" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="18" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="38" fontId="20" fillId="4" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="38" fontId="21" fillId="4" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="8" fontId="17" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="18" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="17" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="17" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="17" fillId="4" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="17" fillId="4" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="17" fillId="4" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="17" fillId="4" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="18" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="18" fillId="4" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="18" fillId="4" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="18" fillId="4" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="18" fillId="4" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="14" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7"/>
-    <xf numFmtId="2" fontId="7" fillId="4" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="4" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="7" applyFill="1"/>
-    <xf numFmtId="168" fontId="7" fillId="4" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="7" fillId="4" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="7" fillId="4" borderId="7" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="15" fillId="4" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="7" fillId="4" borderId="11" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="9" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="7" applyFill="1"/>
+    <xf numFmtId="168" fontId="8" fillId="4" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="8" fillId="4" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="7" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="16" fillId="4" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="8" fillId="4" borderId="11" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="9" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="9" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="38" fillId="9" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="9" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="39" fillId="9" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="39" fillId="9" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="39" fillId="9" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="7" fillId="4" borderId="11" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="40" fillId="9" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="11" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="41" fillId="5" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="40" fillId="5" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="40" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="9" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="9" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="39" fillId="5" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="40" fillId="5" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="39" fillId="5" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="16" fillId="4" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="17" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="17" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="15" fillId="4" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="9" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="6" fillId="4" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="41" fillId="9" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="6" fillId="4" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="6" fillId="4" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="42" fillId="9" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="7" fillId="4" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="42" fillId="9" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="7" fillId="4" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="7" fillId="4" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="7" fillId="4" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="7" fillId="4" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="7" fillId="4" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="6" fillId="4" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="6" fillId="4" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="4" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="5" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="4" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="6" fillId="4" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="6" fillId="4" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="4" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="5" fillId="4" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="5" fillId="4" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="4" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="43" fontId="6" fillId="4" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="6" fillId="4" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="4" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="4" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="4" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="43" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="44" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="17" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="8" fontId="20" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="8" fontId="21" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="4" fillId="4" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="5" fillId="4" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="18" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="16" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="16" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="10" fontId="30" fillId="4" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="31" fillId="4" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="12" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="22" fillId="4" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="23" fillId="4" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="30" fillId="4" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="31" fillId="4" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="17" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="18" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="17" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="18" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="20" fillId="4" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="21" fillId="4" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="20" fillId="4" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="21" fillId="4" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="20" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="21" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="4" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="21" fillId="4" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="4" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="4" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="17" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="18" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="17" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="18" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="7" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="7" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="8" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="17" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="18" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="8" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="18" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="28" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="28" fillId="3" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="29" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="29" fillId="3" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="9" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="38" fillId="9" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="39" fillId="9" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Comma 2" xfId="8" xr:uid="{67936A33-AC4E-4685-A0EA-C6918FF0E5A2}"/>
@@ -2094,10 +2117,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Vintage!$A$14:$A$25</c:f>
+              <c:f>Vintage!$A$14:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>2012</c:v>
                 </c:pt>
@@ -2130,54 +2153,48 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2025</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Vintage!$B$14:$B$25</c:f>
+              <c:f>Vintage!$B$14:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2.7300000000000001E-2</c:v>
+                  <c:v>2.12E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6299999999999999E-2</c:v>
+                  <c:v>1.5900000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.6599999999999996E-2</c:v>
+                  <c:v>8.2299999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.18140000000000001</c:v>
+                  <c:v>0.20630000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.11600000000000001</c:v>
+                  <c:v>0.1089</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1041</c:v>
+                  <c:v>9.35E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.2599999999999999E-2</c:v>
+                  <c:v>4.6300000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.13270000000000001</c:v>
+                  <c:v>0.12809999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.8400000000000002E-2</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2397</c:v>
+                  <c:v>0.23210000000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.7600000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.1000000000000004E-3</c:v>
+                  <c:v>1.0500000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2824,19 +2841,19 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.75404688457712454</c:v>
+                  <c:v>0.74184585080773002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14415299283568295</c:v>
+                  <c:v>0.14052368340793228</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5497131258729322E-2</c:v>
+                  <c:v>3.6246288637051309E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.2807497915012925E-2</c:v>
+                  <c:v>8.6188003814129888E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.9051556957828019E-4</c:v>
+                  <c:v>1.0547925554549654E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3353,16 +3370,16 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.52600000000000002</c:v>
+                  <c:v>0.52300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.2499999999999998E-2</c:v>
+                  <c:v>5.6000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25819999999999999</c:v>
+                  <c:v>0.27200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16300000000000001</c:v>
+                  <c:v>0.14799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -5612,10 +5629,10 @@
           </c:dPt>
           <c:cat>
             <c:numRef>
-              <c:f>'Postion Level'!$A$2:$A$203</c:f>
+              <c:f>'Postion Level'!$A$2:$A$202</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="202"/>
+                <c:ptCount val="201"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -6218,624 +6235,618 @@
                 </c:pt>
                 <c:pt idx="200">
                   <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Postion Level'!$B$2:$B$203</c:f>
+              <c:f>'Postion Level'!$B$2:$B$202</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="202"/>
+                <c:ptCount val="201"/>
                 <c:pt idx="0">
-                  <c:v>2.7603076959800871E-2</c:v>
+                  <c:v>2.7538990223589292E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.360856625013329E-2</c:v>
+                  <c:v>2.6175154413272166E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3402322055620168E-2</c:v>
+                  <c:v>2.3464186653468201E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.05888562996406E-2</c:v>
+                  <c:v>2.0811674921631201E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8913392714078433E-2</c:v>
+                  <c:v>1.9578768201385599E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.869430820724963E-2</c:v>
+                  <c:v>1.8773493030693669E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.7812585417912863E-2</c:v>
+                  <c:v>1.7809812530165472E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6927414460360824E-2</c:v>
+                  <c:v>1.7383613835201994E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6834731826414095E-2</c:v>
+                  <c:v>1.7184630522191321E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.6708093206156186E-2</c:v>
+                  <c:v>1.5794804338968228E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.5630506556561865E-2</c:v>
+                  <c:v>1.4686433846166231E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.4968596532968092E-2</c:v>
+                  <c:v>1.449786664032068E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.4710123346355169E-2</c:v>
+                  <c:v>1.4409305989080376E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.4405659830169882E-2</c:v>
+                  <c:v>1.4404284098204045E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3690704796813986E-2</c:v>
+                  <c:v>1.3648127397534097E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.357484868628319E-2</c:v>
+                  <c:v>1.3559905308638615E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.3538934295655643E-2</c:v>
+                  <c:v>1.3551353397569917E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.3396795242317617E-2</c:v>
+                  <c:v>1.3545218864184213E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.3371096043399E-2</c:v>
+                  <c:v>1.3260831776829964E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.3211364311735181E-2</c:v>
+                  <c:v>1.3045521512526304E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.3075767690746897E-2</c:v>
+                  <c:v>1.2992104519820752E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.2904665218267648E-2</c:v>
+                  <c:v>1.2952178621811184E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.2790713733644652E-2</c:v>
+                  <c:v>1.2944305298576649E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.2687059665265749E-2</c:v>
+                  <c:v>1.2746180150098659E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.2387362656568425E-2</c:v>
+                  <c:v>1.2201966476852724E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.2029742290567816E-2</c:v>
+                  <c:v>1.2127343849557545E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.1478743293066277E-2</c:v>
+                  <c:v>1.2004386987440666E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.134102448497248E-2</c:v>
+                  <c:v>1.1400472902684712E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.1110602483398773E-2</c:v>
+                  <c:v>1.1101553557256413E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.0766457300483921E-2</c:v>
+                  <c:v>1.1071060939994787E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.0443485513269842E-2</c:v>
+                  <c:v>1.088437447963592E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.0356766938826315E-2</c:v>
+                  <c:v>1.0571910778369747E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.0059019387241096E-2</c:v>
+                  <c:v>1.0486020124955267E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9.9543329365887438E-3</c:v>
+                  <c:v>1.0290284203770549E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9.6014733263019344E-3</c:v>
+                  <c:v>1.0147863308924242E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9.4608207326521317E-3</c:v>
+                  <c:v>1.0017902508887424E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9.3841721550132103E-3</c:v>
+                  <c:v>9.6768736269436818E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9.3585297123720459E-3</c:v>
+                  <c:v>9.6377781494518429E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9.3559811325141639E-3</c:v>
+                  <c:v>9.3896733693005566E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9.2438926652199088E-3</c:v>
+                  <c:v>9.3418450702200135E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9.0532744909882831E-3</c:v>
+                  <c:v>9.0548278345516531E-3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>8.9050362726432776E-3</c:v>
+                  <c:v>8.8717789268286575E-3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>8.8565399508174839E-3</c:v>
+                  <c:v>8.6618696394714645E-3</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>8.7058793924995725E-3</c:v>
+                  <c:v>8.6058060203857388E-3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>8.664832638034959E-3</c:v>
+                  <c:v>8.5170073349799397E-3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>8.4172933429500357E-3</c:v>
+                  <c:v>8.4545708958043697E-3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>8.3000600564401422E-3</c:v>
+                  <c:v>8.2135133901149286E-3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>8.2024514834402561E-3</c:v>
+                  <c:v>8.0682192187579681E-3</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>8.1865538380034176E-3</c:v>
+                  <c:v>7.9825308419737961E-3</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>8.0953154704701321E-3</c:v>
+                  <c:v>7.9637372411657734E-3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>8.0540949661939958E-3</c:v>
+                  <c:v>7.9136900695474868E-3</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>7.959567712437313E-3</c:v>
+                  <c:v>7.883877425358574E-3</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>7.9383576304795749E-3</c:v>
+                  <c:v>7.7163517793967353E-3</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>7.9193844175736959E-3</c:v>
+                  <c:v>7.6751519147574545E-3</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>7.8713641332460726E-3</c:v>
+                  <c:v>7.5514212571688158E-3</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>7.4827227222841472E-3</c:v>
+                  <c:v>7.4724118813838964E-3</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>7.404900361190841E-3</c:v>
+                  <c:v>7.4122524951454353E-3</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>7.3909550011616778E-3</c:v>
+                  <c:v>7.3294935411766828E-3</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>7.361761565444172E-3</c:v>
+                  <c:v>7.2687594965938187E-3</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>7.296576273715159E-3</c:v>
+                  <c:v>6.8481960801705143E-3</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>7.2672033636071148E-3</c:v>
+                  <c:v>6.8370576896229114E-3</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6.8057756437662374E-3</c:v>
+                  <c:v>6.731083246290904E-3</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6.7800840322943907E-3</c:v>
+                  <c:v>6.6698221792003123E-3</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6.6928083108186709E-3</c:v>
+                  <c:v>6.6071639813753379E-3</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>6.6137565521898149E-3</c:v>
+                  <c:v>6.5822842029454173E-3</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>6.5734973420657726E-3</c:v>
+                  <c:v>6.5208647937831932E-3</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>6.4906583732901573E-3</c:v>
+                  <c:v>6.4987666602881302E-3</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>6.4183545471598576E-3</c:v>
+                  <c:v>6.3058261481941727E-3</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>6.1953974782069203E-3</c:v>
+                  <c:v>6.1963349339672572E-3</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>6.0983738320846579E-3</c:v>
+                  <c:v>6.0920297455003443E-3</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>6.046217627803066E-3</c:v>
+                  <c:v>6.0099686825839521E-3</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>6.0367208639617084E-3</c:v>
+                  <c:v>5.8800514446850586E-3</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5.8188087944273806E-3</c:v>
+                  <c:v>5.8381302673505674E-3</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5.8063056339802801E-3</c:v>
+                  <c:v>5.7261858380325964E-3</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5.7234472886604935E-3</c:v>
+                  <c:v>5.2766908387614966E-3</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>5.2830230220298263E-3</c:v>
+                  <c:v>5.2595503270582442E-3</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>5.1890508756691081E-3</c:v>
+                  <c:v>5.2365108958190741E-3</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>5.0712601837731002E-3</c:v>
+                  <c:v>5.2364779439928412E-3</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>5.0451859773375015E-3</c:v>
+                  <c:v>5.1467129096084219E-3</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>4.9232102374495677E-3</c:v>
+                  <c:v>5.0749588942454312E-3</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>4.7925551111400828E-3</c:v>
+                  <c:v>4.8906189761698743E-3</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4.7781150033497453E-3</c:v>
+                  <c:v>4.8822368329879337E-3</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4.7173395547201952E-3</c:v>
+                  <c:v>4.7936650182820858E-3</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.4733159398097104E-3</c:v>
+                  <c:v>4.7287124143296968E-3</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4.397990297423781E-3</c:v>
+                  <c:v>4.6244217380966707E-3</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.3650481055012118E-3</c:v>
+                  <c:v>4.4780158971009891E-3</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.1927717135918285E-3</c:v>
+                  <c:v>4.3730006228254832E-3</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>3.9850548745265406E-3</c:v>
+                  <c:v>4.2492448862754516E-3</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3.9512622086869623E-3</c:v>
+                  <c:v>4.2258105687921496E-3</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3.9309711052283643E-3</c:v>
+                  <c:v>4.0224209274573562E-3</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3.9233484815319776E-3</c:v>
+                  <c:v>3.9982923929708222E-3</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3.8823070437191336E-3</c:v>
+                  <c:v>3.9638300281556373E-3</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3.8792186537370023E-3</c:v>
+                  <c:v>3.9200268048395666E-3</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3.8520030396727535E-3</c:v>
+                  <c:v>3.8416751225075038E-3</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3.8046289121023364E-3</c:v>
+                  <c:v>3.8084889614445755E-3</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3.771261823160634E-3</c:v>
+                  <c:v>3.8074484716491843E-3</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>3.6498846485179073E-3</c:v>
+                  <c:v>3.7633254550290323E-3</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>3.6128172923230819E-3</c:v>
+                  <c:v>3.6072805072487231E-3</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>3.5502463927142582E-3</c:v>
+                  <c:v>3.3347110225668336E-3</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3.336368614859417E-3</c:v>
+                  <c:v>3.3214781128092911E-3</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>3.3230636598132962E-3</c:v>
+                  <c:v>3.2176313684901714E-3</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>3.1043199897958615E-3</c:v>
+                  <c:v>3.1626201442374788E-3</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>3.0667496729046488E-3</c:v>
+                  <c:v>3.0944504455674097E-3</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>3.0445137083142467E-3</c:v>
+                  <c:v>3.0823578746581671E-3</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>2.998125092176744E-3</c:v>
+                  <c:v>2.8134838196032202E-3</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>2.8462154334373143E-3</c:v>
+                  <c:v>2.713956163343037E-3</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>2.7123700849075939E-3</c:v>
+                  <c:v>2.6796669280809674E-3</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>2.6315746820596694E-3</c:v>
+                  <c:v>2.6510986745924962E-3</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>2.623242237760596E-3</c:v>
+                  <c:v>2.6461835949039068E-3</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>2.53075699980807E-3</c:v>
+                  <c:v>2.5477842639907771E-3</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>2.4004314515179699E-3</c:v>
+                  <c:v>2.4011727169126291E-3</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>2.367756315965593E-3</c:v>
+                  <c:v>2.2970995308723443E-3</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>2.366228152515284E-3</c:v>
+                  <c:v>2.1804501521514677E-3</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>2.3315372580757993E-3</c:v>
+                  <c:v>2.1525158010601043E-3</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>2.2863675829387815E-3</c:v>
+                  <c:v>2.0749072330865175E-3</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>2.1495668423066072E-3</c:v>
+                  <c:v>2.0697183143433217E-3</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2.0520350820070867E-3</c:v>
+                  <c:v>1.9060237075932489E-3</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1.81775654985E-3</c:v>
+                  <c:v>1.8005989181893109E-3</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1.7401943511564334E-3</c:v>
+                  <c:v>1.7795385160118196E-3</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1.7313906285103895E-3</c:v>
+                  <c:v>1.6451045493905145E-3</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1.7061184342350086E-3</c:v>
+                  <c:v>1.6021119865575009E-3</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>1.5855318633871949E-3</c:v>
+                  <c:v>1.3665707949721002E-3</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>1.4556620786111535E-3</c:v>
+                  <c:v>1.2334755881539413E-3</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>1.423015851502923E-3</c:v>
+                  <c:v>1.2161443569352075E-3</c:v>
                 </c:pt>
                 <c:pt idx="124" formatCode="0.00">
-                  <c:v>1.3525010990892898E-3</c:v>
+                  <c:v>1.1845293656542976E-3</c:v>
                 </c:pt>
                 <c:pt idx="125" formatCode="0.00">
-                  <c:v>1.3237946877104386E-3</c:v>
+                  <c:v>1.1834435138390112E-3</c:v>
                 </c:pt>
                 <c:pt idx="126" formatCode="0.00">
-                  <c:v>1.3153922430960011E-3</c:v>
+                  <c:v>1.1508091723830057E-3</c:v>
                 </c:pt>
                 <c:pt idx="127" formatCode="0.00">
-                  <c:v>1.2990241215691089E-3</c:v>
+                  <c:v>1.0159195761445207E-3</c:v>
                 </c:pt>
                 <c:pt idx="128" formatCode="0.00">
-                  <c:v>1.2251707973935501E-3</c:v>
+                  <c:v>9.8710701607583932E-4</c:v>
                 </c:pt>
                 <c:pt idx="129" formatCode="General">
-                  <c:v>1.1674297563739483E-3</c:v>
+                  <c:v>9.7776974515775719E-4</c:v>
                 </c:pt>
                 <c:pt idx="130" formatCode="General">
-                  <c:v>8.6128408420309635E-4</c:v>
+                  <c:v>8.7743970954118171E-4</c:v>
                 </c:pt>
                 <c:pt idx="131" formatCode="General">
-                  <c:v>7.5407603128138071E-4</c:v>
+                  <c:v>6.8705800341977645E-4</c:v>
                 </c:pt>
                 <c:pt idx="132" formatCode="General">
-                  <c:v>7.0663025808904176E-4</c:v>
+                  <c:v>6.1098114967575695E-4</c:v>
                 </c:pt>
                 <c:pt idx="133" formatCode="General">
-                  <c:v>6.2873793747309631E-4</c:v>
+                  <c:v>6.0880109383079509E-4</c:v>
                 </c:pt>
                 <c:pt idx="134" formatCode="General">
-                  <c:v>6.0227250161371004E-4</c:v>
+                  <c:v>5.8470717445661046E-4</c:v>
                 </c:pt>
                 <c:pt idx="135" formatCode="General">
-                  <c:v>5.763324760468E-4</c:v>
+                  <c:v>5.4172516658072584E-4</c:v>
                 </c:pt>
                 <c:pt idx="136" formatCode="General">
-                  <c:v>5.7546417570915375E-4</c:v>
+                  <c:v>5.1475863032430288E-4</c:v>
                 </c:pt>
                 <c:pt idx="137" formatCode="General">
-                  <c:v>5.7421973925581189E-4</c:v>
+                  <c:v>4.4944863583792422E-4</c:v>
                 </c:pt>
                 <c:pt idx="138" formatCode="General">
-                  <c:v>4.7933792873473173E-4</c:v>
+                  <c:v>4.4929766848566936E-4</c:v>
                 </c:pt>
                 <c:pt idx="139" formatCode="General">
-                  <c:v>4.526342497662752E-4</c:v>
+                  <c:v>4.1196543597449579E-4</c:v>
                 </c:pt>
                 <c:pt idx="140" formatCode="General">
-                  <c:v>4.3330677924264551E-4</c:v>
+                  <c:v>4.0713183969113583E-4</c:v>
                 </c:pt>
                 <c:pt idx="141" formatCode="General">
-                  <c:v>4.2454647365312018E-4</c:v>
+                  <c:v>3.9384740829201848E-4</c:v>
                 </c:pt>
                 <c:pt idx="142" formatCode="General">
-                  <c:v>3.8843713459484807E-4</c:v>
+                  <c:v>3.4211302945093345E-4</c:v>
                 </c:pt>
                 <c:pt idx="143" formatCode="General">
-                  <c:v>2.8422001783626275E-4</c:v>
+                  <c:v>3.1919983680591622E-4</c:v>
                 </c:pt>
                 <c:pt idx="144" formatCode="General">
-                  <c:v>2.8044301946822143E-4</c:v>
+                  <c:v>2.7370125900597514E-4</c:v>
                 </c:pt>
                 <c:pt idx="145" formatCode="General">
-                  <c:v>2.6852335815338629E-4</c:v>
+                  <c:v>2.6350839084243922E-4</c:v>
                 </c:pt>
                 <c:pt idx="146" formatCode="General">
-                  <c:v>2.5949503076585373E-4</c:v>
+                  <c:v>2.5486115427478213E-4</c:v>
                 </c:pt>
                 <c:pt idx="147" formatCode="General">
-                  <c:v>2.5131264930290247E-4</c:v>
+                  <c:v>2.5108296897734505E-4</c:v>
                 </c:pt>
                 <c:pt idx="148" formatCode="General">
-                  <c:v>2.4135122913352975E-4</c:v>
+                  <c:v>2.4256813271656685E-4</c:v>
                 </c:pt>
                 <c:pt idx="149" formatCode="General">
-                  <c:v>2.1938735201601733E-4</c:v>
+                  <c:v>2.2142519471729996E-4</c:v>
                 </c:pt>
                 <c:pt idx="150" formatCode="General">
-                  <c:v>2.0951971432043367E-4</c:v>
+                  <c:v>2.1357628362057244E-4</c:v>
                 </c:pt>
                 <c:pt idx="151" formatCode="General">
-                  <c:v>2.0951684523213884E-4</c:v>
+                  <c:v>2.0004548913559538E-4</c:v>
                 </c:pt>
                 <c:pt idx="152" formatCode="General">
-                  <c:v>2.0130645276498205E-4</c:v>
+                  <c:v>1.9897338344245028E-4</c:v>
                 </c:pt>
                 <c:pt idx="153" formatCode="General">
-                  <c:v>1.7158079436999649E-4</c:v>
+                  <c:v>1.9333374608214679E-4</c:v>
                 </c:pt>
                 <c:pt idx="154" formatCode="General">
-                  <c:v>1.5907838178951295E-4</c:v>
+                  <c:v>1.8282883540970011E-4</c:v>
                 </c:pt>
                 <c:pt idx="155" formatCode="General">
-                  <c:v>1.475408667184602E-4</c:v>
+                  <c:v>1.4719652638100125E-4</c:v>
                 </c:pt>
                 <c:pt idx="156" formatCode="General">
-                  <c:v>1.4587699947107792E-4</c:v>
+                  <c:v>1.4025003909898376E-4</c:v>
                 </c:pt>
                 <c:pt idx="157" formatCode="General">
-                  <c:v>1.4166354614527518E-4</c:v>
+                  <c:v>1.3996543887037646E-4</c:v>
                 </c:pt>
                 <c:pt idx="158" formatCode="General">
-                  <c:v>1.4084353079594624E-4</c:v>
+                  <c:v>1.3730853781448554E-4</c:v>
                 </c:pt>
                 <c:pt idx="159" formatCode="General">
-                  <c:v>1.3434446111242282E-4</c:v>
+                  <c:v>1.3502430368333087E-4</c:v>
                 </c:pt>
                 <c:pt idx="160" formatCode="General">
-                  <c:v>1.3196518465908685E-4</c:v>
+                  <c:v>1.2915618166881306E-4</c:v>
                 </c:pt>
                 <c:pt idx="161" formatCode="General">
-                  <c:v>1.2904745783898675E-4</c:v>
+                  <c:v>1.2416608113498395E-4</c:v>
                 </c:pt>
                 <c:pt idx="162" formatCode="General">
-                  <c:v>1.2881018015773133E-4</c:v>
+                  <c:v>1.236892848004802E-4</c:v>
                 </c:pt>
                 <c:pt idx="163" formatCode="General">
-                  <c:v>1.2075223010229689E-4</c:v>
+                  <c:v>1.1004579644682239E-4</c:v>
                 </c:pt>
                 <c:pt idx="164" formatCode="General">
-                  <c:v>1.1878721736455563E-4</c:v>
+                  <c:v>1.0686869744400136E-4</c:v>
                 </c:pt>
                 <c:pt idx="165" formatCode="General">
-                  <c:v>1.087603112746714E-4</c:v>
+                  <c:v>1.0489848001900734E-4</c:v>
                 </c:pt>
                 <c:pt idx="166" formatCode="General">
-                  <c:v>8.1343561883136614E-5</c:v>
+                  <c:v>1.0443373857403633E-4</c:v>
                 </c:pt>
                 <c:pt idx="167" formatCode="General">
-                  <c:v>7.9092129828606573E-5</c:v>
+                  <c:v>7.1963977090625574E-5</c:v>
                 </c:pt>
                 <c:pt idx="168" formatCode="General">
-                  <c:v>7.2907531258802044E-5</c:v>
+                  <c:v>7.1029331197009651E-5</c:v>
                 </c:pt>
                 <c:pt idx="169" formatCode="General">
-                  <c:v>6.9353342752368247E-5</c:v>
+                  <c:v>6.9025732300064416E-5</c:v>
                 </c:pt>
                 <c:pt idx="170" formatCode="General">
-                  <c:v>6.8752397931561165E-5</c:v>
+                  <c:v>6.6173303165213058E-5</c:v>
                 </c:pt>
                 <c:pt idx="171" formatCode="General">
-                  <c:v>6.6390675947365619E-5</c:v>
+                  <c:v>5.5899340786949375E-5</c:v>
                 </c:pt>
                 <c:pt idx="172" formatCode="General">
-                  <c:v>5.8782683241525647E-5</c:v>
+                  <c:v>5.1785610338711489E-5</c:v>
                 </c:pt>
                 <c:pt idx="173" formatCode="General">
-                  <c:v>5.366726198273056E-5</c:v>
+                  <c:v>5.1568403245883209E-5</c:v>
                 </c:pt>
                 <c:pt idx="174" formatCode="General">
-                  <c:v>4.9675693883445068E-5</c:v>
+                  <c:v>4.9573788584415942E-5</c:v>
                 </c:pt>
                 <c:pt idx="175" formatCode="General">
-                  <c:v>4.7466006383726144E-5</c:v>
+                  <c:v>4.8646941919557083E-5</c:v>
                 </c:pt>
                 <c:pt idx="176" formatCode="General">
-                  <c:v>4.6690781445976316E-5</c:v>
+                  <c:v>4.4789283016749116E-5</c:v>
                 </c:pt>
                 <c:pt idx="177" formatCode="General">
-                  <c:v>4.6055122016559181E-5</c:v>
+                  <c:v>4.3537711182550642E-5</c:v>
                 </c:pt>
                 <c:pt idx="178" formatCode="General">
-                  <c:v>4.3669849032711248E-5</c:v>
+                  <c:v>4.1990928478682653E-5</c:v>
                 </c:pt>
                 <c:pt idx="179" formatCode="General">
-                  <c:v>4.2458427491122273E-5</c:v>
+                  <c:v>4.021427606369372E-5</c:v>
                 </c:pt>
                 <c:pt idx="180" formatCode="General">
-                  <c:v>4.1482910275728174E-5</c:v>
+                  <c:v>3.57033970489855E-5</c:v>
                 </c:pt>
                 <c:pt idx="181" formatCode="General">
-                  <c:v>4.126974109469428E-5</c:v>
+                  <c:v>3.3837379770206766E-5</c:v>
                 </c:pt>
                 <c:pt idx="182" formatCode="General">
-                  <c:v>3.5993460525340341E-5</c:v>
+                  <c:v>3.3168590878083439E-5</c:v>
                 </c:pt>
                 <c:pt idx="183" formatCode="General">
-                  <c:v>3.5690996070220241E-5</c:v>
+                  <c:v>2.9786196238130884E-5</c:v>
                 </c:pt>
                 <c:pt idx="184" formatCode="General">
-                  <c:v>3.5233288102957255E-5</c:v>
+                  <c:v>2.9487795618432913E-5</c:v>
                 </c:pt>
                 <c:pt idx="185" formatCode="General">
-                  <c:v>3.3393291468451673E-5</c:v>
+                  <c:v>2.8565519387390181E-5</c:v>
                 </c:pt>
                 <c:pt idx="186" formatCode="General">
-                  <c:v>1.7266295736499441E-5</c:v>
+                  <c:v>2.7905045311209616E-5</c:v>
                 </c:pt>
                 <c:pt idx="187" formatCode="General">
-                  <c:v>1.662939892777032E-5</c:v>
+                  <c:v>1.5594980626555879E-5</c:v>
                 </c:pt>
                 <c:pt idx="188" formatCode="General">
-                  <c:v>1.5334869008655087E-5</c:v>
+                  <c:v>1.5388713080254792E-5</c:v>
                 </c:pt>
                 <c:pt idx="189" formatCode="General">
-                  <c:v>1.4169543245831494E-5</c:v>
+                  <c:v>1.3863069748482871E-5</c:v>
                 </c:pt>
                 <c:pt idx="190" formatCode="General">
-                  <c:v>1.3959827848811293E-5</c:v>
+                  <c:v>1.2997503375131399E-5</c:v>
                 </c:pt>
                 <c:pt idx="191" formatCode="General">
-                  <c:v>1.3781033337016011E-5</c:v>
+                  <c:v>1.1391878332580339E-5</c:v>
                 </c:pt>
                 <c:pt idx="192" formatCode="General">
-                  <c:v>1.300095406504221E-5</c:v>
+                  <c:v>8.6902776151212632E-6</c:v>
                 </c:pt>
                 <c:pt idx="193" formatCode="General">
-                  <c:v>1.1605462152613421E-5</c:v>
+                  <c:v>8.6404873402441047E-6</c:v>
                 </c:pt>
                 <c:pt idx="194" formatCode="General">
-                  <c:v>8.3458923006072197E-6</c:v>
+                  <c:v>6.4933118760205351E-6</c:v>
                 </c:pt>
                 <c:pt idx="195" formatCode="General">
-                  <c:v>6.7346068751971312E-6</c:v>
+                  <c:v>5.8556448531297556E-6</c:v>
                 </c:pt>
                 <c:pt idx="196" formatCode="General">
-                  <c:v>3.6110943572105209E-6</c:v>
+                  <c:v>4.6376463397207115E-6</c:v>
                 </c:pt>
                 <c:pt idx="197" formatCode="General">
-                  <c:v>1.1252401121450252E-6</c:v>
+                  <c:v>1.3789169055860547E-6</c:v>
                 </c:pt>
                 <c:pt idx="198" formatCode="General">
-                  <c:v>3.3780455217356305E-7</c:v>
+                  <c:v>1.2717519723324345E-6</c:v>
                 </c:pt>
                 <c:pt idx="199" formatCode="General">
-                  <c:v>3.2464209971194376E-7</c:v>
+                  <c:v>4.8482166681834344E-7</c:v>
                 </c:pt>
                 <c:pt idx="200" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="201" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>3.3178941186481388E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7504,9 +7515,6 @@
                 <c:pt idx="200">
                   <c:v>201</c:v>
                 </c:pt>
-                <c:pt idx="201">
-                  <c:v>202</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -7517,610 +7525,607 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="202"/>
                 <c:pt idx="0">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>4.9504950495049497E-3</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>4.9504950495049497E-3</c:v>
+                  <c:v>4.9751243781094509E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8249,7 +8254,7 @@
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:tickLblSkip val="1"/>
+        <c:tickLblSkip val="5"/>
         <c:tickMarkSkip val="6"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
@@ -8885,13 +8890,13 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Credit Risk Tables'!$AO$35:$AO$52</c:f>
+              <c:f>'Credit Risk Tables'!$AO$34:$AO$52</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>CMBS</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>ABS</c:v>
                 </c:pt>
                 <c:pt idx="5">
@@ -8903,10 +8908,10 @@
                 <c:pt idx="11">
                   <c:v>Cash</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>Total (Gross)</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>Total (Net)</c:v>
                 </c:pt>
               </c:strCache>
@@ -8916,28 +8921,28 @@
             <c:numRef>
               <c:f>'Credit Risk Tables'!$AP$35:$AP$52</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
-                <c:pt idx="1">
-                  <c:v>3.3E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.5000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.8E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.9999999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9.2999999999999992E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6.3E-3</c:v>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>1.54E-2</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00%">
+                  <c:v>4.8999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00%">
+                  <c:v>-6.9999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00%">
+                  <c:v>2.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00%">
+                  <c:v>2.9999999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00%">
+                  <c:v>2.01E-2</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00%">
+                  <c:v>1.49E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9317,19 +9322,19 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="1">
+                  <c:v>6.7999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>6.1000000000000004E-3</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.2000000000000002E-3</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>7.1999999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.300000000000001E-3</c:v>
+                  <c:v>2.01E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.3E-3</c:v>
+                  <c:v>1.49E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9723,8 +9728,8 @@
               <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.3756906780060879E-4"/>
-                  <c:y val="1.8650908973489685E-2"/>
+                  <c:x val="-0.13774651204344845"/>
+                  <c:y val="1.8651496070850909E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:spPr>
@@ -9883,13 +9888,13 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Credit Risk Tables'!$AO$35:$AO$52</c:f>
+              <c:f>'Credit Risk Tables'!$AO$34:$AO$52</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>CMBS</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>ABS</c:v>
                 </c:pt>
                 <c:pt idx="5">
@@ -9901,10 +9906,10 @@
                 <c:pt idx="11">
                   <c:v>Cash</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>Total (Gross)</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>Total (Net)</c:v>
                 </c:pt>
               </c:strCache>
@@ -9914,28 +9919,28 @@
             <c:numRef>
               <c:f>'Credit Risk Tables'!$AP$35:$AP$52</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
-                <c:pt idx="1">
-                  <c:v>3.3E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.5000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.8E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.9999999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9.2999999999999992E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6.3E-3</c:v>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>1.54E-2</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00%">
+                  <c:v>4.8999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00%">
+                  <c:v>-6.9999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00%">
+                  <c:v>2.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00%">
+                  <c:v>2.9999999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00%">
+                  <c:v>2.01E-2</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00%">
+                  <c:v>1.49E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11547,28 +11552,28 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>3.9199999999999999E-2</c:v>
+                  <c:v>5.79E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5499999999999998E-2</c:v>
+                  <c:v>4.6600000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.0499999999999997E-2</c:v>
+                  <c:v>6.8599999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.2199999999999995E-2</c:v>
+                  <c:v>7.9600000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2039</c:v>
+                  <c:v>0.1671</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.23530000000000001</c:v>
+                  <c:v>0.19189999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2747</c:v>
+                  <c:v>0.30620000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.8599999999999997E-2</c:v>
+                  <c:v>8.2100000000000006E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11684,28 +11689,28 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4.0899999999999999E-2</c:v>
+                  <c:v>6.0299999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2100000000000002E-2</c:v>
+                  <c:v>6.4500000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19670000000000001</c:v>
+                  <c:v>0.1525</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.33889999999999998</c:v>
+                  <c:v>0.34639999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28399999999999997</c:v>
+                  <c:v>0.2346</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.8900000000000003E-2</c:v>
+                  <c:v>6.3299999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.8000000000000001E-2</c:v>
+                  <c:v>7.8399999999999997E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19884,12 +19889,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.70737</cdr:x>
-      <cdr:y>0.05158</cdr:y>
+      <cdr:x>0.75486</cdr:x>
+      <cdr:y>0</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.95251</cdr:x>
-      <cdr:y>0.29227</cdr:y>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.24069</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -19904,8 +19909,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4965687" y="171455"/>
-          <a:ext cx="1720864" cy="800107"/>
+          <a:off x="5299059" y="0"/>
+          <a:ext cx="1720865" cy="800107"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -20054,7 +20059,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Original Rating: 59.9%</a:t>
+            <a:t>Original Rating: 62.4%</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -20064,7 +20069,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Current Rating: 23.7%</a:t>
+            <a:t>Current Rating: 25.3%</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -20240,7 +20245,7 @@
     </cdr:from>
     <cdr:to>
       <cdr:x>0.95278</cdr:x>
-      <cdr:y>0.45292</cdr:y>
+      <cdr:y>0.47165</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -20255,8 +20260,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3629478" y="935264"/>
-          <a:ext cx="4680857" cy="1455965"/>
+          <a:off x="3629474" y="935276"/>
+          <a:ext cx="4680845" cy="1554831"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -20411,7 +20416,7 @@
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>0.73</a:t>
+            <a:t>0.55</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" i="0" baseline="0">
@@ -20419,7 +20424,7 @@
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>%  | $5.400mm</a:t>
+            <a:t>%  | $3.667mm</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -20429,7 +20434,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Top 10 Concentration: 20.11%</a:t>
+            <a:t>Top 10 Concentration: 20.45%</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -20462,7 +20467,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>180</a:t>
+            <a:t>179</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -20488,7 +20493,25 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>21</a:t>
+            <a:t>19</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CLO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>: 3</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1600" i="0" baseline="0">
             <a:solidFill>
@@ -20857,7 +20880,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F5313C9D-A647-4D5E-ADB2-11A1611AB19E}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F5313C9D-A647-4D5E-ADB2-11A1611AB19E}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A1:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -21237,8 +21260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{987B9798-8AF7-4E42-94BA-549155F80C09}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -21253,7 +21276,7 @@
         <v>205</v>
       </c>
       <c r="B1" s="120">
-        <v>4.41E-2</v>
+        <v>5.9499999999999997E-2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -21261,7 +21284,7 @@
         <v>206</v>
       </c>
       <c r="B2" s="215">
-        <v>9.1999999999999998E-3</v>
+        <v>1.49E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -21269,7 +21292,7 @@
         <v>207</v>
       </c>
       <c r="B3" s="215">
-        <v>0.1225</v>
+        <v>0.12429999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -21277,7 +21300,7 @@
         <v>208</v>
       </c>
       <c r="B4" s="292">
-        <v>726599458</v>
+        <v>738380983.59000003</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -21286,7 +21309,7 @@
       </c>
       <c r="B6" s="215">
         <f>'Credit Risk Tables'!BP58</f>
-        <v>0.13</v>
+        <v>0.13800000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -21304,7 +21327,7 @@
       </c>
       <c r="B8" s="3">
         <f>SUM('Credit Ratings'!E2:E5)</f>
-        <v>0.2374</v>
+        <v>0.25270000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -21313,7 +21336,7 @@
       </c>
       <c r="B9" s="3">
         <f>'Credit Risk Tables'!Q4</f>
-        <v>0.22645974216497028</v>
+        <v>0.1939082414860159</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -21322,7 +21345,7 @@
       </c>
       <c r="B10" s="3">
         <f>'Postion Level'!C282</f>
-        <v>0.52600000000000002</v>
+        <v>0.52300000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -21331,7 +21354,7 @@
       </c>
       <c r="B11" s="215">
         <f>'Credit Risk Tables'!S16</f>
-        <v>5.3950126411201815E-3</v>
+        <v>6.6835595270179678E-3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -21340,7 +21363,7 @@
       </c>
       <c r="B12" s="291">
         <f>'Credit Risk Tables'!K4</f>
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -21358,7 +21381,7 @@
       </c>
       <c r="B14" s="291">
         <f>'Credit Risk Tables'!K6</f>
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -21367,7 +21390,7 @@
       </c>
       <c r="B15" s="291">
         <f>'Credit Risk Tables'!K7</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -21375,7 +21398,7 @@
         <v>202</v>
       </c>
       <c r="B16" s="2">
-        <v>5400000</v>
+        <v>3667000</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -21384,7 +21407,7 @@
       </c>
       <c r="B17" s="215">
         <f>SUM('Postion Level'!B2:B11)</f>
-        <v>0.20109334739736698</v>
+        <v>0.20451512867056715</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -21393,7 +21416,7 @@
       </c>
       <c r="B18" s="215">
         <f>'Credit Risk Tables'!AM82</f>
-        <v>9.5749087871268346E-2</v>
+        <v>0.12347046706366238</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -21402,7 +21425,7 @@
       </c>
       <c r="B19" s="293">
         <f>'Credit Risk Tables'!AM74</f>
-        <v>-58.411000000000001</v>
+        <v>-79.911000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -21410,12 +21433,12 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
-        <f>'Credit Risk Tables'!AO35</f>
+        <f>'Credit Risk Tables'!AO34</f>
         <v>CMBS</v>
       </c>
       <c r="B22" s="215">
-        <f>'Credit Risk Tables'!AP36</f>
-        <v>3.3E-3</v>
+        <f>'Credit Risk Tables'!AP35</f>
+        <v>1.54E-2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -21425,37 +21448,37 @@
       </c>
       <c r="B23" s="215">
         <f>'Credit Risk Tables'!AP38</f>
-        <v>2.5000000000000001E-3</v>
+        <v>4.8999999999999998E-3</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
-        <f>'Credit Risk Tables'!AO43</f>
+        <f>'Credit Risk Tables'!AO42</f>
         <v>CLO</v>
       </c>
       <c r="B24" s="215">
         <f>'Credit Risk Tables'!AP43</f>
-        <v>0</v>
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
-        <f>'Credit Risk Tables'!AO40</f>
+        <f>'Credit Risk Tables'!AO39</f>
         <v>Hedges</v>
       </c>
       <c r="B25" s="215">
         <f>'Credit Risk Tables'!AP41</f>
-        <v>2.8E-3</v>
+        <v>-6.9999999999999999E-4</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
-        <f>'Credit Risk Tables'!AO46</f>
+        <f>'Credit Risk Tables'!AO45</f>
         <v>Cash</v>
       </c>
       <c r="B26" s="215">
         <f>'Credit Risk Tables'!AP46</f>
-        <v>6.9999999999999999E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -21465,7 +21488,7 @@
       </c>
       <c r="B27" s="215">
         <f>'Credit Risk Tables'!AP49</f>
-        <v>9.2999999999999992E-3</v>
+        <v>2.01E-2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -21475,7 +21498,7 @@
       </c>
       <c r="B28" s="215">
         <f>'Credit Risk Tables'!AP52</f>
-        <v>6.3E-3</v>
+        <v>1.49E-2</v>
       </c>
     </row>
   </sheetData>
@@ -21489,7 +21512,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21568,7 +21591,7 @@
         <v>2012</v>
       </c>
       <c r="B14" s="258">
-        <v>2.7300000000000001E-2</v>
+        <v>2.12E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21576,7 +21599,7 @@
         <v>2013</v>
       </c>
       <c r="B15" s="258">
-        <v>1.6299999999999999E-2</v>
+        <v>1.5900000000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21584,7 +21607,7 @@
         <v>2014</v>
       </c>
       <c r="B16" s="258">
-        <v>8.6599999999999996E-2</v>
+        <v>8.2299999999999998E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21592,7 +21615,7 @@
         <v>2015</v>
       </c>
       <c r="B17" s="258">
-        <v>0.18140000000000001</v>
+        <v>0.20630000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21600,7 +21623,7 @@
         <v>2016</v>
       </c>
       <c r="B18" s="258">
-        <v>0.11600000000000001</v>
+        <v>0.1089</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21608,7 +21631,7 @@
         <v>2017</v>
       </c>
       <c r="B19" s="258">
-        <v>0.1041</v>
+        <v>9.35E-2</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21616,7 +21639,7 @@
         <v>2018</v>
       </c>
       <c r="B20" s="258">
-        <v>4.2599999999999999E-2</v>
+        <v>4.6300000000000001E-2</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21624,7 +21647,7 @@
         <v>2019</v>
       </c>
       <c r="B21" s="258">
-        <v>0.13270000000000001</v>
+        <v>0.12809999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21632,7 +21655,7 @@
         <v>2020</v>
       </c>
       <c r="B22" s="258">
-        <v>2.8400000000000002E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21640,7 +21663,7 @@
         <v>2021</v>
       </c>
       <c r="B23" s="258">
-        <v>0.2397</v>
+        <v>0.23210000000000003</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -21648,16 +21671,12 @@
         <v>2024</v>
       </c>
       <c r="B24" s="258">
-        <v>1.7600000000000001E-2</v>
+        <v>1.0500000000000001E-2</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="216">
-        <v>2025</v>
-      </c>
-      <c r="B25" s="259">
-        <v>7.1000000000000004E-3</v>
-      </c>
+      <c r="A25" s="216"/>
+      <c r="B25" s="259"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21670,8 +21689,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B1:BU145"/>
   <sheetViews>
-    <sheetView topLeftCell="I110" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W140" sqref="W140:AA145"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21756,18 +21775,18 @@
       <c r="O2" s="50"/>
       <c r="P2" s="50"/>
       <c r="Q2" s="222"/>
-      <c r="R2" s="298" t="s">
+      <c r="R2" s="301" t="s">
         <v>114</v>
       </c>
-      <c r="S2" s="299"/>
+      <c r="S2" s="302"/>
       <c r="V2" s="190"/>
       <c r="W2" s="191"/>
       <c r="X2" s="191"/>
       <c r="Y2" s="191"/>
       <c r="Z2" s="191"/>
       <c r="AA2" s="191"/>
-      <c r="AB2" s="297"/>
-      <c r="AC2" s="297"/>
+      <c r="AB2" s="303"/>
+      <c r="AC2" s="303"/>
       <c r="AD2" s="191"/>
       <c r="AE2" s="191"/>
     </row>
@@ -21833,61 +21852,61 @@
     <row r="4" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4">
         <f>F4/J4</f>
-        <v>1.0957490878712683</v>
+        <v>1.1234704670636624</v>
       </c>
       <c r="D4" s="53">
         <f>J4-H4-I4</f>
-        <v>796.03699999999981</v>
+        <v>829.49899999999991</v>
       </c>
       <c r="E4" s="223" t="s">
         <v>71</v>
       </c>
       <c r="F4" s="264">
         <f>SUM(F5:F10)</f>
-        <v>796.16799999999978</v>
+        <v>829.54699999999991</v>
       </c>
       <c r="G4" s="265">
         <f>SUM(G5:G10)</f>
-        <v>-0.13100000000000001</v>
+        <v>-4.8000000000000001E-2</v>
       </c>
       <c r="H4" s="265">
         <f>SUM(H5:H8)</f>
-        <v>-58.411000000000001</v>
+        <v>-79.911000000000001</v>
       </c>
       <c r="I4" s="265">
         <f>I5+I6</f>
-        <v>-11.029</v>
+        <v>-11.209</v>
       </c>
       <c r="J4" s="264">
         <f>SUM(J5:J10)</f>
-        <v>726.59699999999987</v>
+        <v>738.37899999999991</v>
       </c>
       <c r="K4" s="105">
         <f>SUM(K5:K10)</f>
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="L4" s="265">
         <f>SUM(L5:L10)</f>
-        <v>53828</v>
+        <v>80239</v>
       </c>
       <c r="M4" s="265">
         <f>SUM(M5:M10)</f>
-        <v>51409.067630774145</v>
+        <v>63449.295127040154</v>
       </c>
       <c r="N4" s="267">
-        <v>79.12</v>
+        <v>78.2</v>
       </c>
       <c r="O4" s="265">
         <f>SUM(O5:O10)</f>
-        <v>3.92</v>
+        <v>4.9349999999999996</v>
       </c>
       <c r="P4" s="45">
         <f>100%-C34</f>
-        <v>0.98085733907516826</v>
+        <v>0.9813970874036233</v>
       </c>
       <c r="Q4" s="268">
         <f>B18</f>
-        <v>0.22645974216497028</v>
+        <v>0.1939082414860159</v>
       </c>
       <c r="R4" s="91">
         <v>0.214</v>
@@ -21912,42 +21931,42 @@
     <row r="5" spans="2:32" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D5" s="82">
         <f>F5/F4</f>
-        <v>0.14415299283568295</v>
+        <v>0.14052368340793228</v>
       </c>
       <c r="E5" s="25" t="s">
         <v>35</v>
       </c>
       <c r="F5" s="263">
         <f>J5-H5-I5</f>
-        <v>114.77</v>
+        <v>116.571</v>
       </c>
       <c r="G5" s="40">
         <v>0</v>
       </c>
       <c r="H5" s="40">
-        <v>-22.631</v>
+        <v>-13.887</v>
       </c>
       <c r="I5" s="40">
         <v>0</v>
       </c>
       <c r="J5" s="266">
-        <v>92.138999999999996</v>
+        <v>102.684</v>
       </c>
       <c r="K5" s="99">
         <v>21</v>
       </c>
       <c r="L5" s="40">
-        <v>13129</v>
+        <v>15123</v>
       </c>
       <c r="M5" s="40">
         <f>L5*0.5</f>
-        <v>6564.5</v>
+        <v>7561.5</v>
       </c>
       <c r="N5" s="269">
-        <v>84.97</v>
+        <v>85.6</v>
       </c>
       <c r="O5" s="40">
-        <v>0.58099999999999996</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="P5" s="270">
         <v>1</v>
@@ -21984,50 +22003,50 @@
     <row r="6" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D6" s="82">
         <f>F6/F4</f>
-        <v>0.75404688457712454</v>
+        <v>0.74184585080773002</v>
       </c>
       <c r="E6" s="25" t="s">
         <v>34</v>
       </c>
       <c r="F6" s="263">
         <f>J6-H6-I6</f>
-        <v>600.34799999999996</v>
+        <v>615.39599999999996</v>
       </c>
       <c r="G6" s="40">
         <v>0</v>
       </c>
       <c r="H6" s="40">
-        <v>-35.78</v>
+        <v>-66.024000000000001</v>
       </c>
       <c r="I6" s="40">
-        <v>-11.029</v>
+        <v>-11.209</v>
       </c>
       <c r="J6" s="266">
-        <v>553.53899999999999</v>
+        <v>538.16300000000001</v>
       </c>
       <c r="K6" s="99">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L6" s="40">
-        <v>71215</v>
+        <v>82125</v>
       </c>
       <c r="M6" s="40">
         <f>L6*(1-Q6)*0.9</f>
-        <v>44844.567630774145</v>
+        <v>54592.795127040154</v>
       </c>
       <c r="N6" s="269">
-        <v>78</v>
+        <v>77.8</v>
       </c>
       <c r="O6" s="40">
-        <v>3.06</v>
+        <v>3.93</v>
       </c>
       <c r="P6" s="270">
         <f>100%-C35</f>
-        <v>0.97487259253638858</v>
+        <v>0.97447613455402915</v>
       </c>
       <c r="Q6" s="271">
         <f>C18</f>
-        <v>0.30032581102960287</v>
+        <v>0.26138616435595946</v>
       </c>
       <c r="R6" s="38"/>
       <c r="S6" s="94"/>
@@ -22056,28 +22075,36 @@
     <row r="7" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D7" s="82">
         <f>F7/F4</f>
-        <v>2.5497131258729322E-2</v>
+        <v>3.6246288637051309E-2</v>
       </c>
       <c r="E7" s="25" t="s">
         <v>204</v>
       </c>
       <c r="F7" s="263">
         <f>J7</f>
-        <v>20.3</v>
+        <v>30.068000000000001</v>
       </c>
       <c r="G7" s="40"/>
       <c r="H7" s="40"/>
       <c r="I7" s="40"/>
       <c r="J7" s="266">
-        <v>20.3</v>
+        <v>30.068000000000001</v>
       </c>
       <c r="K7" s="99">
-        <v>1</v>
-      </c>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="269"/>
-      <c r="O7" s="40"/>
+        <v>3</v>
+      </c>
+      <c r="L7" s="40">
+        <v>11201</v>
+      </c>
+      <c r="M7" s="40">
+        <v>1295</v>
+      </c>
+      <c r="N7" s="269">
+        <v>72.510000000000005</v>
+      </c>
+      <c r="O7" s="40">
+        <v>0.14799999999999999</v>
+      </c>
       <c r="P7" s="270"/>
       <c r="Q7" s="271"/>
       <c r="R7" s="38"/>
@@ -22097,14 +22124,14 @@
     <row r="8" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D8" s="82">
         <f>F8/F4</f>
-        <v>7.2807497915012925E-2</v>
+        <v>8.6188003814129888E-2</v>
       </c>
       <c r="E8" s="224" t="s">
         <v>189</v>
       </c>
       <c r="F8" s="263">
         <f>J8</f>
-        <v>57.966999999999999</v>
+        <v>71.497</v>
       </c>
       <c r="G8" s="40" t="s">
         <v>66</v>
@@ -22116,7 +22143,7 @@
         <v>66</v>
       </c>
       <c r="J8" s="266">
-        <v>57.966999999999999</v>
+        <v>71.497</v>
       </c>
       <c r="K8" s="40" t="s">
         <v>66</v>
@@ -22129,7 +22156,7 @@
         <v>66</v>
       </c>
       <c r="O8" s="40">
-        <v>0.27900000000000003</v>
+        <v>0.223</v>
       </c>
       <c r="P8" s="24" t="s">
         <v>66</v>
@@ -22164,14 +22191,14 @@
     <row r="9" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D9" s="82">
         <f>F9/F4</f>
-        <v>2.604977843872148E-3</v>
+        <v>-5.8586192222984364E-3</v>
       </c>
       <c r="E9" s="224" t="s">
         <v>190</v>
       </c>
       <c r="F9" s="263">
         <f>J9</f>
-        <v>2.0739999999999998</v>
+        <v>-4.8600000000000003</v>
       </c>
       <c r="G9" s="40" t="s">
         <v>66</v>
@@ -22183,7 +22210,7 @@
         <v>66</v>
       </c>
       <c r="J9" s="266">
-        <v>2.0739999999999998</v>
+        <v>-4.8600000000000003</v>
       </c>
       <c r="K9" s="40"/>
       <c r="L9" s="40"/>
@@ -22209,16 +22236,17 @@
     <row r="10" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D10" s="82">
         <f>F10/F4</f>
-        <v>8.9051556957828019E-4</v>
+        <v>1.0547925554549654E-3</v>
       </c>
       <c r="E10" s="224" t="s">
         <v>123</v>
       </c>
       <c r="F10" s="263">
-        <v>0.70899999999999996</v>
+        <f>J10-G10</f>
+        <v>0.875</v>
       </c>
       <c r="G10" s="40">
-        <v>-0.13100000000000001</v>
+        <v>-4.8000000000000001E-2</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>66</v>
@@ -22227,13 +22255,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="266">
-        <v>0.57799999999999996</v>
+        <v>0.82699999999999996</v>
       </c>
       <c r="K10" s="99">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L10" s="40">
-        <v>-30516</v>
+        <v>-28210</v>
       </c>
       <c r="M10" s="40" t="s">
         <v>66</v>
@@ -22347,7 +22375,7 @@
         <v>155</v>
       </c>
       <c r="C13" s="4">
-        <v>130</v>
+        <v>135.42500000000001</v>
       </c>
       <c r="E13" s="273"/>
       <c r="F13" s="16"/>
@@ -22392,7 +22420,7 @@
         <v>186</v>
       </c>
       <c r="C14" s="4">
-        <v>50.3</v>
+        <v>25.431000000000001</v>
       </c>
       <c r="E14" s="275"/>
       <c r="F14" s="192"/>
@@ -22422,7 +22450,7 @@
     <row r="15" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C15" s="4">
         <f>C13+C14</f>
-        <v>180.3</v>
+        <v>160.85600000000002</v>
       </c>
       <c r="E15" s="192"/>
       <c r="F15" s="208"/>
@@ -22471,7 +22499,7 @@
       <c r="R16" s="192"/>
       <c r="S16" s="279">
         <f>O4/J4</f>
-        <v>5.3950126411201815E-3</v>
+        <v>6.6835595270179678E-3</v>
       </c>
       <c r="U16" s="56"/>
       <c r="V16" s="205"/>
@@ -22494,7 +22522,7 @@
       <c r="H17" s="276"/>
       <c r="I17" s="276">
         <f>J4-I4-H4</f>
-        <v>796.03699999999981</v>
+        <v>829.4989999999998</v>
       </c>
       <c r="J17" s="276"/>
       <c r="K17" s="277"/>
@@ -22519,11 +22547,11 @@
     <row r="18" spans="2:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="82">
         <f>C15/F4</f>
-        <v>0.22645974216497028</v>
+        <v>0.1939082414860159</v>
       </c>
       <c r="C18" s="82">
         <f>C15/F6</f>
-        <v>0.30032581102960287</v>
+        <v>0.26138616435595946</v>
       </c>
       <c r="E18" s="192"/>
       <c r="F18" s="208"/>
@@ -22641,7 +22669,7 @@
       </c>
       <c r="C21" s="294">
         <f>J8</f>
-        <v>57.966999999999999</v>
+        <v>71.497</v>
       </c>
       <c r="E21" s="209"/>
       <c r="F21" s="208"/>
@@ -22684,7 +22712,7 @@
       </c>
       <c r="C22" s="294">
         <f>J9</f>
-        <v>2.0739999999999998</v>
+        <v>-4.8600000000000003</v>
       </c>
       <c r="E22" s="192"/>
       <c r="F22" s="208"/>
@@ -22727,7 +22755,7 @@
       <c r="B23" s="44"/>
       <c r="C23" s="4">
         <f>SUM(C21:C22)</f>
-        <v>60.040999999999997</v>
+        <v>66.637</v>
       </c>
       <c r="E23" s="192"/>
       <c r="F23" s="208"/>
@@ -23131,11 +23159,11 @@
     </row>
     <row r="34" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B34" s="255">
-        <v>13.909000000000001</v>
+        <v>13.736000000000001</v>
       </c>
       <c r="C34" s="82">
         <f>B34/J4</f>
-        <v>1.914266092483179E-2</v>
+        <v>1.8602912596376659E-2</v>
       </c>
       <c r="D34" s="251" t="s">
         <v>184</v>
@@ -23165,11 +23193,14 @@
       <c r="AD34" s="192"/>
       <c r="AE34" s="192"/>
       <c r="AF34" s="192"/>
+      <c r="AO34" s="37" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="35" spans="2:47" x14ac:dyDescent="0.25">
       <c r="C35" s="82">
         <f>B34/J6</f>
-        <v>2.5127407463611418E-2</v>
+        <v>2.5523865445970829E-2</v>
       </c>
       <c r="D35" s="251" t="s">
         <v>34</v>
@@ -23180,14 +23211,13 @@
       <c r="AI35" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="AJ35" s="295"/>
-      <c r="AK35" s="295"/>
-      <c r="AL35" s="295"/>
-      <c r="AM35" s="296"/>
-      <c r="AO35" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="AP35" s="36"/>
+      <c r="AJ35" s="304"/>
+      <c r="AK35" s="304"/>
+      <c r="AL35" s="304"/>
+      <c r="AM35" s="305"/>
+      <c r="AP35" s="36">
+        <v>1.54E-2</v>
+      </c>
       <c r="AQ35" s="42"/>
       <c r="AR35" s="42"/>
       <c r="AS35" s="42"/>
@@ -23210,16 +23240,13 @@
         <v>153</v>
       </c>
       <c r="AI36" s="37"/>
-      <c r="AJ36" s="295">
-        <v>6.1000000000000004E-3</v>
-      </c>
-      <c r="AK36" s="295"/>
-      <c r="AL36" s="295"/>
-      <c r="AM36" s="296"/>
+      <c r="AJ36" s="304">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="AK36" s="304"/>
+      <c r="AL36" s="304"/>
+      <c r="AM36" s="305"/>
       <c r="AO36" s="37"/>
-      <c r="AP36" s="36">
-        <v>3.3E-3</v>
-      </c>
       <c r="AQ36" s="42"/>
       <c r="AR36" s="42"/>
       <c r="AS36" s="42"/>
@@ -23245,10 +23272,10 @@
       <c r="AI37" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="AJ37" s="295"/>
-      <c r="AK37" s="295"/>
-      <c r="AL37" s="295"/>
-      <c r="AM37" s="296"/>
+      <c r="AJ37" s="304"/>
+      <c r="AK37" s="304"/>
+      <c r="AL37" s="304"/>
+      <c r="AM37" s="305"/>
       <c r="AO37" s="37" t="s">
         <v>35</v>
       </c>
@@ -23277,15 +23304,14 @@
         <v>0.15625861758820547</v>
       </c>
       <c r="AI38" s="37"/>
-      <c r="AJ38" s="295">
-        <v>3.2000000000000002E-3</v>
-      </c>
-      <c r="AK38" s="295"/>
-      <c r="AL38" s="295"/>
-      <c r="AM38" s="296"/>
-      <c r="AO38" s="37"/>
+      <c r="AJ38" s="304">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="AK38" s="304"/>
+      <c r="AL38" s="304"/>
+      <c r="AM38" s="305"/>
       <c r="AP38" s="36">
-        <v>2.5000000000000001E-3</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="AQ38" s="42"/>
       <c r="AR38" s="42"/>
@@ -23304,11 +23330,11 @@
       <c r="K39" s="191"/>
       <c r="L39" s="191"/>
       <c r="M39" s="191"/>
-      <c r="N39" s="297"/>
-      <c r="O39" s="297"/>
-      <c r="P39" s="297"/>
-      <c r="Q39" s="297"/>
-      <c r="R39" s="297"/>
+      <c r="N39" s="303"/>
+      <c r="O39" s="303"/>
+      <c r="P39" s="303"/>
+      <c r="Q39" s="303"/>
+      <c r="R39" s="303"/>
       <c r="W39" s="23">
         <v>3</v>
       </c>
@@ -23331,7 +23357,9 @@
       <c r="AK39" s="35"/>
       <c r="AL39" s="35"/>
       <c r="AM39" s="35"/>
-      <c r="AO39" s="37"/>
+      <c r="AO39" s="37" t="s">
+        <v>85</v>
+      </c>
       <c r="AP39" s="36"/>
       <c r="AQ39" s="42"/>
       <c r="AR39" s="42"/>
@@ -23370,15 +23398,12 @@
         <v>0.12240616774450112</v>
       </c>
       <c r="AI40" s="37"/>
-      <c r="AJ40" s="295">
-        <v>0</v>
-      </c>
-      <c r="AK40" s="295"/>
-      <c r="AL40" s="295"/>
-      <c r="AM40" s="296"/>
-      <c r="AO40" s="37" t="s">
-        <v>85</v>
-      </c>
+      <c r="AJ40" s="304">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="AK40" s="304"/>
+      <c r="AL40" s="304"/>
+      <c r="AM40" s="305"/>
       <c r="AP40" s="36"/>
       <c r="AQ40" s="42"/>
       <c r="AR40" s="42"/>
@@ -23421,9 +23446,8 @@
       <c r="AK41" s="43"/>
       <c r="AL41" s="43"/>
       <c r="AM41" s="43"/>
-      <c r="AO41" s="37"/>
       <c r="AP41" s="36">
-        <v>2.8E-3</v>
+        <v>-6.9999999999999999E-4</v>
       </c>
       <c r="AQ41" s="42"/>
       <c r="AR41" s="42"/>
@@ -23449,11 +23473,13 @@
       <c r="AI42" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="AJ42" s="295"/>
-      <c r="AK42" s="295"/>
-      <c r="AL42" s="295"/>
-      <c r="AM42" s="296"/>
-      <c r="AO42" s="37"/>
+      <c r="AJ42" s="304"/>
+      <c r="AK42" s="304"/>
+      <c r="AL42" s="304"/>
+      <c r="AM42" s="305"/>
+      <c r="AO42" s="37" t="s">
+        <v>204</v>
+      </c>
       <c r="AP42" s="36"/>
       <c r="AQ42" s="42"/>
       <c r="AR42" s="42"/>
@@ -23477,18 +23503,15 @@
       <c r="Q43" s="201"/>
       <c r="R43" s="289"/>
       <c r="T43" s="44"/>
-      <c r="AJ43" s="295">
+      <c r="AJ43" s="304">
         <f>SUM(AJ36:AM40)</f>
-        <v>9.300000000000001E-3</v>
-      </c>
-      <c r="AK43" s="295"/>
-      <c r="AL43" s="295"/>
-      <c r="AM43" s="296"/>
-      <c r="AO43" s="37" t="s">
-        <v>204</v>
-      </c>
+        <v>2.01E-2</v>
+      </c>
+      <c r="AK43" s="304"/>
+      <c r="AL43" s="304"/>
+      <c r="AM43" s="305"/>
       <c r="AP43" s="36">
-        <v>0</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="AQ43" s="42"/>
       <c r="AR43" s="42"/>
@@ -23547,12 +23570,15 @@
       <c r="AA45" s="89" t="s">
         <v>153</v>
       </c>
-      <c r="AJ45" s="295">
-        <v>6.3E-3</v>
-      </c>
-      <c r="AK45" s="295"/>
-      <c r="AL45" s="295"/>
-      <c r="AM45" s="296"/>
+      <c r="AJ45" s="304">
+        <v>1.49E-2</v>
+      </c>
+      <c r="AK45" s="304"/>
+      <c r="AL45" s="304"/>
+      <c r="AM45" s="305"/>
+      <c r="AO45" s="37" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="46" spans="2:47" x14ac:dyDescent="0.25">
       <c r="E46" s="192"/>
@@ -23584,11 +23610,8 @@
       <c r="AA46" s="118">
         <v>0.36668841303910554</v>
       </c>
-      <c r="AO46" s="37" t="s">
-        <v>84</v>
-      </c>
       <c r="AP46" s="36">
-        <v>6.9999999999999999E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
     </row>
     <row r="47" spans="2:47" x14ac:dyDescent="0.25">
@@ -23690,8 +23713,8 @@
         <v>0.12770799210261</v>
       </c>
       <c r="AP49" s="36">
-        <f>SUM(AP36:AP46)</f>
-        <v>9.2999999999999992E-3</v>
+        <f>SUM(AP35:AP46)</f>
+        <v>2.01E-2</v>
       </c>
     </row>
     <row r="50" spans="5:69" x14ac:dyDescent="0.25">
@@ -23761,7 +23784,7 @@
       <c r="Q52" s="192"/>
       <c r="R52" s="192"/>
       <c r="AP52" s="35">
-        <v>6.3E-3</v>
+        <v>1.49E-2</v>
       </c>
     </row>
     <row r="53" spans="5:69" x14ac:dyDescent="0.25">
@@ -23890,11 +23913,11 @@
         <f>AO56/AO61</f>
         <v>4.3058712434409369E-2</v>
       </c>
-      <c r="BO56" s="305" t="s">
+      <c r="BO56" s="300" t="s">
         <v>114</v>
       </c>
-      <c r="BP56" s="300"/>
-      <c r="BQ56" s="301"/>
+      <c r="BP56" s="295"/>
+      <c r="BQ56" s="296"/>
     </row>
     <row r="57" spans="5:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E57" s="192"/>
@@ -23996,7 +24019,7 @@
         <v>68</v>
       </c>
       <c r="BP58" s="18">
-        <v>0.13</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="BQ58" s="21">
         <v>0.05</v>
@@ -24466,10 +24489,10 @@
       <c r="AA73" s="89" t="s">
         <v>108</v>
       </c>
-      <c r="AL73" s="302" t="s">
+      <c r="AL73" s="297" t="s">
         <v>182</v>
       </c>
-      <c r="AM73" s="304"/>
+      <c r="AM73" s="299"/>
       <c r="BU73" s="44">
         <v>2000000</v>
       </c>
@@ -24509,7 +24532,7 @@
       </c>
       <c r="AM74" s="70">
         <f>H4</f>
-        <v>-58.411000000000001</v>
+        <v>-79.911000000000001</v>
       </c>
       <c r="BU74" s="44">
         <v>711000000</v>
@@ -24550,16 +24573,16 @@
       </c>
       <c r="AM75" s="70">
         <f>J10</f>
-        <v>0.57799999999999996</v>
-      </c>
-      <c r="AO75" s="302" t="s">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="AO75" s="297" t="s">
         <v>156</v>
       </c>
-      <c r="AP75" s="303"/>
-      <c r="AQ75" s="303"/>
-      <c r="AR75" s="303"/>
-      <c r="AS75" s="303"/>
-      <c r="AT75" s="304"/>
+      <c r="AP75" s="298"/>
+      <c r="AQ75" s="298"/>
+      <c r="AR75" s="298"/>
+      <c r="AS75" s="298"/>
+      <c r="AT75" s="299"/>
       <c r="BU75" s="4">
         <f>BU73/BU74</f>
         <v>2.8129395218002813E-3</v>
@@ -24658,17 +24681,17 @@
         <v>34</v>
       </c>
       <c r="AP77" s="16">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="AQ77" s="16">
         <v>8</v>
       </c>
       <c r="AR77" s="16"/>
       <c r="AS77" s="39">
-        <v>87.793000000000006</v>
+        <v>52.689</v>
       </c>
       <c r="AT77" s="64">
-        <v>-44.68</v>
+        <v>-37.299999999999997</v>
       </c>
     </row>
     <row r="78" spans="5:73" x14ac:dyDescent="0.25">
@@ -24710,23 +24733,23 @@
       </c>
       <c r="AM78" s="189">
         <f>1-(J6/F6)</f>
-        <v>7.7969777529033113E-2</v>
+        <v>0.12550130322589026</v>
       </c>
       <c r="AO78" s="68" t="s">
         <v>35</v>
       </c>
       <c r="AP78" s="16">
+        <v>6</v>
+      </c>
+      <c r="AQ78" s="16">
         <v>5</v>
-      </c>
-      <c r="AQ78" s="16">
-        <v>0</v>
       </c>
       <c r="AR78" s="16"/>
       <c r="AS78" s="39">
-        <v>9.6859999999999999</v>
+        <v>13.45</v>
       </c>
       <c r="AT78" s="64">
-        <v>0</v>
+        <v>-14.65</v>
       </c>
     </row>
     <row r="79" spans="5:73" x14ac:dyDescent="0.25">
@@ -24749,20 +24772,20 @@
       </c>
       <c r="AM79" s="112">
         <f>1-(J5/F5)</f>
-        <v>0.19718567569922452</v>
+        <v>0.11912911444527374</v>
       </c>
       <c r="AO79" s="68" t="s">
         <v>204</v>
       </c>
       <c r="AP79" s="16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AQ79" s="16">
         <v>0</v>
       </c>
       <c r="AR79" s="16"/>
       <c r="AS79" s="39">
-        <v>20.234000000000002</v>
+        <v>9.6809999999999992</v>
       </c>
       <c r="AT79" s="64">
         <v>0</v>
@@ -24782,14 +24805,14 @@
         <v>2</v>
       </c>
       <c r="AQ80" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR80" s="16"/>
       <c r="AS80" s="39">
-        <v>0.48099999999999998</v>
+        <v>0.81</v>
       </c>
       <c r="AT80" s="64">
-        <v>-0.28100000000000003</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="81" spans="23:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24824,27 +24847,27 @@
       </c>
       <c r="AM82" s="188">
         <f>(F4/J4)-1</f>
-        <v>9.5749087871268346E-2</v>
+        <v>0.12347046706366238</v>
       </c>
       <c r="AO82" s="68" t="s">
         <v>101</v>
       </c>
       <c r="AP82" s="113">
         <f>SUM(AP77:AP80)</f>
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="AQ82" s="113">
         <f>SUM(AQ77:AQ80)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AR82" s="114"/>
       <c r="AS82" s="115">
         <f>SUM(AS77:AS80)</f>
-        <v>118.19400000000002</v>
+        <v>76.63</v>
       </c>
       <c r="AT82" s="116">
         <f>SUM(AT77:AT80)</f>
-        <v>-44.960999999999999</v>
+        <v>-51.87</v>
       </c>
     </row>
     <row r="83" spans="23:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24884,7 +24907,7 @@
       </c>
       <c r="AS84" s="32">
         <f>SUM(AS82:AT82)</f>
-        <v>73.233000000000018</v>
+        <v>24.759999999999998</v>
       </c>
       <c r="AT84" s="65"/>
     </row>
@@ -24934,23 +24957,23 @@
         <v>60000</v>
       </c>
       <c r="AZ87" s="77"/>
-      <c r="BA87" s="305" t="s">
+      <c r="BA87" s="300" t="s">
         <v>98</v>
       </c>
-      <c r="BB87" s="300"/>
-      <c r="BC87" s="300"/>
-      <c r="BD87" s="300"/>
-      <c r="BE87" s="300"/>
+      <c r="BB87" s="295"/>
+      <c r="BC87" s="295"/>
+      <c r="BD87" s="295"/>
+      <c r="BE87" s="295"/>
       <c r="BF87" s="229"/>
-      <c r="BG87" s="300" t="s">
+      <c r="BG87" s="295" t="s">
         <v>97</v>
       </c>
-      <c r="BH87" s="300"/>
-      <c r="BI87" s="300"/>
-      <c r="BJ87" s="300"/>
-      <c r="BK87" s="300"/>
-      <c r="BL87" s="300"/>
-      <c r="BM87" s="301"/>
+      <c r="BH87" s="295"/>
+      <c r="BI87" s="295"/>
+      <c r="BJ87" s="295"/>
+      <c r="BK87" s="295"/>
+      <c r="BL87" s="295"/>
+      <c r="BM87" s="296"/>
       <c r="BN87" s="77"/>
     </row>
     <row r="88" spans="23:66" x14ac:dyDescent="0.25">
@@ -25128,6 +25151,15 @@
       <c r="AA94" s="85">
         <v>0.41199999999999998</v>
       </c>
+      <c r="AN94" s="312" t="s">
+        <v>212</v>
+      </c>
+      <c r="AO94" s="312" t="s">
+        <v>211</v>
+      </c>
+      <c r="AP94" s="312" t="s">
+        <v>213</v>
+      </c>
       <c r="AZ94" s="77"/>
       <c r="BA94" s="58"/>
       <c r="BB94" s="79"/>
@@ -25159,6 +25191,21 @@
       </c>
       <c r="AA95" s="85">
         <v>0.1694</v>
+      </c>
+      <c r="AN95" s="294">
+        <f>'Credit Risk Tables'!J7</f>
+        <v>30.068000000000001</v>
+      </c>
+      <c r="AO95" s="4">
+        <v>14.7</v>
+      </c>
+      <c r="AP95" s="294">
+        <f>AN95-AO95</f>
+        <v>15.368000000000002</v>
+      </c>
+      <c r="AQ95" s="4">
+        <f>AN95/AP95</f>
+        <v>1.9565330557001559</v>
       </c>
       <c r="AZ95" s="77"/>
       <c r="BA95" s="244"/>
@@ -25735,7 +25782,7 @@
     </row>
     <row r="139" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W139" s="102">
-        <v>45778</v>
+        <v>45809</v>
       </c>
     </row>
     <row r="140" spans="23:27" x14ac:dyDescent="0.25">
@@ -25757,68 +25804,68 @@
       <c r="W141" s="23">
         <v>1</v>
       </c>
-      <c r="X141" s="96" t="s">
+      <c r="X141" s="308" t="s">
         <v>105</v>
       </c>
-      <c r="Y141" s="96" t="s">
+      <c r="Y141" s="308" t="s">
         <v>105</v>
       </c>
       <c r="Z141" s="84">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="AA141" s="118">
         <v>0.52600000000000002</v>
-      </c>
-      <c r="AA141" s="118">
-        <v>0.52300000000000002</v>
       </c>
     </row>
     <row r="142" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W142" s="23">
         <v>2</v>
       </c>
-      <c r="X142" s="96" t="s">
+      <c r="X142" s="308" t="s">
         <v>105</v>
       </c>
-      <c r="Y142" s="97" t="s">
+      <c r="Y142" s="309" t="s">
         <v>106</v>
       </c>
       <c r="Z142" s="84">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="AA142" s="118">
         <v>5.2499999999999998E-2</v>
-      </c>
-      <c r="AA142" s="118">
-        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="143" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W143" s="23">
         <v>3</v>
       </c>
-      <c r="X143" s="96" t="s">
+      <c r="X143" s="308" t="s">
         <v>105</v>
       </c>
-      <c r="Y143" s="16" t="s">
+      <c r="Y143" s="310" t="s">
         <v>107</v>
       </c>
       <c r="Z143" s="121">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="AA143" s="156">
         <v>0.25819999999999999</v>
-      </c>
-      <c r="AA143" s="156">
-        <v>0.29020000000000001</v>
       </c>
     </row>
     <row r="144" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W144" s="23">
         <v>4</v>
       </c>
-      <c r="X144" s="97" t="s">
+      <c r="X144" s="309" t="s">
         <v>106</v>
       </c>
-      <c r="Y144" s="16" t="s">
+      <c r="Y144" s="310" t="s">
         <v>107</v>
       </c>
       <c r="Z144" s="84">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="AA144" s="118">
         <v>0.16300000000000001</v>
-      </c>
-      <c r="AA144" s="118">
-        <v>0.128</v>
       </c>
     </row>
     <row r="145" spans="23:27" x14ac:dyDescent="0.25">
@@ -25840,22 +25887,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="BG87:BM87"/>
-    <mergeCell ref="AO75:AT75"/>
-    <mergeCell ref="BA87:BE87"/>
-    <mergeCell ref="BO56:BQ56"/>
-    <mergeCell ref="AL73:AM73"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AJ37:AM37"/>
-    <mergeCell ref="AJ40:AM40"/>
-    <mergeCell ref="AJ42:AM42"/>
     <mergeCell ref="AJ45:AM45"/>
     <mergeCell ref="AJ36:AM36"/>
     <mergeCell ref="AJ35:AM35"/>
     <mergeCell ref="N39:R39"/>
     <mergeCell ref="AJ38:AM38"/>
     <mergeCell ref="AJ43:AM43"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AJ37:AM37"/>
+    <mergeCell ref="AJ40:AM40"/>
+    <mergeCell ref="AJ42:AM42"/>
+    <mergeCell ref="BG87:BM87"/>
+    <mergeCell ref="AO75:AT75"/>
+    <mergeCell ref="BA87:BE87"/>
+    <mergeCell ref="BO56:BQ56"/>
+    <mergeCell ref="AL73:AM73"/>
   </mergeCells>
   <conditionalFormatting sqref="X24:X25">
     <cfRule type="iconSet" priority="7">
@@ -25912,7 +25959,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -25951,10 +25998,10 @@
         <v>0</v>
       </c>
       <c r="D2" s="3">
-        <v>4.0899999999999999E-2</v>
+        <v>6.0299999999999999E-2</v>
       </c>
       <c r="E2" s="3">
-        <v>3.9199999999999999E-2</v>
+        <v>5.79E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -25968,10 +26015,10 @@
         <v>2527500</v>
       </c>
       <c r="D3" s="3">
-        <v>2.2100000000000002E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="E3" s="3">
-        <v>2.5499999999999998E-2</v>
+        <v>4.6600000000000003E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -25985,10 +26032,10 @@
         <v>5408062.1699999999</v>
       </c>
       <c r="D4" s="3">
-        <v>0.19670000000000001</v>
+        <v>0.1525</v>
       </c>
       <c r="E4" s="3">
-        <v>9.0499999999999997E-2</v>
+        <v>6.8599999999999994E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -26002,10 +26049,10 @@
         <v>31399631.039999999</v>
       </c>
       <c r="D5" s="3">
-        <v>0.33889999999999998</v>
+        <v>0.34639999999999999</v>
       </c>
       <c r="E5" s="3">
-        <v>8.2199999999999995E-2</v>
+        <v>7.9600000000000004E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -26019,10 +26066,10 @@
         <v>22336061.079999998</v>
       </c>
       <c r="D6" s="3">
-        <v>0.28399999999999997</v>
+        <v>0.2346</v>
       </c>
       <c r="E6" s="3">
-        <v>0.2039</v>
+        <v>0.1671</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -26036,10 +26083,10 @@
         <v>9600573.3499999996</v>
       </c>
       <c r="D7" s="3">
-        <v>6.8900000000000003E-2</v>
+        <v>6.3299999999999995E-2</v>
       </c>
       <c r="E7" s="3">
-        <v>0.23530000000000001</v>
+        <v>0.19189999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -26056,7 +26103,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="3">
-        <v>0.2747</v>
+        <v>0.30620000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -26070,10 +26117,10 @@
         <v>2272578.12</v>
       </c>
       <c r="D9" s="3">
-        <v>4.8000000000000001E-2</v>
+        <v>7.8399999999999997E-2</v>
       </c>
       <c r="E9" s="3">
-        <v>4.8599999999999997E-2</v>
+        <v>8.2100000000000006E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -26097,8 +26144,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q315"/>
   <sheetViews>
-    <sheetView topLeftCell="A266" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C282" sqref="C282:C286"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P49" sqref="P49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -26125,14 +26172,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="120">
-        <v>2.7603076959800871E-2</v>
+        <v>2.7538990223589292E-2</v>
       </c>
       <c r="C2" s="215">
-        <f>AVERAGE($B$2:$B$203)</f>
-        <v>4.9504950495049497E-3</v>
+        <f>AVERAGE($B$2:$B$202)</f>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -26141,11 +26188,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="120">
-        <v>2.360856625013329E-2</v>
+        <v>2.6175154413272166E-2</v>
       </c>
       <c r="C3" s="215">
         <f t="shared" ref="C3:C66" si="0">AVERAGE($B$2:$B$203)</f>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -26157,11 +26204,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="120">
-        <v>2.3402322055620168E-2</v>
+        <v>2.3464186653468201E-2</v>
       </c>
       <c r="C4" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -26173,14 +26220,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="120">
-        <v>2.05888562996406E-2</v>
+        <v>2.0811674921631201E-2</v>
       </c>
       <c r="C5" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D5" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -26189,27 +26236,30 @@
         <v>5</v>
       </c>
       <c r="B6" s="120">
-        <v>1.8913392714078433E-2</v>
+        <v>1.9578768201385599E-2</v>
       </c>
       <c r="C6" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1">
+        <f>COUNTIF(D2:D202,"Aircraft F1")</f>
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="120">
-        <v>1.869430820724963E-2</v>
+        <v>1.8773493030693669E-2</v>
       </c>
       <c r="C7" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
@@ -26221,14 +26271,14 @@
         <v>7</v>
       </c>
       <c r="B8" s="120">
-        <v>1.7812585417912863E-2</v>
+        <v>1.7809812530165472E-2</v>
       </c>
       <c r="C8" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -26237,11 +26287,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="120">
-        <v>1.6927414460360824E-2</v>
+        <v>1.7383613835201994E-2</v>
       </c>
       <c r="C9" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D9" t="s">
         <v>0</v>
@@ -26253,14 +26303,14 @@
         <v>9</v>
       </c>
       <c r="B10" s="120">
-        <v>1.6834731826414095E-2</v>
+        <v>1.7184630522191321E-2</v>
       </c>
       <c r="C10" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D10" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -26269,11 +26319,11 @@
         <v>10</v>
       </c>
       <c r="B11" s="120">
-        <v>1.6708093206156186E-2</v>
+        <v>1.5794804338968228E-2</v>
       </c>
       <c r="C11" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D11" t="s">
         <v>0</v>
@@ -26285,14 +26335,14 @@
         <v>11</v>
       </c>
       <c r="B12" s="120">
-        <v>1.5630506556561865E-2</v>
+        <v>1.4686433846166231E-2</v>
       </c>
       <c r="C12" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -26301,11 +26351,11 @@
         <v>12</v>
       </c>
       <c r="B13" s="120">
-        <v>1.4968596532968092E-2</v>
+        <v>1.449786664032068E-2</v>
       </c>
       <c r="C13" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D13" t="s">
         <v>0</v>
@@ -26317,14 +26367,14 @@
         <v>13</v>
       </c>
       <c r="B14" s="120">
-        <v>1.4710123346355169E-2</v>
+        <v>1.4409305989080376E-2</v>
       </c>
       <c r="C14" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D14" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -26333,11 +26383,11 @@
         <v>14</v>
       </c>
       <c r="B15" s="120">
-        <v>1.4405659830169882E-2</v>
+        <v>1.4404284098204045E-2</v>
       </c>
       <c r="C15" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D15" t="s">
         <v>0</v>
@@ -26349,11 +26399,11 @@
         <v>15</v>
       </c>
       <c r="B16" s="120">
-        <v>1.3690704796813986E-2</v>
+        <v>1.3648127397534097E-2</v>
       </c>
       <c r="C16" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D16" t="s">
         <v>0</v>
@@ -26365,11 +26415,11 @@
         <v>16</v>
       </c>
       <c r="B17" s="120">
-        <v>1.357484868628319E-2</v>
+        <v>1.3559905308638615E-2</v>
       </c>
       <c r="C17" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D17" t="s">
         <v>0</v>
@@ -26381,11 +26431,11 @@
         <v>17</v>
       </c>
       <c r="B18" s="120">
-        <v>1.3538934295655643E-2</v>
+        <v>1.3551353397569917E-2</v>
       </c>
       <c r="C18" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D18" t="s">
         <v>0</v>
@@ -26397,11 +26447,11 @@
         <v>18</v>
       </c>
       <c r="B19" s="120">
-        <v>1.3396795242317617E-2</v>
+        <v>1.3545218864184213E-2</v>
       </c>
       <c r="C19" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D19" t="s">
         <v>0</v>
@@ -26413,11 +26463,11 @@
         <v>19</v>
       </c>
       <c r="B20" s="120">
-        <v>1.3371096043399E-2</v>
+        <v>1.3260831776829964E-2</v>
       </c>
       <c r="C20" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D20" t="s">
         <v>0</v>
@@ -26429,11 +26479,11 @@
         <v>20</v>
       </c>
       <c r="B21" s="120">
-        <v>1.3211364311735181E-2</v>
+        <v>1.3045521512526304E-2</v>
       </c>
       <c r="C21" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D21" t="s">
         <v>0</v>
@@ -26445,11 +26495,11 @@
         <v>21</v>
       </c>
       <c r="B22" s="120">
-        <v>1.3075767690746897E-2</v>
+        <v>1.2992104519820752E-2</v>
       </c>
       <c r="C22" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D22" t="s">
         <v>0</v>
@@ -26461,11 +26511,11 @@
         <v>22</v>
       </c>
       <c r="B23" s="120">
-        <v>1.2904665218267648E-2</v>
+        <v>1.2952178621811184E-2</v>
       </c>
       <c r="C23" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D23" t="s">
         <v>0</v>
@@ -26477,11 +26527,11 @@
         <v>23</v>
       </c>
       <c r="B24" s="120">
-        <v>1.2790713733644652E-2</v>
+        <v>1.2944305298576649E-2</v>
       </c>
       <c r="C24" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D24" t="s">
         <v>0</v>
@@ -26493,11 +26543,11 @@
         <v>24</v>
       </c>
       <c r="B25" s="120">
-        <v>1.2687059665265749E-2</v>
+        <v>1.2746180150098659E-2</v>
       </c>
       <c r="C25" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D25" t="s">
         <v>0</v>
@@ -26509,14 +26559,14 @@
         <v>25</v>
       </c>
       <c r="B26" s="120">
-        <v>1.2387362656568425E-2</v>
+        <v>1.2201966476852724E-2</v>
       </c>
       <c r="C26" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D26" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E26" s="1"/>
     </row>
@@ -26525,11 +26575,11 @@
         <v>26</v>
       </c>
       <c r="B27" s="120">
-        <v>1.2029742290567816E-2</v>
+        <v>1.2127343849557545E-2</v>
       </c>
       <c r="C27" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D27" t="s">
         <v>22</v>
@@ -26541,11 +26591,11 @@
         <v>27</v>
       </c>
       <c r="B28" s="120">
-        <v>1.1478743293066277E-2</v>
+        <v>1.2004386987440666E-2</v>
       </c>
       <c r="C28" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D28" t="s">
         <v>0</v>
@@ -26557,14 +26607,14 @@
         <v>28</v>
       </c>
       <c r="B29" s="120">
-        <v>1.134102448497248E-2</v>
+        <v>1.1400472902684712E-2</v>
       </c>
       <c r="C29" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E29" s="1"/>
     </row>
@@ -26573,14 +26623,14 @@
         <v>29</v>
       </c>
       <c r="B30" s="120">
-        <v>1.1110602483398773E-2</v>
+        <v>1.1101553557256413E-2</v>
       </c>
       <c r="C30" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D30" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E30" s="1"/>
     </row>
@@ -26589,11 +26639,11 @@
         <v>30</v>
       </c>
       <c r="B31" s="120">
-        <v>1.0766457300483921E-2</v>
+        <v>1.1071060939994787E-2</v>
       </c>
       <c r="C31" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D31" t="s">
         <v>0</v>
@@ -26605,11 +26655,11 @@
         <v>31</v>
       </c>
       <c r="B32" s="120">
-        <v>1.0443485513269842E-2</v>
+        <v>1.088437447963592E-2</v>
       </c>
       <c r="C32" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D32" t="s">
         <v>0</v>
@@ -26621,14 +26671,14 @@
         <v>32</v>
       </c>
       <c r="B33" s="120">
-        <v>1.0356766938826315E-2</v>
+        <v>1.0571910778369747E-2</v>
       </c>
       <c r="C33" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D33" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E33" s="1"/>
     </row>
@@ -26637,11 +26687,11 @@
         <v>33</v>
       </c>
       <c r="B34" s="120">
-        <v>1.0059019387241096E-2</v>
+        <v>1.0486020124955267E-2</v>
       </c>
       <c r="C34" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D34" t="s">
         <v>0</v>
@@ -26653,11 +26703,11 @@
         <v>34</v>
       </c>
       <c r="B35" s="120">
-        <v>9.9543329365887438E-3</v>
+        <v>1.0290284203770549E-2</v>
       </c>
       <c r="C35" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D35" t="s">
         <v>0</v>
@@ -26669,11 +26719,11 @@
         <v>35</v>
       </c>
       <c r="B36" s="120">
-        <v>9.6014733263019344E-3</v>
+        <v>1.0147863308924242E-2</v>
       </c>
       <c r="C36" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D36" t="s">
         <v>0</v>
@@ -26685,14 +26735,14 @@
         <v>36</v>
       </c>
       <c r="B37" s="120">
-        <v>9.4608207326521317E-3</v>
+        <v>1.0017902508887424E-2</v>
       </c>
       <c r="C37" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D37" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E37" s="1"/>
     </row>
@@ -26701,11 +26751,11 @@
         <v>37</v>
       </c>
       <c r="B38" s="120">
-        <v>9.3841721550132103E-3</v>
+        <v>9.6768736269436818E-3</v>
       </c>
       <c r="C38" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D38" t="s">
         <v>0</v>
@@ -26717,11 +26767,11 @@
         <v>38</v>
       </c>
       <c r="B39" s="120">
-        <v>9.3585297123720459E-3</v>
+        <v>9.6377781494518429E-3</v>
       </c>
       <c r="C39" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D39" t="s">
         <v>0</v>
@@ -26733,11 +26783,11 @@
         <v>39</v>
       </c>
       <c r="B40" s="120">
-        <v>9.3559811325141639E-3</v>
+        <v>9.3896733693005566E-3</v>
       </c>
       <c r="C40" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D40" t="s">
         <v>0</v>
@@ -26749,11 +26799,11 @@
         <v>40</v>
       </c>
       <c r="B41" s="120">
-        <v>9.2438926652199088E-3</v>
+        <v>9.3418450702200135E-3</v>
       </c>
       <c r="C41" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D41" t="s">
         <v>0</v>
@@ -26765,11 +26815,11 @@
         <v>41</v>
       </c>
       <c r="B42" s="120">
-        <v>9.0532744909882831E-3</v>
+        <v>9.0548278345516531E-3</v>
       </c>
       <c r="C42" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D42" t="s">
         <v>0</v>
@@ -26781,14 +26831,14 @@
         <v>42</v>
       </c>
       <c r="B43" s="120">
-        <v>8.9050362726432776E-3</v>
+        <v>8.8717789268286575E-3</v>
       </c>
       <c r="C43" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D43" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E43" s="1"/>
     </row>
@@ -26797,11 +26847,11 @@
         <v>43</v>
       </c>
       <c r="B44" s="120">
-        <v>8.8565399508174839E-3</v>
+        <v>8.6618696394714645E-3</v>
       </c>
       <c r="C44" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D44" t="s">
         <v>0</v>
@@ -26813,11 +26863,11 @@
         <v>44</v>
       </c>
       <c r="B45" s="120">
-        <v>8.7058793924995725E-3</v>
+        <v>8.6058060203857388E-3</v>
       </c>
       <c r="C45" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D45" t="s">
         <v>0</v>
@@ -26829,11 +26879,11 @@
         <v>45</v>
       </c>
       <c r="B46" s="120">
-        <v>8.664832638034959E-3</v>
+        <v>8.5170073349799397E-3</v>
       </c>
       <c r="C46" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D46" t="s">
         <v>0</v>
@@ -26845,14 +26895,14 @@
         <v>46</v>
       </c>
       <c r="B47" s="120">
-        <v>8.4172933429500357E-3</v>
+        <v>8.4545708958043697E-3</v>
       </c>
       <c r="C47" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D47" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E47" s="1"/>
     </row>
@@ -26861,11 +26911,11 @@
         <v>47</v>
       </c>
       <c r="B48" s="120">
-        <v>8.3000600564401422E-3</v>
+        <v>8.2135133901149286E-3</v>
       </c>
       <c r="C48" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D48" t="s">
         <v>0</v>
@@ -26877,11 +26927,11 @@
         <v>48</v>
       </c>
       <c r="B49" s="120">
-        <v>8.2024514834402561E-3</v>
+        <v>8.0682192187579681E-3</v>
       </c>
       <c r="C49" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D49" t="s">
         <v>22</v>
@@ -26893,11 +26943,11 @@
         <v>49</v>
       </c>
       <c r="B50" s="120">
-        <v>8.1865538380034176E-3</v>
+        <v>7.9825308419737961E-3</v>
       </c>
       <c r="C50" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D50" t="s">
         <v>0</v>
@@ -26909,11 +26959,11 @@
         <v>50</v>
       </c>
       <c r="B51" s="120">
-        <v>8.0953154704701321E-3</v>
+        <v>7.9637372411657734E-3</v>
       </c>
       <c r="C51" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D51" t="s">
         <v>0</v>
@@ -26925,11 +26975,11 @@
         <v>51</v>
       </c>
       <c r="B52" s="120">
-        <v>8.0540949661939958E-3</v>
+        <v>7.9136900695474868E-3</v>
       </c>
       <c r="C52" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D52" t="s">
         <v>0</v>
@@ -26941,11 +26991,11 @@
         <v>52</v>
       </c>
       <c r="B53" s="120">
-        <v>7.959567712437313E-3</v>
+        <v>7.883877425358574E-3</v>
       </c>
       <c r="C53" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D53" t="s">
         <v>0</v>
@@ -26957,11 +27007,11 @@
         <v>53</v>
       </c>
       <c r="B54" s="120">
-        <v>7.9383576304795749E-3</v>
+        <v>7.7163517793967353E-3</v>
       </c>
       <c r="C54" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D54" t="s">
         <v>0</v>
@@ -26973,14 +27023,14 @@
         <v>54</v>
       </c>
       <c r="B55" s="120">
-        <v>7.9193844175736959E-3</v>
+        <v>7.6751519147574545E-3</v>
       </c>
       <c r="C55" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-      <c r="D55" t="s">
-        <v>0</v>
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D55" s="311" t="s">
+        <v>210</v>
       </c>
       <c r="E55" s="1"/>
     </row>
@@ -26989,11 +27039,11 @@
         <v>55</v>
       </c>
       <c r="B56" s="120">
-        <v>7.8713641332460726E-3</v>
+        <v>7.5514212571688158E-3</v>
       </c>
       <c r="C56" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D56" t="s">
         <v>0</v>
@@ -27005,11 +27055,11 @@
         <v>56</v>
       </c>
       <c r="B57" s="120">
-        <v>7.4827227222841472E-3</v>
+        <v>7.4724118813838964E-3</v>
       </c>
       <c r="C57" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D57" t="s">
         <v>0</v>
@@ -27021,11 +27071,11 @@
         <v>57</v>
       </c>
       <c r="B58" s="120">
-        <v>7.404900361190841E-3</v>
+        <v>7.4122524951454353E-3</v>
       </c>
       <c r="C58" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D58" t="s">
         <v>0</v>
@@ -27037,11 +27087,11 @@
         <v>58</v>
       </c>
       <c r="B59" s="120">
-        <v>7.3909550011616778E-3</v>
+        <v>7.3294935411766828E-3</v>
       </c>
       <c r="C59" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D59" t="s">
         <v>0</v>
@@ -27053,11 +27103,11 @@
         <v>59</v>
       </c>
       <c r="B60" s="120">
-        <v>7.361761565444172E-3</v>
+        <v>7.2687594965938187E-3</v>
       </c>
       <c r="C60" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D60" t="s">
         <v>0</v>
@@ -27069,11 +27119,11 @@
         <v>60</v>
       </c>
       <c r="B61" s="120">
-        <v>7.296576273715159E-3</v>
+        <v>6.8481960801705143E-3</v>
       </c>
       <c r="C61" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D61" t="s">
         <v>0</v>
@@ -27085,14 +27135,14 @@
         <v>61</v>
       </c>
       <c r="B62" s="120">
-        <v>7.2672033636071148E-3</v>
+        <v>6.8370576896229114E-3</v>
       </c>
       <c r="C62" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-      <c r="D62" t="s">
-        <v>0</v>
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D62" s="311" t="s">
+        <v>22</v>
       </c>
       <c r="E62" s="1"/>
     </row>
@@ -27101,14 +27151,14 @@
         <v>62</v>
       </c>
       <c r="B63" s="120">
-        <v>6.8057756437662374E-3</v>
+        <v>6.731083246290904E-3</v>
       </c>
       <c r="C63" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D63" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E63" s="1"/>
     </row>
@@ -27117,11 +27167,11 @@
         <v>63</v>
       </c>
       <c r="B64" s="120">
-        <v>6.7800840322943907E-3</v>
+        <v>6.6698221792003123E-3</v>
       </c>
       <c r="C64" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D64" t="s">
         <v>0</v>
@@ -27133,14 +27183,14 @@
         <v>64</v>
       </c>
       <c r="B65" s="120">
-        <v>6.6928083108186709E-3</v>
+        <v>6.6071639813753379E-3</v>
       </c>
       <c r="C65" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D65" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E65" s="1"/>
     </row>
@@ -27149,11 +27199,11 @@
         <v>65</v>
       </c>
       <c r="B66" s="120">
-        <v>6.6137565521898149E-3</v>
+        <v>6.5822842029454173E-3</v>
       </c>
       <c r="C66" s="215">
         <f t="shared" si="0"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D66" t="s">
         <v>0</v>
@@ -27165,11 +27215,11 @@
         <v>66</v>
       </c>
       <c r="B67" s="120">
-        <v>6.5734973420657726E-3</v>
+        <v>6.5208647937831932E-3</v>
       </c>
       <c r="C67" s="215">
         <f t="shared" ref="C67:C131" si="1">AVERAGE($B$2:$B$203)</f>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D67" t="s">
         <v>0</v>
@@ -27181,11 +27231,11 @@
         <v>67</v>
       </c>
       <c r="B68" s="120">
-        <v>6.4906583732901573E-3</v>
+        <v>6.4987666602881302E-3</v>
       </c>
       <c r="C68" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D68" t="s">
         <v>0</v>
@@ -27197,11 +27247,11 @@
         <v>68</v>
       </c>
       <c r="B69" s="120">
-        <v>6.4183545471598576E-3</v>
+        <v>6.3058261481941727E-3</v>
       </c>
       <c r="C69" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D69" t="s">
         <v>0</v>
@@ -27213,11 +27263,11 @@
         <v>69</v>
       </c>
       <c r="B70" s="120">
-        <v>6.1953974782069203E-3</v>
+        <v>6.1963349339672572E-3</v>
       </c>
       <c r="C70" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D70" t="s">
         <v>0</v>
@@ -27229,14 +27279,14 @@
         <v>70</v>
       </c>
       <c r="B71" s="120">
-        <v>6.0983738320846579E-3</v>
+        <v>6.0920297455003443E-3</v>
       </c>
       <c r="C71" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D71" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E71" s="1"/>
     </row>
@@ -27245,11 +27295,11 @@
         <v>71</v>
       </c>
       <c r="B72" s="120">
-        <v>6.046217627803066E-3</v>
+        <v>6.0099686825839521E-3</v>
       </c>
       <c r="C72" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D72" t="s">
         <v>0</v>
@@ -27261,11 +27311,11 @@
         <v>72</v>
       </c>
       <c r="B73" s="120">
-        <v>6.0367208639617084E-3</v>
+        <v>5.8800514446850586E-3</v>
       </c>
       <c r="C73" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D73" t="s">
         <v>0</v>
@@ -27277,11 +27327,11 @@
         <v>73</v>
       </c>
       <c r="B74" s="120">
-        <v>5.8188087944273806E-3</v>
+        <v>5.8381302673505674E-3</v>
       </c>
       <c r="C74" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D74" t="s">
         <v>0</v>
@@ -27292,11 +27342,11 @@
         <v>74</v>
       </c>
       <c r="B75" s="120">
-        <v>5.8063056339802801E-3</v>
+        <v>5.7261858380325964E-3</v>
       </c>
       <c r="C75" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D75" t="s">
         <v>0</v>
@@ -27307,11 +27357,11 @@
         <v>75</v>
       </c>
       <c r="B76" s="120">
-        <v>5.7234472886604935E-3</v>
+        <v>5.2766908387614966E-3</v>
       </c>
       <c r="C76" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D76" t="s">
         <v>0</v>
@@ -27322,11 +27372,11 @@
         <v>76</v>
       </c>
       <c r="B77" s="120">
-        <v>5.2830230220298263E-3</v>
+        <v>5.2595503270582442E-3</v>
       </c>
       <c r="C77" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D77" t="s">
         <v>0</v>
@@ -27337,14 +27387,14 @@
         <v>77</v>
       </c>
       <c r="B78" s="120">
-        <v>5.1890508756691081E-3</v>
+        <v>5.2365108958190741E-3</v>
       </c>
       <c r="C78" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D78" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -27352,14 +27402,14 @@
         <v>78</v>
       </c>
       <c r="B79" s="120">
-        <v>5.0712601837731002E-3</v>
+        <v>5.2364779439928412E-3</v>
       </c>
       <c r="C79" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-      <c r="D79" t="s">
-        <v>0</v>
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D79" s="311" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -27367,11 +27417,11 @@
         <v>79</v>
       </c>
       <c r="B80" s="120">
-        <v>5.0451859773375015E-3</v>
+        <v>5.1467129096084219E-3</v>
       </c>
       <c r="C80" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D80" t="s">
         <v>0</v>
@@ -27382,11 +27432,11 @@
         <v>80</v>
       </c>
       <c r="B81" s="120">
-        <v>4.9232102374495677E-3</v>
+        <v>5.0749588942454312E-3</v>
       </c>
       <c r="C81" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D81" t="s">
         <v>0</v>
@@ -27397,11 +27447,11 @@
         <v>81</v>
       </c>
       <c r="B82" s="120">
-        <v>4.7925551111400828E-3</v>
+        <v>4.8906189761698743E-3</v>
       </c>
       <c r="C82" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D82" t="s">
         <v>0</v>
@@ -27412,11 +27462,11 @@
         <v>82</v>
       </c>
       <c r="B83" s="120">
-        <v>4.7781150033497453E-3</v>
+        <v>4.8822368329879337E-3</v>
       </c>
       <c r="C83" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D83" t="s">
         <v>0</v>
@@ -27427,11 +27477,11 @@
         <v>83</v>
       </c>
       <c r="B84" s="120">
-        <v>4.7173395547201952E-3</v>
+        <v>4.7936650182820858E-3</v>
       </c>
       <c r="C84" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D84" t="s">
         <v>0</v>
@@ -27442,14 +27492,14 @@
         <v>84</v>
       </c>
       <c r="B85" s="120">
-        <v>4.4733159398097104E-3</v>
+        <v>4.7287124143296968E-3</v>
       </c>
       <c r="C85" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D85" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -27457,11 +27507,11 @@
         <v>85</v>
       </c>
       <c r="B86" s="120">
-        <v>4.397990297423781E-3</v>
+        <v>4.6244217380966707E-3</v>
       </c>
       <c r="C86" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D86" t="s">
         <v>0</v>
@@ -27472,11 +27522,11 @@
         <v>86</v>
       </c>
       <c r="B87" s="120">
-        <v>4.3650481055012118E-3</v>
+        <v>4.4780158971009891E-3</v>
       </c>
       <c r="C87" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D87" t="s">
         <v>0</v>
@@ -27487,11 +27537,11 @@
         <v>87</v>
       </c>
       <c r="B88" s="120">
-        <v>4.1927717135918285E-3</v>
+        <v>4.3730006228254832E-3</v>
       </c>
       <c r="C88" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D88" t="s">
         <v>0</v>
@@ -27502,11 +27552,11 @@
         <v>88</v>
       </c>
       <c r="B89" s="120">
-        <v>3.9850548745265406E-3</v>
+        <v>4.2492448862754516E-3</v>
       </c>
       <c r="C89" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D89" t="s">
         <v>0</v>
@@ -27517,14 +27567,14 @@
         <v>89</v>
       </c>
       <c r="B90" s="120">
-        <v>3.9512622086869623E-3</v>
+        <v>4.2258105687921496E-3</v>
       </c>
       <c r="C90" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D90" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -27532,14 +27582,14 @@
         <v>90</v>
       </c>
       <c r="B91" s="120">
-        <v>3.9309711052283643E-3</v>
+        <v>4.0224209274573562E-3</v>
       </c>
       <c r="C91" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D91" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -27547,14 +27597,14 @@
         <v>91</v>
       </c>
       <c r="B92" s="120">
-        <v>3.9233484815319776E-3</v>
+        <v>3.9982923929708222E-3</v>
       </c>
       <c r="C92" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D92" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -27562,11 +27612,11 @@
         <v>92</v>
       </c>
       <c r="B93" s="120">
-        <v>3.8823070437191336E-3</v>
+        <v>3.9638300281556373E-3</v>
       </c>
       <c r="C93" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D93" t="s">
         <v>0</v>
@@ -27577,11 +27627,11 @@
         <v>93</v>
       </c>
       <c r="B94" s="120">
-        <v>3.8792186537370023E-3</v>
+        <v>3.9200268048395666E-3</v>
       </c>
       <c r="C94" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D94" t="s">
         <v>0</v>
@@ -27592,14 +27642,14 @@
         <v>94</v>
       </c>
       <c r="B95" s="120">
-        <v>3.8520030396727535E-3</v>
+        <v>3.8416751225075038E-3</v>
       </c>
       <c r="C95" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D95" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -27607,11 +27657,11 @@
         <v>95</v>
       </c>
       <c r="B96" s="120">
-        <v>3.8046289121023364E-3</v>
+        <v>3.8084889614445755E-3</v>
       </c>
       <c r="C96" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D96" t="s">
         <v>0</v>
@@ -27622,11 +27672,11 @@
         <v>96</v>
       </c>
       <c r="B97" s="120">
-        <v>3.771261823160634E-3</v>
+        <v>3.8074484716491843E-3</v>
       </c>
       <c r="C97" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D97" t="s">
         <v>0</v>
@@ -27637,11 +27687,11 @@
         <v>97</v>
       </c>
       <c r="B98" s="120">
-        <v>3.6498846485179073E-3</v>
+        <v>3.7633254550290323E-3</v>
       </c>
       <c r="C98" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D98" t="s">
         <v>0</v>
@@ -27652,11 +27702,11 @@
         <v>98</v>
       </c>
       <c r="B99" s="120">
-        <v>3.6128172923230819E-3</v>
+        <v>3.6072805072487231E-3</v>
       </c>
       <c r="C99" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D99" t="s">
         <v>0</v>
@@ -27667,11 +27717,11 @@
         <v>99</v>
       </c>
       <c r="B100" s="120">
-        <v>3.5502463927142582E-3</v>
+        <v>3.3347110225668336E-3</v>
       </c>
       <c r="C100" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D100" t="s">
         <v>0</v>
@@ -27682,14 +27732,14 @@
         <v>100</v>
       </c>
       <c r="B101" s="120">
-        <v>3.336368614859417E-3</v>
+        <v>3.3214781128092911E-3</v>
       </c>
       <c r="C101" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D101" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -27697,11 +27747,11 @@
         <v>101</v>
       </c>
       <c r="B102" s="120">
-        <v>3.3230636598132962E-3</v>
+        <v>3.2176313684901714E-3</v>
       </c>
       <c r="C102" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D102" t="s">
         <v>0</v>
@@ -27712,11 +27762,11 @@
         <v>102</v>
       </c>
       <c r="B103" s="120">
-        <v>3.1043199897958615E-3</v>
+        <v>3.1626201442374788E-3</v>
       </c>
       <c r="C103" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D103" t="s">
         <v>0</v>
@@ -27727,14 +27777,14 @@
         <v>103</v>
       </c>
       <c r="B104" s="120">
-        <v>3.0667496729046488E-3</v>
+        <v>3.0944504455674097E-3</v>
       </c>
       <c r="C104" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D104" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -27742,14 +27792,14 @@
         <v>104</v>
       </c>
       <c r="B105" s="120">
-        <v>3.0445137083142467E-3</v>
+        <v>3.0823578746581671E-3</v>
       </c>
       <c r="C105" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-      <c r="D105" t="s">
-        <v>0</v>
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D105" s="311" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -27757,11 +27807,11 @@
         <v>105</v>
       </c>
       <c r="B106" s="120">
-        <v>2.998125092176744E-3</v>
+        <v>2.8134838196032202E-3</v>
       </c>
       <c r="C106" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D106" t="s">
         <v>0</v>
@@ -27772,11 +27822,11 @@
         <v>106</v>
       </c>
       <c r="B107" s="120">
-        <v>2.8462154334373143E-3</v>
+        <v>2.713956163343037E-3</v>
       </c>
       <c r="C107" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D107" t="s">
         <v>0</v>
@@ -27787,11 +27837,11 @@
         <v>107</v>
       </c>
       <c r="B108" s="120">
-        <v>2.7123700849075939E-3</v>
+        <v>2.6796669280809674E-3</v>
       </c>
       <c r="C108" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D108" t="s">
         <v>0</v>
@@ -27802,11 +27852,11 @@
         <v>108</v>
       </c>
       <c r="B109" s="120">
-        <v>2.6315746820596694E-3</v>
+        <v>2.6510986745924962E-3</v>
       </c>
       <c r="C109" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D109" t="s">
         <v>0</v>
@@ -27817,11 +27867,11 @@
         <v>109</v>
       </c>
       <c r="B110" s="120">
-        <v>2.623242237760596E-3</v>
+        <v>2.6461835949039068E-3</v>
       </c>
       <c r="C110" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D110" t="s">
         <v>0</v>
@@ -27832,11 +27882,11 @@
         <v>110</v>
       </c>
       <c r="B111" s="120">
-        <v>2.53075699980807E-3</v>
+        <v>2.5477842639907771E-3</v>
       </c>
       <c r="C111" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D111" t="s">
         <v>0</v>
@@ -27847,11 +27897,11 @@
         <v>111</v>
       </c>
       <c r="B112" s="120">
-        <v>2.4004314515179699E-3</v>
+        <v>2.4011727169126291E-3</v>
       </c>
       <c r="C112" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D112" t="s">
         <v>0</v>
@@ -27862,14 +27912,14 @@
         <v>112</v>
       </c>
       <c r="B113" s="120">
-        <v>2.367756315965593E-3</v>
+        <v>2.2970995308723443E-3</v>
       </c>
       <c r="C113" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D113" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -27877,11 +27927,11 @@
         <v>113</v>
       </c>
       <c r="B114" s="120">
-        <v>2.366228152515284E-3</v>
+        <v>2.1804501521514677E-3</v>
       </c>
       <c r="C114" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D114" t="s">
         <v>0</v>
@@ -27892,11 +27942,11 @@
         <v>114</v>
       </c>
       <c r="B115" s="120">
-        <v>2.3315372580757993E-3</v>
+        <v>2.1525158010601043E-3</v>
       </c>
       <c r="C115" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D115" t="s">
         <v>0</v>
@@ -27907,11 +27957,11 @@
         <v>115</v>
       </c>
       <c r="B116" s="120">
-        <v>2.2863675829387815E-3</v>
+        <v>2.0749072330865175E-3</v>
       </c>
       <c r="C116" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D116" t="s">
         <v>0</v>
@@ -27922,11 +27972,11 @@
         <v>116</v>
       </c>
       <c r="B117" s="120">
-        <v>2.1495668423066072E-3</v>
+        <v>2.0697183143433217E-3</v>
       </c>
       <c r="C117" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D117" t="s">
         <v>0</v>
@@ -27937,11 +27987,11 @@
         <v>117</v>
       </c>
       <c r="B118" s="120">
-        <v>2.0520350820070867E-3</v>
+        <v>1.9060237075932489E-3</v>
       </c>
       <c r="C118" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D118" t="s">
         <v>0</v>
@@ -27952,11 +28002,11 @@
         <v>118</v>
       </c>
       <c r="B119" s="120">
-        <v>1.81775654985E-3</v>
+        <v>1.8005989181893109E-3</v>
       </c>
       <c r="C119" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D119" t="s">
         <v>0</v>
@@ -27967,11 +28017,11 @@
         <v>119</v>
       </c>
       <c r="B120" s="120">
-        <v>1.7401943511564334E-3</v>
+        <v>1.7795385160118196E-3</v>
       </c>
       <c r="C120" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D120" t="s">
         <v>0</v>
@@ -27982,14 +28032,14 @@
         <v>120</v>
       </c>
       <c r="B121" s="120">
-        <v>1.7313906285103895E-3</v>
+        <v>1.6451045493905145E-3</v>
       </c>
       <c r="C121" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D121" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -27997,11 +28047,11 @@
         <v>121</v>
       </c>
       <c r="B122" s="120">
-        <v>1.7061184342350086E-3</v>
+        <v>1.6021119865575009E-3</v>
       </c>
       <c r="C122" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D122" t="s">
         <v>0</v>
@@ -28012,11 +28062,11 @@
         <v>122</v>
       </c>
       <c r="B123" s="120">
-        <v>1.5855318633871949E-3</v>
+        <v>1.3665707949721002E-3</v>
       </c>
       <c r="C123" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D123" t="s">
         <v>0</v>
@@ -28027,11 +28077,11 @@
         <v>123</v>
       </c>
       <c r="B124" s="120">
-        <v>1.4556620786111535E-3</v>
+        <v>1.2334755881539413E-3</v>
       </c>
       <c r="C124" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D124" t="s">
         <v>0</v>
@@ -28042,14 +28092,14 @@
         <v>124</v>
       </c>
       <c r="B125" s="120">
-        <v>1.423015851502923E-3</v>
+        <v>1.2161443569352075E-3</v>
       </c>
       <c r="C125" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D125" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -28057,11 +28107,11 @@
         <v>125</v>
       </c>
       <c r="B126" s="253">
-        <v>1.3525010990892898E-3</v>
+        <v>1.1845293656542976E-3</v>
       </c>
       <c r="C126" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D126" t="s">
         <v>0</v>
@@ -28072,14 +28122,14 @@
         <v>126</v>
       </c>
       <c r="B127" s="253">
-        <v>1.3237946877104386E-3</v>
+        <v>1.1834435138390112E-3</v>
       </c>
       <c r="C127" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D127" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -28087,11 +28137,11 @@
         <v>127</v>
       </c>
       <c r="B128" s="253">
-        <v>1.3153922430960011E-3</v>
+        <v>1.1508091723830057E-3</v>
       </c>
       <c r="C128" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D128" t="s">
         <v>22</v>
@@ -28102,13 +28152,13 @@
         <v>128</v>
       </c>
       <c r="B129" s="253">
-        <v>1.2990241215691089E-3</v>
+        <v>1.0159195761445207E-3</v>
       </c>
       <c r="C129" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-      <c r="D129" t="s">
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D129" s="311" t="s">
         <v>22</v>
       </c>
     </row>
@@ -28117,14 +28167,14 @@
         <v>129</v>
       </c>
       <c r="B130" s="253">
-        <v>1.2251707973935501E-3</v>
+        <v>9.8710701607583932E-4</v>
       </c>
       <c r="C130" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
       </c>
       <c r="D130" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -28132,11 +28182,14 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>1.1674297563739483E-3</v>
+        <v>9.7776974515775719E-4</v>
       </c>
       <c r="C131" s="215">
         <f t="shared" si="1"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D131" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -28144,11 +28197,14 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>8.6128408420309635E-4</v>
+        <v>8.7743970954118171E-4</v>
       </c>
       <c r="C132" s="215">
         <f t="shared" ref="C132:C195" si="2">AVERAGE($B$2:$B$203)</f>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D132" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -28156,11 +28212,14 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>7.5407603128138071E-4</v>
+        <v>6.8705800341977645E-4</v>
       </c>
       <c r="C133" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D133" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -28168,11 +28227,14 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>7.0663025808904176E-4</v>
+        <v>6.1098114967575695E-4</v>
       </c>
       <c r="C134" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D134" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -28180,11 +28242,14 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>6.2873793747309631E-4</v>
+        <v>6.0880109383079509E-4</v>
       </c>
       <c r="C135" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D135" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -28192,11 +28257,14 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>6.0227250161371004E-4</v>
+        <v>5.8470717445661046E-4</v>
       </c>
       <c r="C136" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D136" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -28204,11 +28272,14 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>5.763324760468E-4</v>
+        <v>5.4172516658072584E-4</v>
       </c>
       <c r="C137" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D137" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -28216,11 +28287,14 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>5.7546417570915375E-4</v>
+        <v>5.1475863032430288E-4</v>
       </c>
       <c r="C138" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D138" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -28228,11 +28302,14 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>5.7421973925581189E-4</v>
+        <v>4.4944863583792422E-4</v>
       </c>
       <c r="C139" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D139" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -28240,11 +28317,14 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>4.7933792873473173E-4</v>
+        <v>4.4929766848566936E-4</v>
       </c>
       <c r="C140" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D140" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -28252,11 +28332,14 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>4.526342497662752E-4</v>
+        <v>4.1196543597449579E-4</v>
       </c>
       <c r="C141" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D141" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -28264,11 +28347,14 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>4.3330677924264551E-4</v>
+        <v>4.0713183969113583E-4</v>
       </c>
       <c r="C142" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D142" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -28276,11 +28362,14 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>4.2454647365312018E-4</v>
+        <v>3.9384740829201848E-4</v>
       </c>
       <c r="C143" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D143" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -28288,720 +28377,888 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>3.8843713459484807E-4</v>
+        <v>3.4211302945093345E-4</v>
       </c>
       <c r="C144" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D144" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145">
-        <v>2.8422001783626275E-4</v>
+        <v>3.1919983680591622E-4</v>
       </c>
       <c r="C145" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D145" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146">
-        <v>2.8044301946822143E-4</v>
+        <v>2.7370125900597514E-4</v>
       </c>
       <c r="C146" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D146" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147">
-        <v>2.6852335815338629E-4</v>
+        <v>2.6350839084243922E-4</v>
       </c>
       <c r="C147" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D147" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148">
-        <v>2.5949503076585373E-4</v>
+        <v>2.5486115427478213E-4</v>
       </c>
       <c r="C148" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D148" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149">
-        <v>2.5131264930290247E-4</v>
+        <v>2.5108296897734505E-4</v>
       </c>
       <c r="C149" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D149" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150">
-        <v>2.4135122913352975E-4</v>
+        <v>2.4256813271656685E-4</v>
       </c>
       <c r="C150" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D150" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151">
-        <v>2.1938735201601733E-4</v>
+        <v>2.2142519471729996E-4</v>
       </c>
       <c r="C151" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D151" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152">
-        <v>2.0951971432043367E-4</v>
+        <v>2.1357628362057244E-4</v>
       </c>
       <c r="C152" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D152" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153">
-        <v>2.0951684523213884E-4</v>
+        <v>2.0004548913559538E-4</v>
       </c>
       <c r="C153" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D153" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154">
-        <v>2.0130645276498205E-4</v>
+        <v>1.9897338344245028E-4</v>
       </c>
       <c r="C154" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D154" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155">
-        <v>1.7158079436999649E-4</v>
+        <v>1.9333374608214679E-4</v>
       </c>
       <c r="C155" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D155" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156">
-        <v>1.5907838178951295E-4</v>
+        <v>1.8282883540970011E-4</v>
       </c>
       <c r="C156" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D156" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157">
-        <v>1.475408667184602E-4</v>
+        <v>1.4719652638100125E-4</v>
       </c>
       <c r="C157" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D157" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158">
-        <v>1.4587699947107792E-4</v>
+        <v>1.4025003909898376E-4</v>
       </c>
       <c r="C158" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D158" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159">
-        <v>1.4166354614527518E-4</v>
+        <v>1.3996543887037646E-4</v>
       </c>
       <c r="C159" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D159" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160">
-        <v>1.4084353079594624E-4</v>
+        <v>1.3730853781448554E-4</v>
       </c>
       <c r="C160" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D160" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161">
-        <v>1.3434446111242282E-4</v>
+        <v>1.3502430368333087E-4</v>
       </c>
       <c r="C161" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D161" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162">
-        <v>1.3196518465908685E-4</v>
+        <v>1.2915618166881306E-4</v>
       </c>
       <c r="C162" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D162" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163">
-        <v>1.2904745783898675E-4</v>
+        <v>1.2416608113498395E-4</v>
       </c>
       <c r="C163" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D163" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164">
-        <v>1.2881018015773133E-4</v>
+        <v>1.236892848004802E-4</v>
       </c>
       <c r="C164" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D164" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165">
-        <v>1.2075223010229689E-4</v>
+        <v>1.1004579644682239E-4</v>
       </c>
       <c r="C165" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D165" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166">
-        <v>1.1878721736455563E-4</v>
+        <v>1.0686869744400136E-4</v>
       </c>
       <c r="C166" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D166" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167">
-        <v>1.087603112746714E-4</v>
+        <v>1.0489848001900734E-4</v>
       </c>
       <c r="C167" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D167" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168">
-        <v>8.1343561883136614E-5</v>
+        <v>1.0443373857403633E-4</v>
       </c>
       <c r="C168" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D168" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169">
-        <v>7.9092129828606573E-5</v>
+        <v>7.1963977090625574E-5</v>
       </c>
       <c r="C169" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D169" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170">
-        <v>7.2907531258802044E-5</v>
+        <v>7.1029331197009651E-5</v>
       </c>
       <c r="C170" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D170" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
       <c r="B171">
-        <v>6.9353342752368247E-5</v>
+        <v>6.9025732300064416E-5</v>
       </c>
       <c r="C171" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D171" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="B172">
-        <v>6.8752397931561165E-5</v>
+        <v>6.6173303165213058E-5</v>
       </c>
       <c r="C172" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D172" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
       <c r="B173">
-        <v>6.6390675947365619E-5</v>
+        <v>5.5899340786949375E-5</v>
       </c>
       <c r="C173" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D173" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
       <c r="B174">
-        <v>5.8782683241525647E-5</v>
+        <v>5.1785610338711489E-5</v>
       </c>
       <c r="C174" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D174" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
       <c r="B175">
-        <v>5.366726198273056E-5</v>
+        <v>5.1568403245883209E-5</v>
       </c>
       <c r="C175" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D175" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
       <c r="B176">
-        <v>4.9675693883445068E-5</v>
+        <v>4.9573788584415942E-5</v>
       </c>
       <c r="C176" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D176" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
       <c r="B177">
-        <v>4.7466006383726144E-5</v>
+        <v>4.8646941919557083E-5</v>
       </c>
       <c r="C177" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D177" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
       <c r="B178">
-        <v>4.6690781445976316E-5</v>
+        <v>4.4789283016749116E-5</v>
       </c>
       <c r="C178" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D178" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
       <c r="B179">
-        <v>4.6055122016559181E-5</v>
+        <v>4.3537711182550642E-5</v>
       </c>
       <c r="C179" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D179" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
       <c r="B180">
-        <v>4.3669849032711248E-5</v>
+        <v>4.1990928478682653E-5</v>
       </c>
       <c r="C180" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D180" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
       <c r="B181">
-        <v>4.2458427491122273E-5</v>
+        <v>4.021427606369372E-5</v>
       </c>
       <c r="C181" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D181" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
       <c r="B182">
-        <v>4.1482910275728174E-5</v>
+        <v>3.57033970489855E-5</v>
       </c>
       <c r="C182" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D182" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
       <c r="B183">
-        <v>4.126974109469428E-5</v>
+        <v>3.3837379770206766E-5</v>
       </c>
       <c r="C183" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D183" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
       <c r="B184">
-        <v>3.5993460525340341E-5</v>
+        <v>3.3168590878083439E-5</v>
       </c>
       <c r="C184" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D184" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
       <c r="B185">
-        <v>3.5690996070220241E-5</v>
+        <v>2.9786196238130884E-5</v>
       </c>
       <c r="C185" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D185" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
       <c r="B186">
-        <v>3.5233288102957255E-5</v>
+        <v>2.9487795618432913E-5</v>
       </c>
       <c r="C186" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D186" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
       <c r="B187">
-        <v>3.3393291468451673E-5</v>
+        <v>2.8565519387390181E-5</v>
       </c>
       <c r="C187" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D187" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
       <c r="B188">
-        <v>1.7266295736499441E-5</v>
+        <v>2.7905045311209616E-5</v>
       </c>
       <c r="C188" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D188" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
       <c r="B189">
-        <v>1.662939892777032E-5</v>
+        <v>1.5594980626555879E-5</v>
       </c>
       <c r="C189" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D189" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
       <c r="B190">
-        <v>1.5334869008655087E-5</v>
+        <v>1.5388713080254792E-5</v>
       </c>
       <c r="C190" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D190" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
       <c r="B191">
-        <v>1.4169543245831494E-5</v>
+        <v>1.3863069748482871E-5</v>
       </c>
       <c r="C191" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D191" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
       <c r="B192">
-        <v>1.3959827848811293E-5</v>
+        <v>1.2997503375131399E-5</v>
       </c>
       <c r="C192" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D192" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
       <c r="B193">
-        <v>1.3781033337016011E-5</v>
+        <v>1.1391878332580339E-5</v>
       </c>
       <c r="C193" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D193" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
       <c r="B194">
-        <v>1.300095406504221E-5</v>
+        <v>8.6902776151212632E-6</v>
       </c>
       <c r="C194" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D194" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
       <c r="B195">
-        <v>1.1605462152613421E-5</v>
+        <v>8.6404873402441047E-6</v>
       </c>
       <c r="C195" s="215">
         <f t="shared" si="2"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D195" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
       <c r="B196">
-        <v>8.3458923006072197E-6</v>
+        <v>6.4933118760205351E-6</v>
       </c>
       <c r="C196" s="215">
         <f t="shared" ref="C196:C203" si="3">AVERAGE($B$2:$B$203)</f>
-        <v>4.9504950495049497E-3</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D196" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
       <c r="B197">
-        <v>6.7346068751971312E-6</v>
+        <v>5.8556448531297556E-6</v>
       </c>
       <c r="C197" s="215">
         <f t="shared" si="3"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D197" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
       <c r="B198">
-        <v>3.6110943572105209E-6</v>
+        <v>4.6376463397207115E-6</v>
       </c>
       <c r="C198" s="215">
         <f t="shared" si="3"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D198" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
       <c r="B199">
-        <v>1.1252401121450252E-6</v>
+        <v>1.3789169055860547E-6</v>
       </c>
       <c r="C199" s="215">
         <f t="shared" si="3"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D199" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
       <c r="B200">
-        <v>3.3780455217356305E-7</v>
+        <v>1.2717519723324345E-6</v>
       </c>
       <c r="C200" s="215">
         <f t="shared" si="3"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D200" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
       <c r="B201">
-        <v>3.2464209971194376E-7</v>
+        <v>4.8482166681834344E-7</v>
       </c>
       <c r="C201" s="215">
         <f t="shared" si="3"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D201" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
       <c r="B202">
-        <v>0</v>
+        <v>3.3178941186481388E-7</v>
       </c>
       <c r="C202" s="215">
         <f t="shared" si="3"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203">
-        <v>202</v>
-      </c>
-      <c r="B203">
+        <v>4.9751243781094509E-3</v>
+      </c>
+      <c r="D202" t="s">
         <v>0</v>
       </c>
-      <c r="C203" s="215">
-        <f t="shared" si="3"/>
-        <v>4.9504950495049497E-3</v>
-      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C203" s="215"/>
     </row>
     <row r="251" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A251" s="101" t="s">
@@ -29009,7 +29266,7 @@
       </c>
       <c r="B251" s="152">
         <f>'Credit Risk Tables'!D6</f>
-        <v>0.75404688457712454</v>
+        <v>0.74184585080773002</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="21" x14ac:dyDescent="0.35">
@@ -29018,7 +29275,7 @@
       </c>
       <c r="B252" s="152">
         <f>'Credit Risk Tables'!D5</f>
-        <v>0.14415299283568295</v>
+        <v>0.14052368340793228</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="21" x14ac:dyDescent="0.35">
@@ -29027,7 +29284,7 @@
       </c>
       <c r="B253" s="152">
         <f>'Credit Risk Tables'!D7</f>
-        <v>2.5497131258729322E-2</v>
+        <v>3.6246288637051309E-2</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="21" x14ac:dyDescent="0.35">
@@ -29036,7 +29293,7 @@
       </c>
       <c r="B254" s="153">
         <f>'Credit Risk Tables'!D8</f>
-        <v>7.2807497915012925E-2</v>
+        <v>8.6188003814129888E-2</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="21" x14ac:dyDescent="0.35">
@@ -29045,7 +29302,7 @@
       </c>
       <c r="B255" s="1">
         <f>'Credit Risk Tables'!D10</f>
-        <v>8.9051556957828019E-4</v>
+        <v>1.0547925554549654E-3</v>
       </c>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.25">
@@ -29103,13 +29360,13 @@
         <v>117</v>
       </c>
       <c r="C282" s="84">
-        <v>0.52600000000000002</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="D282" s="84"/>
       <c r="E282" s="84"/>
       <c r="F282">
         <f>C282/42</f>
-        <v>1.2523809523809524E-2</v>
+        <v>1.2452380952380953E-2</v>
       </c>
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.25">
@@ -29120,13 +29377,13 @@
         <v>118</v>
       </c>
       <c r="C283" s="84">
-        <v>5.2499999999999998E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="D283" s="84"/>
       <c r="E283" s="84"/>
       <c r="F283">
         <f>C283/42</f>
-        <v>1.25E-3</v>
+        <v>1.3333333333333333E-3</v>
       </c>
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.25">
@@ -29137,7 +29394,7 @@
         <v>119</v>
       </c>
       <c r="C284" s="121">
-        <v>0.25819999999999999</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="D284" s="84"/>
       <c r="E284" s="84"/>
@@ -29150,13 +29407,13 @@
         <v>120</v>
       </c>
       <c r="C285" s="84">
-        <v>0.16300000000000001</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="D285" s="84"/>
       <c r="E285" s="84"/>
       <c r="F285">
         <f>C285/42</f>
-        <v>3.8809523809523812E-3</v>
+        <v>3.5238095238095237E-3</v>
       </c>
     </row>
     <row r="286" spans="1:14" x14ac:dyDescent="0.25">

--- a/data/Risk Report Format Master Sheet.xlsx
+++ b/data/Risk Report Format Master Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\BW Code\BD Script\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDA9DB6-9B8C-41CB-8C12-47C01E2A6D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73F8A5D-D0D9-4A75-8A08-0F331FAE7D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="31920" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9750" yWindow="4110" windowWidth="43200" windowHeight="23220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Key Stats" sheetId="10" r:id="rId1"/>
@@ -1374,7 +1374,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="313">
+  <cellXfs count="310">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1864,6 +1864,23 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="10" fontId="29" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="29" fillId="3" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1882,32 +1899,12 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="29" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="29" fillId="3" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="9" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="39" fillId="9" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Comma 2" xfId="8" xr:uid="{67936A33-AC4E-4685-A0EA-C6918FF0E5A2}"/>
@@ -3522,6 +3519,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3529,7 +3527,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -10893,6 +10890,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -10900,7 +10898,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -11268,6 +11265,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -11275,7 +11273,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -11882,6 +11879,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -11889,7 +11887,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -12398,6 +12395,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -12405,7 +12403,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -21260,8 +21257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{987B9798-8AF7-4E42-94BA-549155F80C09}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -21276,7 +21273,7 @@
         <v>205</v>
       </c>
       <c r="B1" s="120">
-        <v>5.9499999999999997E-2</v>
+        <v>6.5299999999999997E-2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -21284,7 +21281,7 @@
         <v>206</v>
       </c>
       <c r="B2" s="215">
-        <v>1.49E-2</v>
+        <v>5.4999999999999997E-3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -21292,7 +21289,7 @@
         <v>207</v>
       </c>
       <c r="B3" s="215">
-        <v>0.12429999999999999</v>
+        <v>0.12189999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -21300,7 +21297,7 @@
         <v>208</v>
       </c>
       <c r="B4" s="292">
-        <v>738380983.59000003</v>
+        <v>737470611</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -21503,6 +21500,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -21689,7 +21687,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B1:BU145"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:Q12"/>
     </sheetView>
   </sheetViews>
@@ -21775,18 +21773,18 @@
       <c r="O2" s="50"/>
       <c r="P2" s="50"/>
       <c r="Q2" s="222"/>
-      <c r="R2" s="301" t="s">
+      <c r="R2" s="300" t="s">
         <v>114</v>
       </c>
-      <c r="S2" s="302"/>
+      <c r="S2" s="301"/>
       <c r="V2" s="190"/>
       <c r="W2" s="191"/>
       <c r="X2" s="191"/>
       <c r="Y2" s="191"/>
       <c r="Z2" s="191"/>
       <c r="AA2" s="191"/>
-      <c r="AB2" s="303"/>
-      <c r="AC2" s="303"/>
+      <c r="AB2" s="299"/>
+      <c r="AC2" s="299"/>
       <c r="AD2" s="191"/>
       <c r="AE2" s="191"/>
     </row>
@@ -23211,10 +23209,10 @@
       <c r="AI35" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="AJ35" s="304"/>
-      <c r="AK35" s="304"/>
-      <c r="AL35" s="304"/>
-      <c r="AM35" s="305"/>
+      <c r="AJ35" s="297"/>
+      <c r="AK35" s="297"/>
+      <c r="AL35" s="297"/>
+      <c r="AM35" s="298"/>
       <c r="AP35" s="36">
         <v>1.54E-2</v>
       </c>
@@ -23240,12 +23238,12 @@
         <v>153</v>
       </c>
       <c r="AI36" s="37"/>
-      <c r="AJ36" s="304">
+      <c r="AJ36" s="297">
         <v>6.7999999999999996E-3</v>
       </c>
-      <c r="AK36" s="304"/>
-      <c r="AL36" s="304"/>
-      <c r="AM36" s="305"/>
+      <c r="AK36" s="297"/>
+      <c r="AL36" s="297"/>
+      <c r="AM36" s="298"/>
       <c r="AO36" s="37"/>
       <c r="AQ36" s="42"/>
       <c r="AR36" s="42"/>
@@ -23272,10 +23270,10 @@
       <c r="AI37" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="AJ37" s="304"/>
-      <c r="AK37" s="304"/>
-      <c r="AL37" s="304"/>
-      <c r="AM37" s="305"/>
+      <c r="AJ37" s="297"/>
+      <c r="AK37" s="297"/>
+      <c r="AL37" s="297"/>
+      <c r="AM37" s="298"/>
       <c r="AO37" s="37" t="s">
         <v>35</v>
       </c>
@@ -23304,12 +23302,12 @@
         <v>0.15625861758820547</v>
       </c>
       <c r="AI38" s="37"/>
-      <c r="AJ38" s="304">
+      <c r="AJ38" s="297">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="AK38" s="304"/>
-      <c r="AL38" s="304"/>
-      <c r="AM38" s="305"/>
+      <c r="AK38" s="297"/>
+      <c r="AL38" s="297"/>
+      <c r="AM38" s="298"/>
       <c r="AP38" s="36">
         <v>4.8999999999999998E-3</v>
       </c>
@@ -23330,11 +23328,11 @@
       <c r="K39" s="191"/>
       <c r="L39" s="191"/>
       <c r="M39" s="191"/>
-      <c r="N39" s="303"/>
-      <c r="O39" s="303"/>
-      <c r="P39" s="303"/>
-      <c r="Q39" s="303"/>
-      <c r="R39" s="303"/>
+      <c r="N39" s="299"/>
+      <c r="O39" s="299"/>
+      <c r="P39" s="299"/>
+      <c r="Q39" s="299"/>
+      <c r="R39" s="299"/>
       <c r="W39" s="23">
         <v>3</v>
       </c>
@@ -23398,12 +23396,12 @@
         <v>0.12240616774450112</v>
       </c>
       <c r="AI40" s="37"/>
-      <c r="AJ40" s="304">
+      <c r="AJ40" s="297">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="AK40" s="304"/>
-      <c r="AL40" s="304"/>
-      <c r="AM40" s="305"/>
+      <c r="AK40" s="297"/>
+      <c r="AL40" s="297"/>
+      <c r="AM40" s="298"/>
       <c r="AP40" s="36"/>
       <c r="AQ40" s="42"/>
       <c r="AR40" s="42"/>
@@ -23473,10 +23471,10 @@
       <c r="AI42" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="AJ42" s="304"/>
-      <c r="AK42" s="304"/>
-      <c r="AL42" s="304"/>
-      <c r="AM42" s="305"/>
+      <c r="AJ42" s="297"/>
+      <c r="AK42" s="297"/>
+      <c r="AL42" s="297"/>
+      <c r="AM42" s="298"/>
       <c r="AO42" s="37" t="s">
         <v>204</v>
       </c>
@@ -23503,13 +23501,13 @@
       <c r="Q43" s="201"/>
       <c r="R43" s="289"/>
       <c r="T43" s="44"/>
-      <c r="AJ43" s="304">
+      <c r="AJ43" s="297">
         <f>SUM(AJ36:AM40)</f>
         <v>2.01E-2</v>
       </c>
-      <c r="AK43" s="304"/>
-      <c r="AL43" s="304"/>
-      <c r="AM43" s="305"/>
+      <c r="AK43" s="297"/>
+      <c r="AL43" s="297"/>
+      <c r="AM43" s="298"/>
       <c r="AP43" s="36">
         <v>2.0000000000000001E-4</v>
       </c>
@@ -23570,12 +23568,12 @@
       <c r="AA45" s="89" t="s">
         <v>153</v>
       </c>
-      <c r="AJ45" s="304">
+      <c r="AJ45" s="297">
         <v>1.49E-2</v>
       </c>
-      <c r="AK45" s="304"/>
-      <c r="AL45" s="304"/>
-      <c r="AM45" s="305"/>
+      <c r="AK45" s="297"/>
+      <c r="AL45" s="297"/>
+      <c r="AM45" s="298"/>
       <c r="AO45" s="37" t="s">
         <v>84</v>
       </c>
@@ -23913,11 +23911,11 @@
         <f>AO56/AO61</f>
         <v>4.3058712434409369E-2</v>
       </c>
-      <c r="BO56" s="300" t="s">
+      <c r="BO56" s="307" t="s">
         <v>114</v>
       </c>
-      <c r="BP56" s="295"/>
-      <c r="BQ56" s="296"/>
+      <c r="BP56" s="302"/>
+      <c r="BQ56" s="303"/>
     </row>
     <row r="57" spans="5:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E57" s="192"/>
@@ -24489,10 +24487,10 @@
       <c r="AA73" s="89" t="s">
         <v>108</v>
       </c>
-      <c r="AL73" s="297" t="s">
+      <c r="AL73" s="304" t="s">
         <v>182</v>
       </c>
-      <c r="AM73" s="299"/>
+      <c r="AM73" s="306"/>
       <c r="BU73" s="44">
         <v>2000000</v>
       </c>
@@ -24575,14 +24573,14 @@
         <f>J10</f>
         <v>0.82699999999999996</v>
       </c>
-      <c r="AO75" s="297" t="s">
+      <c r="AO75" s="304" t="s">
         <v>156</v>
       </c>
-      <c r="AP75" s="298"/>
-      <c r="AQ75" s="298"/>
-      <c r="AR75" s="298"/>
-      <c r="AS75" s="298"/>
-      <c r="AT75" s="299"/>
+      <c r="AP75" s="305"/>
+      <c r="AQ75" s="305"/>
+      <c r="AR75" s="305"/>
+      <c r="AS75" s="305"/>
+      <c r="AT75" s="306"/>
       <c r="BU75" s="4">
         <f>BU73/BU74</f>
         <v>2.8129395218002813E-3</v>
@@ -24957,23 +24955,23 @@
         <v>60000</v>
       </c>
       <c r="AZ87" s="77"/>
-      <c r="BA87" s="300" t="s">
+      <c r="BA87" s="307" t="s">
         <v>98</v>
       </c>
-      <c r="BB87" s="295"/>
-      <c r="BC87" s="295"/>
-      <c r="BD87" s="295"/>
-      <c r="BE87" s="295"/>
+      <c r="BB87" s="302"/>
+      <c r="BC87" s="302"/>
+      <c r="BD87" s="302"/>
+      <c r="BE87" s="302"/>
       <c r="BF87" s="229"/>
-      <c r="BG87" s="295" t="s">
+      <c r="BG87" s="302" t="s">
         <v>97</v>
       </c>
-      <c r="BH87" s="295"/>
-      <c r="BI87" s="295"/>
-      <c r="BJ87" s="295"/>
-      <c r="BK87" s="295"/>
-      <c r="BL87" s="295"/>
-      <c r="BM87" s="296"/>
+      <c r="BH87" s="302"/>
+      <c r="BI87" s="302"/>
+      <c r="BJ87" s="302"/>
+      <c r="BK87" s="302"/>
+      <c r="BL87" s="302"/>
+      <c r="BM87" s="303"/>
       <c r="BN87" s="77"/>
     </row>
     <row r="88" spans="23:66" x14ac:dyDescent="0.25">
@@ -25151,13 +25149,13 @@
       <c r="AA94" s="85">
         <v>0.41199999999999998</v>
       </c>
-      <c r="AN94" s="312" t="s">
+      <c r="AN94" s="296" t="s">
         <v>212</v>
       </c>
-      <c r="AO94" s="312" t="s">
+      <c r="AO94" s="296" t="s">
         <v>211</v>
       </c>
-      <c r="AP94" s="312" t="s">
+      <c r="AP94" s="296" t="s">
         <v>213</v>
       </c>
       <c r="AZ94" s="77"/>
@@ -25804,10 +25802,10 @@
       <c r="W141" s="23">
         <v>1</v>
       </c>
-      <c r="X141" s="308" t="s">
+      <c r="X141" s="96" t="s">
         <v>105</v>
       </c>
-      <c r="Y141" s="308" t="s">
+      <c r="Y141" s="96" t="s">
         <v>105</v>
       </c>
       <c r="Z141" s="84">
@@ -25821,10 +25819,10 @@
       <c r="W142" s="23">
         <v>2</v>
       </c>
-      <c r="X142" s="308" t="s">
+      <c r="X142" s="96" t="s">
         <v>105</v>
       </c>
-      <c r="Y142" s="309" t="s">
+      <c r="Y142" s="97" t="s">
         <v>106</v>
       </c>
       <c r="Z142" s="84">
@@ -25838,10 +25836,10 @@
       <c r="W143" s="23">
         <v>3</v>
       </c>
-      <c r="X143" s="308" t="s">
+      <c r="X143" s="96" t="s">
         <v>105</v>
       </c>
-      <c r="Y143" s="310" t="s">
+      <c r="Y143" s="16" t="s">
         <v>107</v>
       </c>
       <c r="Z143" s="121">
@@ -25855,10 +25853,10 @@
       <c r="W144" s="23">
         <v>4</v>
       </c>
-      <c r="X144" s="309" t="s">
+      <c r="X144" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="Y144" s="310" t="s">
+      <c r="Y144" s="16" t="s">
         <v>107</v>
       </c>
       <c r="Z144" s="84">
@@ -25887,22 +25885,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="BG87:BM87"/>
+    <mergeCell ref="AO75:AT75"/>
+    <mergeCell ref="BA87:BE87"/>
+    <mergeCell ref="BO56:BQ56"/>
+    <mergeCell ref="AL73:AM73"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AJ37:AM37"/>
+    <mergeCell ref="AJ40:AM40"/>
+    <mergeCell ref="AJ42:AM42"/>
     <mergeCell ref="AJ45:AM45"/>
     <mergeCell ref="AJ36:AM36"/>
     <mergeCell ref="AJ35:AM35"/>
     <mergeCell ref="N39:R39"/>
     <mergeCell ref="AJ38:AM38"/>
     <mergeCell ref="AJ43:AM43"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AJ37:AM37"/>
-    <mergeCell ref="AJ40:AM40"/>
-    <mergeCell ref="AJ42:AM42"/>
-    <mergeCell ref="BG87:BM87"/>
-    <mergeCell ref="AO75:AT75"/>
-    <mergeCell ref="BA87:BE87"/>
-    <mergeCell ref="BO56:BQ56"/>
-    <mergeCell ref="AL73:AM73"/>
   </mergeCells>
   <conditionalFormatting sqref="X24:X25">
     <cfRule type="iconSet" priority="7">
@@ -27029,7 +27027,7 @@
         <f t="shared" si="0"/>
         <v>4.9751243781094509E-3</v>
       </c>
-      <c r="D55" s="311" t="s">
+      <c r="D55" s="295" t="s">
         <v>210</v>
       </c>
       <c r="E55" s="1"/>
@@ -27141,7 +27139,7 @@
         <f t="shared" si="0"/>
         <v>4.9751243781094509E-3</v>
       </c>
-      <c r="D62" s="311" t="s">
+      <c r="D62" s="295" t="s">
         <v>22</v>
       </c>
       <c r="E62" s="1"/>
@@ -27408,7 +27406,7 @@
         <f t="shared" si="1"/>
         <v>4.9751243781094509E-3</v>
       </c>
-      <c r="D79" s="311" t="s">
+      <c r="D79" s="295" t="s">
         <v>210</v>
       </c>
     </row>
@@ -27798,7 +27796,7 @@
         <f t="shared" si="1"/>
         <v>4.9751243781094509E-3</v>
       </c>
-      <c r="D105" s="311" t="s">
+      <c r="D105" s="295" t="s">
         <v>22</v>
       </c>
     </row>
@@ -28158,7 +28156,7 @@
         <f t="shared" si="1"/>
         <v>4.9751243781094509E-3</v>
       </c>
-      <c r="D129" s="311" t="s">
+      <c r="D129" s="295" t="s">
         <v>22</v>
       </c>
     </row>
@@ -29160,7 +29158,7 @@
         <v>6.4933118760205351E-6</v>
       </c>
       <c r="C196" s="215">
-        <f t="shared" ref="C196:C203" si="3">AVERAGE($B$2:$B$203)</f>
+        <f t="shared" ref="C196:C202" si="3">AVERAGE($B$2:$B$203)</f>
         <v>4.9751243781094509E-3</v>
       </c>
       <c r="D196" t="s">
@@ -30833,29 +30831,29 @@
       <c r="C21" s="137"/>
       <c r="D21" s="137"/>
       <c r="E21" s="136"/>
-      <c r="F21" s="306" t="s">
+      <c r="F21" s="308" t="s">
         <v>144</v>
       </c>
-      <c r="G21" s="306"/>
-      <c r="H21" s="306"/>
+      <c r="G21" s="308"/>
+      <c r="H21" s="308"/>
       <c r="I21" s="134"/>
-      <c r="J21" s="306" t="s">
+      <c r="J21" s="308" t="s">
         <v>143</v>
       </c>
-      <c r="K21" s="306"/>
-      <c r="L21" s="306"/>
+      <c r="K21" s="308"/>
+      <c r="L21" s="308"/>
       <c r="M21" s="134"/>
-      <c r="N21" s="306" t="s">
+      <c r="N21" s="308" t="s">
         <v>142</v>
       </c>
-      <c r="O21" s="306"/>
-      <c r="P21" s="306"/>
+      <c r="O21" s="308"/>
+      <c r="P21" s="308"/>
       <c r="Q21" s="134"/>
-      <c r="R21" s="306" t="s">
+      <c r="R21" s="308" t="s">
         <v>141</v>
       </c>
-      <c r="S21" s="306"/>
-      <c r="T21" s="306"/>
+      <c r="S21" s="308"/>
+      <c r="T21" s="308"/>
       <c r="U21" s="133"/>
       <c r="V21" s="132"/>
     </row>
@@ -31193,29 +31191,29 @@
       <c r="C30" s="137"/>
       <c r="D30" s="137"/>
       <c r="E30" s="136"/>
-      <c r="F30" s="306" t="s">
+      <c r="F30" s="308" t="s">
         <v>144</v>
       </c>
-      <c r="G30" s="306"/>
-      <c r="H30" s="306"/>
+      <c r="G30" s="308"/>
+      <c r="H30" s="308"/>
       <c r="I30" s="134"/>
-      <c r="J30" s="307" t="s">
+      <c r="J30" s="309" t="s">
         <v>143</v>
       </c>
-      <c r="K30" s="307"/>
+      <c r="K30" s="309"/>
       <c r="L30" s="135"/>
       <c r="M30" s="134"/>
-      <c r="N30" s="306" t="s">
+      <c r="N30" s="308" t="s">
         <v>142</v>
       </c>
-      <c r="O30" s="306"/>
-      <c r="P30" s="306"/>
+      <c r="O30" s="308"/>
+      <c r="P30" s="308"/>
       <c r="Q30" s="134"/>
-      <c r="R30" s="306" t="s">
+      <c r="R30" s="308" t="s">
         <v>141</v>
       </c>
-      <c r="S30" s="306"/>
-      <c r="T30" s="306"/>
+      <c r="S30" s="308"/>
+      <c r="T30" s="308"/>
       <c r="U30" s="133"/>
       <c r="V30" s="132"/>
     </row>

--- a/data/Risk Report Format Master Sheet.xlsx
+++ b/data/Risk Report Format Master Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\BW Code\BD Script\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73F8A5D-D0D9-4A75-8A08-0F331FAE7D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{0D00A85A-72D1-472E-B2C5-9380F1294116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9750" yWindow="4110" windowWidth="43200" windowHeight="23220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Key Stats" sheetId="10" r:id="rId1"/>
@@ -24,6 +24,7 @@
   <pivotCaches>
     <pivotCache cacheId="1" r:id="rId7"/>
   </pivotCaches>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="214">
   <si>
     <t>CMBS F1</t>
   </si>
@@ -2838,19 +2839,19 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.74184585080773002</c:v>
+                  <c:v>0.70595795072435885</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14052368340793228</c:v>
+                  <c:v>0.14321007890326481</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6246288637051309E-2</c:v>
+                  <c:v>1.6419670822658293E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.6188003814129888E-2</c:v>
+                  <c:v>9.3025797079759651E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0547925554549654E-3</c:v>
+                  <c:v>7.1859815159926697E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3367,13 +3368,13 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.52300000000000002</c:v>
+                  <c:v>0.4824</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.6000000000000001E-2</c:v>
+                  <c:v>4.8599999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.14799999999999999</c:v>
@@ -6243,607 +6244,607 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="201"/>
                 <c:pt idx="0">
-                  <c:v>2.7538990223589292E-2</c:v>
+                  <c:v>2.7045167236918379E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6175154413272166E-2</c:v>
+                  <c:v>2.3904760962183986E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3464186653468201E-2</c:v>
+                  <c:v>2.1603660596083377E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0811674921631201E-2</c:v>
+                  <c:v>1.9924891708791987E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9578768201385599E-2</c:v>
+                  <c:v>1.8795128400195395E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8773493030693669E-2</c:v>
+                  <c:v>1.8136468756324804E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.7809812530165472E-2</c:v>
+                  <c:v>1.7927162195716238E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.7383613835201994E-2</c:v>
+                  <c:v>1.7747018684793562E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.7184630522191321E-2</c:v>
+                  <c:v>1.7329283087763811E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5794804338968228E-2</c:v>
+                  <c:v>1.6245822084007003E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4686433846166231E-2</c:v>
+                  <c:v>1.6215952440089339E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.449786664032068E-2</c:v>
+                  <c:v>1.4966974253448648E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.4409305989080376E-2</c:v>
+                  <c:v>1.4755062591656685E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.4404284098204045E-2</c:v>
+                  <c:v>1.4601423232270183E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3648127397534097E-2</c:v>
+                  <c:v>1.4407109514828931E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.3559905308638615E-2</c:v>
+                  <c:v>1.400765392540677E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.3551353397569917E-2</c:v>
+                  <c:v>1.3808527746987919E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.3545218864184213E-2</c:v>
+                  <c:v>1.3785320492214644E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.3260831776829964E-2</c:v>
+                  <c:v>1.3782696492379233E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.3045521512526304E-2</c:v>
+                  <c:v>1.3316895963347531E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.2992104519820752E-2</c:v>
+                  <c:v>1.3290563984191131E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.2952178621811184E-2</c:v>
+                  <c:v>1.3290102202738616E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.2944305298576649E-2</c:v>
+                  <c:v>1.3154691649279415E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.2746180150098659E-2</c:v>
+                  <c:v>1.24889344917126E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.2201966476852724E-2</c:v>
+                  <c:v>1.2457824356290255E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.2127343849557545E-2</c:v>
+                  <c:v>1.2452337038115928E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.2004386987440666E-2</c:v>
+                  <c:v>1.2344434418284821E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.1400472902684712E-2</c:v>
+                  <c:v>1.1674234227663366E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.1101553557256413E-2</c:v>
+                  <c:v>1.1313987087633696E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.1071060939994787E-2</c:v>
+                  <c:v>1.1295592404275722E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.088437447963592E-2</c:v>
+                  <c:v>1.1087344540907146E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.0571910778369747E-2</c:v>
+                  <c:v>1.0844735656461549E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.0486020124955267E-2</c:v>
+                  <c:v>1.0837174856599104E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.0290284203770549E-2</c:v>
+                  <c:v>1.0813252683352153E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.0147863308924242E-2</c:v>
+                  <c:v>1.0436510926848695E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.0017902508887424E-2</c:v>
+                  <c:v>1.0355471201628901E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9.6768736269436818E-3</c:v>
+                  <c:v>1.0336396539525701E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9.6377781494518429E-3</c:v>
+                  <c:v>9.9635364336205165E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9.3896733693005566E-3</c:v>
+                  <c:v>9.6009794199983598E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9.3418450702200135E-3</c:v>
+                  <c:v>9.5581465570284962E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9.0548278345516531E-3</c:v>
+                  <c:v>9.5418652509790397E-3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>8.8717789268286575E-3</c:v>
+                  <c:v>9.0132674831253663E-3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>8.6618696394714645E-3</c:v>
+                  <c:v>8.9809918986178735E-3</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>8.6058060203857388E-3</c:v>
+                  <c:v>8.9695553703790041E-3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>8.5170073349799397E-3</c:v>
+                  <c:v>8.8735299252237741E-3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>8.4545708958043697E-3</c:v>
+                  <c:v>8.830250797298737E-3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>8.2135133901149286E-3</c:v>
+                  <c:v>8.8113767176745388E-3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>8.0682192187579681E-3</c:v>
+                  <c:v>8.5541157455958083E-3</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>7.9825308419737961E-3</c:v>
+                  <c:v>8.3886403495779891E-3</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>7.9637372411657734E-3</c:v>
+                  <c:v>8.3736105788035642E-3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>7.9136900695474868E-3</c:v>
+                  <c:v>8.1142680768890689E-3</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>7.883877425358574E-3</c:v>
+                  <c:v>8.1068374830790598E-3</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>7.7163517793967353E-3</c:v>
+                  <c:v>8.0098082282224828E-3</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>7.6751519147574545E-3</c:v>
+                  <c:v>7.8078792513262404E-3</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>7.5514212571688158E-3</c:v>
+                  <c:v>7.7291554461632016E-3</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>7.4724118813838964E-3</c:v>
+                  <c:v>7.6446839245256715E-3</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>7.4122524951454353E-3</c:v>
+                  <c:v>7.5549132567558856E-3</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>7.3294935411766828E-3</c:v>
+                  <c:v>7.4397410750912021E-3</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>7.2687594965938187E-3</c:v>
+                  <c:v>7.439224005763365E-3</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>6.8481960801705143E-3</c:v>
+                  <c:v>7.4173665206023953E-3</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6.8370576896229114E-3</c:v>
+                  <c:v>7.302752836209076E-3</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6.731083246290904E-3</c:v>
+                  <c:v>7.2060601540586602E-3</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6.6698221792003123E-3</c:v>
+                  <c:v>7.0279479790355051E-3</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6.6071639813753379E-3</c:v>
+                  <c:v>6.9409638201818448E-3</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>6.5822842029454173E-3</c:v>
+                  <c:v>6.8403963069613482E-3</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>6.5208647937831932E-3</c:v>
+                  <c:v>6.7237767149497417E-3</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>6.4987666602881302E-3</c:v>
+                  <c:v>6.6724867121063141E-3</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>6.3058261481941727E-3</c:v>
+                  <c:v>6.6718843296525157E-3</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>6.1963349339672572E-3</c:v>
+                  <c:v>6.603022666631814E-3</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>6.0920297455003443E-3</c:v>
+                  <c:v>6.3044161513552488E-3</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>6.0099686825839521E-3</c:v>
+                  <c:v>6.23035426677521E-3</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>5.8800514446850586E-3</c:v>
+                  <c:v>6.1379660873850973E-3</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5.8381302673505674E-3</c:v>
+                  <c:v>5.4219477370113338E-3</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5.7261858380325964E-3</c:v>
+                  <c:v>5.356228620258161E-3</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5.2766908387614966E-3</c:v>
+                  <c:v>5.3309906093833093E-3</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>5.2595503270582442E-3</c:v>
+                  <c:v>5.304312546073533E-3</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>5.2365108958190741E-3</c:v>
+                  <c:v>5.2854903721699835E-3</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>5.2364779439928412E-3</c:v>
+                  <c:v>5.165855444320579E-3</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>5.1467129096084219E-3</c:v>
+                  <c:v>5.0715470293606771E-3</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>5.0749588942454312E-3</c:v>
+                  <c:v>4.9086085806584745E-3</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>4.8906189761698743E-3</c:v>
+                  <c:v>4.8661613109304176E-3</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4.8822368329879337E-3</c:v>
+                  <c:v>4.7596380442114427E-3</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4.7936650182820858E-3</c:v>
+                  <c:v>4.6736227001118276E-3</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.7287124143296968E-3</c:v>
+                  <c:v>4.6391174750034488E-3</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4.6244217380966707E-3</c:v>
+                  <c:v>4.5528456807515695E-3</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.4780158971009891E-3</c:v>
+                  <c:v>4.349327477692384E-3</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.3730006228254832E-3</c:v>
+                  <c:v>4.1292133729805783E-3</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4.2492448862754516E-3</c:v>
+                  <c:v>4.0444672894074099E-3</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4.2258105687921496E-3</c:v>
+                  <c:v>3.9105062446114971E-3</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>4.0224209274573562E-3</c:v>
+                  <c:v>3.9062833691188023E-3</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3.9982923929708222E-3</c:v>
+                  <c:v>3.8940015783066888E-3</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3.9638300281556373E-3</c:v>
+                  <c:v>3.8812537817998999E-3</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3.9200268048395666E-3</c:v>
+                  <c:v>3.7128962654241413E-3</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3.8416751225075038E-3</c:v>
+                  <c:v>3.4870783846391302E-3</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3.8084889614445755E-3</c:v>
+                  <c:v>3.3992419228086267E-3</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3.8074484716491843E-3</c:v>
+                  <c:v>3.361303313740524E-3</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>3.7633254550290323E-3</c:v>
+                  <c:v>3.3140140961680315E-3</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>3.6072805072487231E-3</c:v>
+                  <c:v>3.182964230650794E-3</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>3.3347110225668336E-3</c:v>
+                  <c:v>3.1654316792252757E-3</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3.3214781128092911E-3</c:v>
+                  <c:v>3.1492288253594479E-3</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>3.2176313684901714E-3</c:v>
+                  <c:v>3.1384277556665775E-3</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>3.1626201442374788E-3</c:v>
+                  <c:v>2.7676953701666518E-3</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>3.0944504455674097E-3</c:v>
+                  <c:v>2.757823827014803E-3</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>3.0823578746581671E-3</c:v>
+                  <c:v>2.7097665566285342E-3</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>2.8134838196032202E-3</c:v>
+                  <c:v>2.6941034532339016E-3</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>2.713956163343037E-3</c:v>
+                  <c:v>2.5378013717921978E-3</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>2.6796669280809674E-3</c:v>
+                  <c:v>2.4922277625296025E-3</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>2.6510986745924962E-3</c:v>
+                  <c:v>2.277405956812435E-3</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>2.6461835949039068E-3</c:v>
+                  <c:v>2.174031821209062E-3</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>2.5477842639907771E-3</c:v>
+                  <c:v>2.1326922140377895E-3</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>2.4011727169126291E-3</c:v>
+                  <c:v>2.0481472237179996E-3</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>2.2970995308723443E-3</c:v>
+                  <c:v>1.9358285452413314E-3</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>2.1804501521514677E-3</c:v>
+                  <c:v>1.8483333359146758E-3</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>2.1525158010601043E-3</c:v>
+                  <c:v>1.781638833364099E-3</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>2.0749072330865175E-3</c:v>
+                  <c:v>1.6988457025303829E-3</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>2.0697183143433217E-3</c:v>
+                  <c:v>1.683440070836772E-3</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1.9060237075932489E-3</c:v>
+                  <c:v>1.6212380774320108E-3</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1.8005989181893109E-3</c:v>
+                  <c:v>1.5699138527052079E-3</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1.7795385160118196E-3</c:v>
+                  <c:v>1.4205367674621286E-3</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1.6451045493905145E-3</c:v>
+                  <c:v>1.3766998463060867E-3</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1.6021119865575009E-3</c:v>
+                  <c:v>1.229614785161664E-3</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>1.3665707949721002E-3</c:v>
+                  <c:v>1.2096244012303806E-3</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>1.2334755881539413E-3</c:v>
+                  <c:v>1.1809214350173135E-3</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>1.2161443569352075E-3</c:v>
+                  <c:v>1.1655820659458092E-3</c:v>
                 </c:pt>
                 <c:pt idx="124" formatCode="0.00">
-                  <c:v>1.1845293656542976E-3</c:v>
+                  <c:v>1.1232624345935847E-3</c:v>
                 </c:pt>
                 <c:pt idx="125" formatCode="0.00">
-                  <c:v>1.1834435138390112E-3</c:v>
+                  <c:v>1.0399113448723081E-3</c:v>
                 </c:pt>
                 <c:pt idx="126" formatCode="0.00">
-                  <c:v>1.1508091723830057E-3</c:v>
+                  <c:v>1.0097024777435978E-3</c:v>
                 </c:pt>
                 <c:pt idx="127" formatCode="0.00">
-                  <c:v>1.0159195761445207E-3</c:v>
+                  <c:v>9.0792819793212903E-4</c:v>
                 </c:pt>
                 <c:pt idx="128" formatCode="0.00">
-                  <c:v>9.8710701607583932E-4</c:v>
+                  <c:v>9.0571893308754074E-4</c:v>
                 </c:pt>
                 <c:pt idx="129" formatCode="General">
-                  <c:v>9.7776974515775719E-4</c:v>
+                  <c:v>6.9754948048845664E-4</c:v>
                 </c:pt>
                 <c:pt idx="130" formatCode="General">
-                  <c:v>8.7743970954118171E-4</c:v>
+                  <c:v>6.2843659930169411E-4</c:v>
                 </c:pt>
                 <c:pt idx="131" formatCode="General">
-                  <c:v>6.8705800341977645E-4</c:v>
+                  <c:v>6.1893963323072696E-4</c:v>
                 </c:pt>
                 <c:pt idx="132" formatCode="General">
-                  <c:v>6.1098114967575695E-4</c:v>
+                  <c:v>5.6421619120872331E-4</c:v>
                 </c:pt>
                 <c:pt idx="133" formatCode="General">
-                  <c:v>6.0880109383079509E-4</c:v>
+                  <c:v>5.3032487548944688E-4</c:v>
                 </c:pt>
                 <c:pt idx="134" formatCode="General">
-                  <c:v>5.8470717445661046E-4</c:v>
+                  <c:v>5.0428471415985953E-4</c:v>
                 </c:pt>
                 <c:pt idx="135" formatCode="General">
-                  <c:v>5.4172516658072584E-4</c:v>
+                  <c:v>4.5711648109156289E-4</c:v>
                 </c:pt>
                 <c:pt idx="136" formatCode="General">
-                  <c:v>5.1475863032430288E-4</c:v>
+                  <c:v>4.3247129980915529E-4</c:v>
                 </c:pt>
                 <c:pt idx="137" formatCode="General">
-                  <c:v>4.4944863583792422E-4</c:v>
+                  <c:v>3.9178183939844903E-4</c:v>
                 </c:pt>
                 <c:pt idx="138" formatCode="General">
-                  <c:v>4.4929766848566936E-4</c:v>
+                  <c:v>3.6420198321594457E-4</c:v>
                 </c:pt>
                 <c:pt idx="139" formatCode="General">
-                  <c:v>4.1196543597449579E-4</c:v>
+                  <c:v>3.6417325560831888E-4</c:v>
                 </c:pt>
                 <c:pt idx="140" formatCode="General">
-                  <c:v>4.0713183969113583E-4</c:v>
+                  <c:v>3.58466373474702E-4</c:v>
                 </c:pt>
                 <c:pt idx="141" formatCode="General">
-                  <c:v>3.9384740829201848E-4</c:v>
+                  <c:v>3.1853974769628147E-4</c:v>
                 </c:pt>
                 <c:pt idx="142" formatCode="General">
-                  <c:v>3.4211302945093345E-4</c:v>
+                  <c:v>2.898317151535657E-4</c:v>
                 </c:pt>
                 <c:pt idx="143" formatCode="General">
-                  <c:v>3.1919983680591622E-4</c:v>
+                  <c:v>2.530936329461867E-4</c:v>
                 </c:pt>
                 <c:pt idx="144" formatCode="General">
-                  <c:v>2.7370125900597514E-4</c:v>
+                  <c:v>2.4822193594536778E-4</c:v>
                 </c:pt>
                 <c:pt idx="145" formatCode="General">
-                  <c:v>2.6350839084243922E-4</c:v>
+                  <c:v>2.4632715626623857E-4</c:v>
                 </c:pt>
                 <c:pt idx="146" formatCode="General">
-                  <c:v>2.5486115427478213E-4</c:v>
+                  <c:v>2.3683473194582833E-4</c:v>
                 </c:pt>
                 <c:pt idx="147" formatCode="General">
-                  <c:v>2.5108296897734505E-4</c:v>
+                  <c:v>2.3627415016280918E-4</c:v>
                 </c:pt>
                 <c:pt idx="148" formatCode="General">
-                  <c:v>2.4256813271656685E-4</c:v>
+                  <c:v>2.2131391372745638E-4</c:v>
                 </c:pt>
                 <c:pt idx="149" formatCode="General">
-                  <c:v>2.2142519471729996E-4</c:v>
+                  <c:v>1.8839599592692126E-4</c:v>
                 </c:pt>
                 <c:pt idx="150" formatCode="General">
-                  <c:v>2.1357628362057244E-4</c:v>
+                  <c:v>1.8744844043080134E-4</c:v>
                 </c:pt>
                 <c:pt idx="151" formatCode="General">
-                  <c:v>2.0004548913559538E-4</c:v>
+                  <c:v>1.7840391002169084E-4</c:v>
                 </c:pt>
                 <c:pt idx="152" formatCode="General">
-                  <c:v>1.9897338344245028E-4</c:v>
+                  <c:v>1.7208811580505601E-4</c:v>
                 </c:pt>
                 <c:pt idx="153" formatCode="General">
-                  <c:v>1.9333374608214679E-4</c:v>
+                  <c:v>1.4819373144525148E-4</c:v>
                 </c:pt>
                 <c:pt idx="154" formatCode="General">
-                  <c:v>1.8282883540970011E-4</c:v>
+                  <c:v>1.3688568366970313E-4</c:v>
                 </c:pt>
                 <c:pt idx="155" formatCode="General">
-                  <c:v>1.4719652638100125E-4</c:v>
+                  <c:v>1.3560021641026706E-4</c:v>
                 </c:pt>
                 <c:pt idx="156" formatCode="General">
-                  <c:v>1.4025003909898376E-4</c:v>
+                  <c:v>1.3450779425656727E-4</c:v>
                 </c:pt>
                 <c:pt idx="157" formatCode="General">
-                  <c:v>1.3996543887037646E-4</c:v>
+                  <c:v>1.33467830012035E-4</c:v>
                 </c:pt>
                 <c:pt idx="158" formatCode="General">
-                  <c:v>1.3730853781448554E-4</c:v>
+                  <c:v>1.3151123282836575E-4</c:v>
                 </c:pt>
                 <c:pt idx="159" formatCode="General">
-                  <c:v>1.3502430368333087E-4</c:v>
+                  <c:v>1.2711458360919719E-4</c:v>
                 </c:pt>
                 <c:pt idx="160" formatCode="General">
-                  <c:v>1.2915618166881306E-4</c:v>
+                  <c:v>1.1960070596602893E-4</c:v>
                 </c:pt>
                 <c:pt idx="161" formatCode="General">
-                  <c:v>1.2416608113498395E-4</c:v>
+                  <c:v>1.1331136157938487E-4</c:v>
                 </c:pt>
                 <c:pt idx="162" formatCode="General">
-                  <c:v>1.236892848004802E-4</c:v>
+                  <c:v>1.0651080106319081E-4</c:v>
                 </c:pt>
                 <c:pt idx="163" formatCode="General">
-                  <c:v>1.1004579644682239E-4</c:v>
+                  <c:v>1.0268093194315097E-4</c:v>
                 </c:pt>
                 <c:pt idx="164" formatCode="General">
-                  <c:v>1.0686869744400136E-4</c:v>
+                  <c:v>8.9365112913069217E-5</c:v>
                 </c:pt>
                 <c:pt idx="165" formatCode="General">
-                  <c:v>1.0489848001900734E-4</c:v>
+                  <c:v>7.0192975731807981E-5</c:v>
                 </c:pt>
                 <c:pt idx="166" formatCode="General">
-                  <c:v>1.0443373857403633E-4</c:v>
+                  <c:v>6.6937424084161424E-5</c:v>
                 </c:pt>
                 <c:pt idx="167" formatCode="General">
-                  <c:v>7.1963977090625574E-5</c:v>
+                  <c:v>6.4427754881311701E-5</c:v>
                 </c:pt>
                 <c:pt idx="168" formatCode="General">
-                  <c:v>7.1029331197009651E-5</c:v>
+                  <c:v>6.3388025316899371E-5</c:v>
                 </c:pt>
                 <c:pt idx="169" formatCode="General">
-                  <c:v>6.9025732300064416E-5</c:v>
+                  <c:v>6.2095020684198706E-5</c:v>
                 </c:pt>
                 <c:pt idx="170" formatCode="General">
-                  <c:v>6.6173303165213058E-5</c:v>
+                  <c:v>5.9397193243992999E-5</c:v>
                 </c:pt>
                 <c:pt idx="171" formatCode="General">
-                  <c:v>5.5899340786949375E-5</c:v>
+                  <c:v>5.356010505793728E-5</c:v>
                 </c:pt>
                 <c:pt idx="172" formatCode="General">
-                  <c:v>5.1785610338711489E-5</c:v>
+                  <c:v>5.1749478908883005E-5</c:v>
                 </c:pt>
                 <c:pt idx="173" formatCode="General">
-                  <c:v>5.1568403245883209E-5</c:v>
+                  <c:v>4.8023227964161854E-5</c:v>
                 </c:pt>
                 <c:pt idx="174" formatCode="General">
-                  <c:v>4.9573788584415942E-5</c:v>
+                  <c:v>4.63298866562357E-5</c:v>
                 </c:pt>
                 <c:pt idx="175" formatCode="General">
-                  <c:v>4.8646941919557083E-5</c:v>
+                  <c:v>4.5385533853517606E-5</c:v>
                 </c:pt>
                 <c:pt idx="176" formatCode="General">
-                  <c:v>4.4789283016749116E-5</c:v>
+                  <c:v>4.2419922591724881E-5</c:v>
                 </c:pt>
                 <c:pt idx="177" formatCode="General">
-                  <c:v>4.3537711182550642E-5</c:v>
+                  <c:v>4.0612982301025267E-5</c:v>
                 </c:pt>
                 <c:pt idx="178" formatCode="General">
-                  <c:v>4.1990928478682653E-5</c:v>
+                  <c:v>3.9335797869352471E-5</c:v>
                 </c:pt>
                 <c:pt idx="179" formatCode="General">
-                  <c:v>4.021427606369372E-5</c:v>
+                  <c:v>3.4469401878302092E-5</c:v>
                 </c:pt>
                 <c:pt idx="180" formatCode="General">
-                  <c:v>3.57033970489855E-5</c:v>
+                  <c:v>3.1090367073417888E-5</c:v>
                 </c:pt>
                 <c:pt idx="181" formatCode="General">
-                  <c:v>3.3837379770206766E-5</c:v>
+                  <c:v>2.389260355183545E-5</c:v>
                 </c:pt>
                 <c:pt idx="182" formatCode="General">
-                  <c:v>3.3168590878083439E-5</c:v>
+                  <c:v>2.3589990439503803E-5</c:v>
                 </c:pt>
                 <c:pt idx="183" formatCode="General">
-                  <c:v>2.9786196238130884E-5</c:v>
+                  <c:v>2.200511276113788E-5</c:v>
                 </c:pt>
                 <c:pt idx="184" formatCode="General">
-                  <c:v>2.9487795618432913E-5</c:v>
+                  <c:v>1.4673995712566542E-5</c:v>
                 </c:pt>
                 <c:pt idx="185" formatCode="General">
-                  <c:v>2.8565519387390181E-5</c:v>
+                  <c:v>1.4291991696123799E-5</c:v>
                 </c:pt>
                 <c:pt idx="186" formatCode="General">
-                  <c:v>2.7905045311209616E-5</c:v>
+                  <c:v>1.3819580614644794E-5</c:v>
                 </c:pt>
                 <c:pt idx="187" formatCode="General">
-                  <c:v>1.5594980626555879E-5</c:v>
+                  <c:v>1.2170345364558136E-5</c:v>
                 </c:pt>
                 <c:pt idx="188" formatCode="General">
-                  <c:v>1.5388713080254792E-5</c:v>
+                  <c:v>1.2163581055218121E-5</c:v>
                 </c:pt>
                 <c:pt idx="189" formatCode="General">
-                  <c:v>1.3863069748482871E-5</c:v>
+                  <c:v>1.2038689817260709E-5</c:v>
                 </c:pt>
                 <c:pt idx="190" formatCode="General">
-                  <c:v>1.2997503375131399E-5</c:v>
+                  <c:v>9.7038434990680698E-6</c:v>
                 </c:pt>
                 <c:pt idx="191" formatCode="General">
-                  <c:v>1.1391878332580339E-5</c:v>
+                  <c:v>8.1843173317544709E-6</c:v>
                 </c:pt>
                 <c:pt idx="192" formatCode="General">
-                  <c:v>8.6902776151212632E-6</c:v>
+                  <c:v>7.8843823337329525E-6</c:v>
                 </c:pt>
                 <c:pt idx="193" formatCode="General">
-                  <c:v>8.6404873402441047E-6</c:v>
+                  <c:v>3.55989034909555E-6</c:v>
                 </c:pt>
                 <c:pt idx="194" formatCode="General">
-                  <c:v>6.4933118760205351E-6</c:v>
+                  <c:v>3.4667085367585843E-6</c:v>
                 </c:pt>
                 <c:pt idx="195" formatCode="General">
-                  <c:v>5.8556448531297556E-6</c:v>
+                  <c:v>1.1336706359609298E-6</c:v>
                 </c:pt>
                 <c:pt idx="196" formatCode="General">
-                  <c:v>4.6376463397207115E-6</c:v>
+                  <c:v>1.0780376428175266E-6</c:v>
                 </c:pt>
                 <c:pt idx="197" formatCode="General">
-                  <c:v>1.3789169055860547E-6</c:v>
+                  <c:v>3.6449964043633121E-7</c:v>
                 </c:pt>
                 <c:pt idx="198" formatCode="General">
-                  <c:v>1.2717519723324345E-6</c:v>
+                  <c:v>2.9464779296595409E-7</c:v>
                 </c:pt>
                 <c:pt idx="199" formatCode="General">
-                  <c:v>4.8482166681834344E-7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="200" formatCode="General">
-                  <c:v>3.3178941186481388E-7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8921,25 +8922,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0" formatCode="0.00%">
-                  <c:v>1.54E-2</c:v>
+                  <c:v>7.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0.00%">
-                  <c:v>4.8999999999999998E-3</c:v>
+                  <c:v>2.3E-3</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00%">
-                  <c:v>-6.9999999999999999E-4</c:v>
+                  <c:v>-5.9999999999999995E-4</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00%">
-                  <c:v>2.0000000000000001E-4</c:v>
+                  <c:v>2.9999999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00%">
                   <c:v>2.9999999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00%">
-                  <c:v>2.01E-2</c:v>
+                  <c:v>9.2999999999999992E-3</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00%">
-                  <c:v>1.49E-2</c:v>
+                  <c:v>6.3E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9178,8 +9179,8 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="5.175446031275067E-3"/>
-                  <c:y val="2.94413008017014E-2"/>
+                  <c:x val="-0.14490046811687274"/>
+                  <c:y val="2.2082569152896931E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -9319,19 +9320,19 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="1">
-                  <c:v>6.7999999999999996E-3</c:v>
+                  <c:v>6.1000000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.1000000000000004E-3</c:v>
+                  <c:v>6.4000000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.1999999999999998E-3</c:v>
+                  <c:v>-3.2000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.01E-2</c:v>
+                  <c:v>9.300000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.49E-2</c:v>
+                  <c:v>6.3E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9919,25 +9920,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0" formatCode="0.00%">
-                  <c:v>1.54E-2</c:v>
+                  <c:v>7.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0.00%">
-                  <c:v>4.8999999999999998E-3</c:v>
+                  <c:v>2.3E-3</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00%">
-                  <c:v>-6.9999999999999999E-4</c:v>
+                  <c:v>-5.9999999999999995E-4</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00%">
-                  <c:v>2.0000000000000001E-4</c:v>
+                  <c:v>2.9999999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00%">
                   <c:v>2.9999999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00%">
-                  <c:v>2.01E-2</c:v>
+                  <c:v>9.2999999999999992E-3</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00%">
-                  <c:v>1.49E-2</c:v>
+                  <c:v>6.3E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20122,16 +20123,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>68036</xdr:colOff>
-      <xdr:row>278</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>462643</xdr:colOff>
+      <xdr:row>276</xdr:row>
       <xdr:rowOff>40821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>13607</xdr:colOff>
-      <xdr:row>308</xdr:row>
-      <xdr:rowOff>91168</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>408214</xdr:colOff>
+      <xdr:row>306</xdr:row>
+      <xdr:rowOff>91169</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20421,7 +20422,7 @@
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>%  | $3.667mm</a:t>
+            <a:t>%  | $3.6mm</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -20464,7 +20465,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>179</a:t>
+            <a:t>177</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -20490,7 +20491,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>19</a:t>
+            <a:t>21</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -20508,7 +20509,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>: 3</a:t>
+            <a:t>: 4</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1600" i="0" baseline="0">
             <a:solidFill>
@@ -21258,7 +21259,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -21281,7 +21282,8 @@
         <v>206</v>
       </c>
       <c r="B2" s="215">
-        <v>5.4999999999999997E-3</v>
+        <f>'Credit Risk Tables'!AP52</f>
+        <v>6.3E-3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -21297,7 +21299,8 @@
         <v>208</v>
       </c>
       <c r="B4" s="292">
-        <v>737470611</v>
+        <f>'Credit Risk Tables'!J4*1000000</f>
+        <v>742903999.99999988</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -21306,7 +21309,7 @@
       </c>
       <c r="B6" s="215">
         <f>'Credit Risk Tables'!BP58</f>
-        <v>0.13800000000000001</v>
+        <v>0.14199999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -21315,7 +21318,7 @@
       </c>
       <c r="B7" s="253">
         <f>'Credit Risk Tables'!BP59</f>
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -21333,7 +21336,7 @@
       </c>
       <c r="B9" s="3">
         <f>'Credit Risk Tables'!Q4</f>
-        <v>0.1939082414860159</v>
+        <v>0.16558995720480763</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -21342,7 +21345,7 @@
       </c>
       <c r="B10" s="3">
         <f>'Postion Level'!C282</f>
-        <v>0.52300000000000002</v>
+        <v>0.4824</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -21351,7 +21354,7 @@
       </c>
       <c r="B11" s="215">
         <f>'Credit Risk Tables'!S16</f>
-        <v>6.6835595270179678E-3</v>
+        <v>6.0317349213357321E-3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -21360,7 +21363,7 @@
       </c>
       <c r="B12" s="291">
         <f>'Credit Risk Tables'!K4</f>
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -21378,7 +21381,7 @@
       </c>
       <c r="B14" s="291">
         <f>'Credit Risk Tables'!K6</f>
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -21387,7 +21390,7 @@
       </c>
       <c r="B15" s="291">
         <f>'Credit Risk Tables'!K7</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -21404,7 +21407,7 @@
       </c>
       <c r="B17" s="215">
         <f>SUM('Postion Level'!B2:B11)</f>
-        <v>0.20451512867056715</v>
+        <v>0.19865936371277854</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -21413,7 +21416,7 @@
       </c>
       <c r="B18" s="215">
         <f>'Credit Risk Tables'!AM82</f>
-        <v>0.12347046706366238</v>
+        <v>0.13327832398264117</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -21422,7 +21425,7 @@
       </c>
       <c r="B19" s="293">
         <f>'Credit Risk Tables'!AM74</f>
-        <v>-79.911000000000001</v>
+        <v>-87.734999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -21435,7 +21438,7 @@
       </c>
       <c r="B22" s="215">
         <f>'Credit Risk Tables'!AP35</f>
-        <v>1.54E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -21445,7 +21448,7 @@
       </c>
       <c r="B23" s="215">
         <f>'Credit Risk Tables'!AP38</f>
-        <v>4.8999999999999998E-3</v>
+        <v>2.3E-3</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -21455,7 +21458,7 @@
       </c>
       <c r="B24" s="215">
         <f>'Credit Risk Tables'!AP43</f>
-        <v>2.0000000000000001E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -21465,7 +21468,7 @@
       </c>
       <c r="B25" s="215">
         <f>'Credit Risk Tables'!AP41</f>
-        <v>-6.9999999999999999E-4</v>
+        <v>-5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -21485,7 +21488,7 @@
       </c>
       <c r="B27" s="215">
         <f>'Credit Risk Tables'!AP49</f>
-        <v>2.01E-2</v>
+        <v>9.2999999999999992E-3</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -21495,7 +21498,7 @@
       </c>
       <c r="B28" s="215">
         <f>'Credit Risk Tables'!AP52</f>
-        <v>1.49E-2</v>
+        <v>6.3E-3</v>
       </c>
     </row>
   </sheetData>
@@ -21509,7 +21512,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
@@ -21685,10 +21688,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C87F62-F0F0-45CB-BB72-416411A41A89}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="B1:BU145"/>
+  <dimension ref="B1:BU154"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:Q12"/>
+    <sheetView topLeftCell="AA12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AL73" sqref="AL73:AM82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21850,61 +21853,61 @@
     <row r="4" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4">
         <f>F4/J4</f>
-        <v>1.1234704670636624</v>
+        <v>1.1332783239826412</v>
       </c>
       <c r="D4" s="53">
         <f>J4-H4-I4</f>
-        <v>829.49899999999991</v>
+        <v>841.84499999999991</v>
       </c>
       <c r="E4" s="223" t="s">
         <v>71</v>
       </c>
       <c r="F4" s="264">
         <f>SUM(F5:F10)</f>
-        <v>829.54699999999991</v>
+        <v>841.91699999999992</v>
       </c>
       <c r="G4" s="265">
         <f>SUM(G5:G10)</f>
-        <v>-4.8000000000000001E-2</v>
+        <v>-7.1999999999999995E-2</v>
       </c>
       <c r="H4" s="265">
         <f>SUM(H5:H8)</f>
-        <v>-79.911000000000001</v>
+        <v>-87.734999999999999</v>
       </c>
       <c r="I4" s="265">
         <f>I5+I6</f>
-        <v>-11.209</v>
+        <v>-11.206</v>
       </c>
       <c r="J4" s="264">
         <f>SUM(J5:J10)</f>
-        <v>738.37899999999991</v>
+        <v>742.90399999999988</v>
       </c>
       <c r="K4" s="105">
         <f>SUM(K5:K10)</f>
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L4" s="265">
         <f>SUM(L5:L10)</f>
-        <v>80239</v>
+        <v>61916</v>
       </c>
       <c r="M4" s="265">
         <f>SUM(M5:M10)</f>
-        <v>63449.295127040154</v>
+        <v>67627.888410688494</v>
       </c>
       <c r="N4" s="267">
-        <v>78.2</v>
+        <v>77.47</v>
       </c>
       <c r="O4" s="265">
         <f>SUM(O5:O10)</f>
-        <v>4.9349999999999996</v>
+        <v>4.4809999999999999</v>
       </c>
       <c r="P4" s="45">
         <f>100%-C34</f>
-        <v>0.9813970874036233</v>
+        <v>0.98169346241237088</v>
       </c>
       <c r="Q4" s="268">
         <f>B18</f>
-        <v>0.1939082414860159</v>
+        <v>0.16558995720480763</v>
       </c>
       <c r="R4" s="91">
         <v>0.214</v>
@@ -21929,42 +21932,42 @@
     <row r="5" spans="2:32" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D5" s="82">
         <f>F5/F4</f>
-        <v>0.14052368340793228</v>
+        <v>0.14321007890326481</v>
       </c>
       <c r="E5" s="25" t="s">
         <v>35</v>
       </c>
       <c r="F5" s="263">
         <f>J5-H5-I5</f>
-        <v>116.571</v>
+        <v>120.571</v>
       </c>
       <c r="G5" s="40">
         <v>0</v>
       </c>
       <c r="H5" s="40">
-        <v>-13.887</v>
+        <v>-23.619</v>
       </c>
       <c r="I5" s="40">
         <v>0</v>
       </c>
       <c r="J5" s="266">
-        <v>102.684</v>
+        <v>96.951999999999998</v>
       </c>
       <c r="K5" s="99">
         <v>21</v>
       </c>
       <c r="L5" s="40">
-        <v>15123</v>
+        <v>14125</v>
       </c>
       <c r="M5" s="40">
         <f>L5*0.5</f>
-        <v>7561.5</v>
+        <v>7062.5</v>
       </c>
       <c r="N5" s="269">
-        <v>85.6</v>
+        <v>84.2</v>
       </c>
       <c r="O5" s="40">
-        <v>0.63400000000000001</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="P5" s="270">
         <v>1</v>
@@ -22001,50 +22004,50 @@
     <row r="6" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D6" s="82">
         <f>F6/F4</f>
-        <v>0.74184585080773002</v>
+        <v>0.70595795072435885</v>
       </c>
       <c r="E6" s="25" t="s">
         <v>34</v>
       </c>
       <c r="F6" s="263">
         <f>J6-H6-I6</f>
-        <v>615.39599999999996</v>
+        <v>594.35799999999995</v>
       </c>
       <c r="G6" s="40">
         <v>0</v>
       </c>
       <c r="H6" s="40">
-        <v>-66.024000000000001</v>
+        <v>-64.116</v>
       </c>
       <c r="I6" s="40">
-        <v>-11.209</v>
+        <v>-11.206</v>
       </c>
       <c r="J6" s="266">
-        <v>538.16300000000001</v>
+        <v>519.03599999999994</v>
       </c>
       <c r="K6" s="99">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L6" s="40">
-        <v>82125</v>
+        <v>79125</v>
       </c>
       <c r="M6" s="40">
-        <f>L6*(1-Q6)*0.9</f>
-        <v>54592.795127040154</v>
+        <f>L6*(1-Q6)</f>
+        <v>60565.388410688502</v>
       </c>
       <c r="N6" s="269">
-        <v>77.8</v>
+        <v>76.38</v>
       </c>
       <c r="O6" s="40">
-        <v>3.93</v>
+        <v>3.35</v>
       </c>
       <c r="P6" s="270">
         <f>100%-C35</f>
-        <v>0.97447613455402915</v>
+        <v>0.97379757858799776</v>
       </c>
       <c r="Q6" s="271">
         <f>C18</f>
-        <v>0.26138616435595946</v>
+        <v>0.23456065199761764</v>
       </c>
       <c r="R6" s="38"/>
       <c r="S6" s="94"/>
@@ -22073,35 +22076,35 @@
     <row r="7" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D7" s="82">
         <f>F7/F4</f>
-        <v>3.6246288637051309E-2</v>
+        <v>1.6419670822658293E-2</v>
       </c>
       <c r="E7" s="25" t="s">
         <v>204</v>
       </c>
       <c r="F7" s="263">
         <f>J7</f>
-        <v>30.068000000000001</v>
+        <v>13.824</v>
       </c>
       <c r="G7" s="40"/>
       <c r="H7" s="40"/>
       <c r="I7" s="40"/>
       <c r="J7" s="266">
-        <v>30.068000000000001</v>
+        <v>13.824</v>
       </c>
       <c r="K7" s="99">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L7" s="40">
-        <v>11201</v>
-      </c>
-      <c r="M7" s="40">
-        <v>1295</v>
+        <v>5125</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>66</v>
       </c>
       <c r="N7" s="269">
-        <v>72.510000000000005</v>
+        <v>50.5</v>
       </c>
       <c r="O7" s="40">
-        <v>0.14799999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="P7" s="270"/>
       <c r="Q7" s="271"/>
@@ -22122,14 +22125,14 @@
     <row r="8" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D8" s="82">
         <f>F8/F4</f>
-        <v>8.6188003814129888E-2</v>
+        <v>9.3025797079759651E-2</v>
       </c>
       <c r="E8" s="224" t="s">
         <v>189</v>
       </c>
       <c r="F8" s="263">
         <f>J8</f>
-        <v>71.497</v>
+        <v>78.319999999999993</v>
       </c>
       <c r="G8" s="40" t="s">
         <v>66</v>
@@ -22141,7 +22144,7 @@
         <v>66</v>
       </c>
       <c r="J8" s="266">
-        <v>71.497</v>
+        <v>78.319999999999993</v>
       </c>
       <c r="K8" s="40" t="s">
         <v>66</v>
@@ -22154,7 +22157,7 @@
         <v>66</v>
       </c>
       <c r="O8" s="40">
-        <v>0.223</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="P8" s="24" t="s">
         <v>66</v>
@@ -22189,14 +22192,14 @@
     <row r="9" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D9" s="82">
         <f>F9/F4</f>
-        <v>-5.8586192222984364E-3</v>
+        <v>4.0667904318359177E-2</v>
       </c>
       <c r="E9" s="224" t="s">
         <v>190</v>
       </c>
       <c r="F9" s="263">
         <f>J9</f>
-        <v>-4.8600000000000003</v>
+        <v>34.238999999999997</v>
       </c>
       <c r="G9" s="40" t="s">
         <v>66</v>
@@ -22208,7 +22211,7 @@
         <v>66</v>
       </c>
       <c r="J9" s="266">
-        <v>-4.8600000000000003</v>
+        <v>34.238999999999997</v>
       </c>
       <c r="K9" s="40"/>
       <c r="L9" s="40"/>
@@ -22234,17 +22237,17 @@
     <row r="10" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D10" s="82">
         <f>F10/F4</f>
-        <v>1.0547925554549654E-3</v>
+        <v>7.1859815159926697E-4</v>
       </c>
       <c r="E10" s="224" t="s">
         <v>123</v>
       </c>
       <c r="F10" s="263">
         <f>J10-G10</f>
-        <v>0.875</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="G10" s="40">
-        <v>-4.8000000000000001E-2</v>
+        <v>-7.1999999999999995E-2</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>66</v>
@@ -22253,13 +22256,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="266">
-        <v>0.82699999999999996</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="K10" s="99">
         <v>6</v>
       </c>
       <c r="L10" s="40">
-        <v>-28210</v>
+        <v>-36459</v>
       </c>
       <c r="M10" s="40" t="s">
         <v>66</v>
@@ -22373,7 +22376,7 @@
         <v>155</v>
       </c>
       <c r="C13" s="4">
-        <v>135.42500000000001</v>
+        <v>134.262</v>
       </c>
       <c r="E13" s="273"/>
       <c r="F13" s="16"/>
@@ -22418,7 +22421,7 @@
         <v>186</v>
       </c>
       <c r="C14" s="4">
-        <v>25.431000000000001</v>
+        <v>5.1509999999999998</v>
       </c>
       <c r="E14" s="275"/>
       <c r="F14" s="192"/>
@@ -22448,7 +22451,7 @@
     <row r="15" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C15" s="4">
         <f>C13+C14</f>
-        <v>160.85600000000002</v>
+        <v>139.41300000000001</v>
       </c>
       <c r="E15" s="192"/>
       <c r="F15" s="208"/>
@@ -22497,7 +22500,7 @@
       <c r="R16" s="192"/>
       <c r="S16" s="279">
         <f>O4/J4</f>
-        <v>6.6835595270179678E-3</v>
+        <v>6.0317349213357321E-3</v>
       </c>
       <c r="U16" s="56"/>
       <c r="V16" s="205"/>
@@ -22520,7 +22523,7 @@
       <c r="H17" s="276"/>
       <c r="I17" s="276">
         <f>J4-I4-H4</f>
-        <v>829.4989999999998</v>
+        <v>841.84499999999991</v>
       </c>
       <c r="J17" s="276"/>
       <c r="K17" s="277"/>
@@ -22545,11 +22548,11 @@
     <row r="18" spans="2:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="82">
         <f>C15/F4</f>
-        <v>0.1939082414860159</v>
+        <v>0.16558995720480763</v>
       </c>
       <c r="C18" s="82">
         <f>C15/F6</f>
-        <v>0.26138616435595946</v>
+        <v>0.23456065199761764</v>
       </c>
       <c r="E18" s="192"/>
       <c r="F18" s="208"/>
@@ -22667,7 +22670,7 @@
       </c>
       <c r="C21" s="294">
         <f>J8</f>
-        <v>71.497</v>
+        <v>78.319999999999993</v>
       </c>
       <c r="E21" s="209"/>
       <c r="F21" s="208"/>
@@ -22710,7 +22713,7 @@
       </c>
       <c r="C22" s="294">
         <f>J9</f>
-        <v>-4.8600000000000003</v>
+        <v>34.238999999999997</v>
       </c>
       <c r="E22" s="192"/>
       <c r="F22" s="208"/>
@@ -22753,7 +22756,7 @@
       <c r="B23" s="44"/>
       <c r="C23" s="4">
         <f>SUM(C21:C22)</f>
-        <v>66.637</v>
+        <v>112.559</v>
       </c>
       <c r="E23" s="192"/>
       <c r="F23" s="208"/>
@@ -23157,11 +23160,11 @@
     </row>
     <row r="34" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B34" s="255">
-        <v>13.736000000000001</v>
+        <v>13.6</v>
       </c>
       <c r="C34" s="82">
         <f>B34/J4</f>
-        <v>1.8602912596376659E-2</v>
+        <v>1.8306537587629089E-2</v>
       </c>
       <c r="D34" s="251" t="s">
         <v>184</v>
@@ -23198,7 +23201,7 @@
     <row r="35" spans="2:47" x14ac:dyDescent="0.25">
       <c r="C35" s="82">
         <f>B34/J6</f>
-        <v>2.5523865445970829E-2</v>
+        <v>2.6202421412002252E-2</v>
       </c>
       <c r="D35" s="251" t="s">
         <v>34</v>
@@ -23214,7 +23217,7 @@
       <c r="AL35" s="297"/>
       <c r="AM35" s="298"/>
       <c r="AP35" s="36">
-        <v>1.54E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AQ35" s="42"/>
       <c r="AR35" s="42"/>
@@ -23239,7 +23242,7 @@
       </c>
       <c r="AI36" s="37"/>
       <c r="AJ36" s="297">
-        <v>6.7999999999999996E-3</v>
+        <v>6.1000000000000004E-3</v>
       </c>
       <c r="AK36" s="297"/>
       <c r="AL36" s="297"/>
@@ -23303,13 +23306,13 @@
       </c>
       <c r="AI38" s="37"/>
       <c r="AJ38" s="297">
-        <v>6.1000000000000004E-3</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="AK38" s="297"/>
       <c r="AL38" s="297"/>
       <c r="AM38" s="298"/>
       <c r="AP38" s="36">
-        <v>4.8999999999999998E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="AQ38" s="42"/>
       <c r="AR38" s="42"/>
@@ -23397,7 +23400,7 @@
       </c>
       <c r="AI40" s="37"/>
       <c r="AJ40" s="297">
-        <v>7.1999999999999998E-3</v>
+        <v>-3.2000000000000002E-3</v>
       </c>
       <c r="AK40" s="297"/>
       <c r="AL40" s="297"/>
@@ -23445,7 +23448,7 @@
       <c r="AL41" s="43"/>
       <c r="AM41" s="43"/>
       <c r="AP41" s="36">
-        <v>-6.9999999999999999E-4</v>
+        <v>-5.9999999999999995E-4</v>
       </c>
       <c r="AQ41" s="42"/>
       <c r="AR41" s="42"/>
@@ -23503,13 +23506,13 @@
       <c r="T43" s="44"/>
       <c r="AJ43" s="297">
         <f>SUM(AJ36:AM40)</f>
-        <v>2.01E-2</v>
+        <v>9.300000000000001E-3</v>
       </c>
       <c r="AK43" s="297"/>
       <c r="AL43" s="297"/>
       <c r="AM43" s="298"/>
       <c r="AP43" s="36">
-        <v>2.0000000000000001E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="AQ43" s="42"/>
       <c r="AR43" s="42"/>
@@ -23569,7 +23572,7 @@
         <v>153</v>
       </c>
       <c r="AJ45" s="297">
-        <v>1.49E-2</v>
+        <v>6.3E-3</v>
       </c>
       <c r="AK45" s="297"/>
       <c r="AL45" s="297"/>
@@ -23712,7 +23715,7 @@
       </c>
       <c r="AP49" s="36">
         <f>SUM(AP35:AP46)</f>
-        <v>2.01E-2</v>
+        <v>9.2999999999999992E-3</v>
       </c>
     </row>
     <row r="50" spans="5:69" x14ac:dyDescent="0.25">
@@ -23782,7 +23785,7 @@
       <c r="Q52" s="192"/>
       <c r="R52" s="192"/>
       <c r="AP52" s="35">
-        <v>1.49E-2</v>
+        <v>6.3E-3</v>
       </c>
     </row>
     <row r="53" spans="5:69" x14ac:dyDescent="0.25">
@@ -24007,7 +24010,7 @@
         <v>178435</v>
       </c>
       <c r="AP58" s="82">
-        <f t="shared" ref="AP58:AP59" si="0">AO58/$AO$61</f>
+        <f>AO58/$AO$61</f>
         <v>1.1907077939437342E-3</v>
       </c>
       <c r="AT58" s="187">
@@ -24017,7 +24020,7 @@
         <v>68</v>
       </c>
       <c r="BP58" s="18">
-        <v>0.13800000000000001</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="BQ58" s="21">
         <v>0.05</v>
@@ -24060,14 +24063,14 @@
         <v>133570</v>
       </c>
       <c r="AP59" s="82">
-        <f t="shared" si="0"/>
+        <f>AO59/$AO$61</f>
         <v>8.9132087335480462E-4</v>
       </c>
       <c r="BO59" s="20" t="s">
         <v>67</v>
       </c>
       <c r="BP59" s="221">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="BQ59" s="19">
         <v>4.9000000000000004</v>
@@ -24530,7 +24533,7 @@
       </c>
       <c r="AM74" s="70">
         <f>H4</f>
-        <v>-79.911000000000001</v>
+        <v>-87.734999999999999</v>
       </c>
       <c r="BU74" s="44">
         <v>711000000</v>
@@ -24571,7 +24574,7 @@
       </c>
       <c r="AM75" s="70">
         <f>J10</f>
-        <v>0.82699999999999996</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="AO75" s="304" t="s">
         <v>156</v>
@@ -24731,7 +24734,7 @@
       </c>
       <c r="AM78" s="189">
         <f>1-(J6/F6)</f>
-        <v>0.12550130322589026</v>
+        <v>0.12672833544765949</v>
       </c>
       <c r="AO78" s="68" t="s">
         <v>35</v>
@@ -24770,7 +24773,7 @@
       </c>
       <c r="AM79" s="112">
         <f>1-(J5/F5)</f>
-        <v>0.11912911444527374</v>
+        <v>0.19589287639648012</v>
       </c>
       <c r="AO79" s="68" t="s">
         <v>204</v>
@@ -24845,7 +24848,7 @@
       </c>
       <c r="AM82" s="188">
         <f>(F4/J4)-1</f>
-        <v>0.12347046706366238</v>
+        <v>0.13327832398264117</v>
       </c>
       <c r="AO82" s="68" t="s">
         <v>101</v>
@@ -25192,18 +25195,18 @@
       </c>
       <c r="AN95" s="294">
         <f>'Credit Risk Tables'!J7</f>
-        <v>30.068000000000001</v>
+        <v>13.824</v>
       </c>
       <c r="AO95" s="4">
         <v>14.7</v>
       </c>
       <c r="AP95" s="294">
         <f>AN95-AO95</f>
-        <v>15.368000000000002</v>
+        <v>-0.87599999999999945</v>
       </c>
       <c r="AQ95" s="4">
         <f>AN95/AP95</f>
-        <v>1.9565330557001559</v>
+        <v>-15.780821917808229</v>
       </c>
       <c r="AZ95" s="77"/>
       <c r="BA95" s="244"/>
@@ -25880,6 +25883,111 @@
         <v>0</v>
       </c>
       <c r="AA145" s="119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W148" s="102">
+        <v>45839</v>
+      </c>
+    </row>
+    <row r="149" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W149" s="98"/>
+      <c r="X149" s="83" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y149" s="83" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z149" s="88" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA149" s="89" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="150" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W150" s="23">
+        <v>1</v>
+      </c>
+      <c r="X150" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y150" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z150" s="84">
+        <v>0.4824</v>
+      </c>
+      <c r="AA150" s="118">
+        <v>0.52300000000000002</v>
+      </c>
+    </row>
+    <row r="151" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W151" s="23">
+        <v>2</v>
+      </c>
+      <c r="X151" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y151" s="97" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z151" s="84">
+        <v>4.8599999999999997E-2</v>
+      </c>
+      <c r="AA151" s="118">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W152" s="23">
+        <v>3</v>
+      </c>
+      <c r="X152" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y152" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z152" s="121">
+        <v>0.32</v>
+      </c>
+      <c r="AA152" s="156">
+        <v>0.27200000000000002</v>
+      </c>
+    </row>
+    <row r="153" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W153" s="23">
+        <v>4</v>
+      </c>
+      <c r="X153" s="97" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y153" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z153" s="84">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="AA153" s="118">
+        <v>0.14799999999999999</v>
+      </c>
+    </row>
+    <row r="154" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W154" s="22">
+        <v>5</v>
+      </c>
+      <c r="X154" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y154" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z154" s="86">
+        <v>0</v>
+      </c>
+      <c r="AA154" s="119">
         <v>0</v>
       </c>
     </row>
@@ -25957,7 +26065,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -26142,8 +26250,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q315"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P49" sqref="P49"/>
+    <sheetView topLeftCell="A286" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D202" sqref="D202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -26170,7 +26278,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="120">
-        <v>2.7538990223589292E-2</v>
+        <v>2.7045167236918379E-2</v>
       </c>
       <c r="C2" s="215">
         <f>AVERAGE($B$2:$B$202)</f>
@@ -26186,7 +26294,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="120">
-        <v>2.6175154413272166E-2</v>
+        <v>2.3904760962183986E-2</v>
       </c>
       <c r="C3" s="215">
         <f t="shared" ref="C3:C66" si="0">AVERAGE($B$2:$B$203)</f>
@@ -26202,7 +26310,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="120">
-        <v>2.3464186653468201E-2</v>
+        <v>2.1603660596083377E-2</v>
       </c>
       <c r="C4" s="215">
         <f t="shared" si="0"/>
@@ -26218,7 +26326,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="120">
-        <v>2.0811674921631201E-2</v>
+        <v>1.9924891708791987E-2</v>
       </c>
       <c r="C5" s="215">
         <f t="shared" si="0"/>
@@ -26234,7 +26342,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="120">
-        <v>1.9578768201385599E-2</v>
+        <v>1.8795128400195395E-2</v>
       </c>
       <c r="C6" s="215">
         <f t="shared" si="0"/>
@@ -26253,7 +26361,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="120">
-        <v>1.8773493030693669E-2</v>
+        <v>1.8136468756324804E-2</v>
       </c>
       <c r="C7" s="215">
         <f t="shared" si="0"/>
@@ -26269,7 +26377,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="120">
-        <v>1.7809812530165472E-2</v>
+        <v>1.7927162195716238E-2</v>
       </c>
       <c r="C8" s="215">
         <f t="shared" si="0"/>
@@ -26285,7 +26393,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="120">
-        <v>1.7383613835201994E-2</v>
+        <v>1.7747018684793562E-2</v>
       </c>
       <c r="C9" s="215">
         <f t="shared" si="0"/>
@@ -26301,7 +26409,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="120">
-        <v>1.7184630522191321E-2</v>
+        <v>1.7329283087763811E-2</v>
       </c>
       <c r="C10" s="215">
         <f t="shared" si="0"/>
@@ -26317,7 +26425,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="120">
-        <v>1.5794804338968228E-2</v>
+        <v>1.6245822084007003E-2</v>
       </c>
       <c r="C11" s="215">
         <f t="shared" si="0"/>
@@ -26333,7 +26441,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="120">
-        <v>1.4686433846166231E-2</v>
+        <v>1.6215952440089339E-2</v>
       </c>
       <c r="C12" s="215">
         <f t="shared" si="0"/>
@@ -26349,7 +26457,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="120">
-        <v>1.449786664032068E-2</v>
+        <v>1.4966974253448648E-2</v>
       </c>
       <c r="C13" s="215">
         <f t="shared" si="0"/>
@@ -26365,7 +26473,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="120">
-        <v>1.4409305989080376E-2</v>
+        <v>1.4755062591656685E-2</v>
       </c>
       <c r="C14" s="215">
         <f t="shared" si="0"/>
@@ -26381,7 +26489,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="120">
-        <v>1.4404284098204045E-2</v>
+        <v>1.4601423232270183E-2</v>
       </c>
       <c r="C15" s="215">
         <f t="shared" si="0"/>
@@ -26397,7 +26505,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="120">
-        <v>1.3648127397534097E-2</v>
+        <v>1.4407109514828931E-2</v>
       </c>
       <c r="C16" s="215">
         <f t="shared" si="0"/>
@@ -26413,7 +26521,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="120">
-        <v>1.3559905308638615E-2</v>
+        <v>1.400765392540677E-2</v>
       </c>
       <c r="C17" s="215">
         <f t="shared" si="0"/>
@@ -26429,7 +26537,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="120">
-        <v>1.3551353397569917E-2</v>
+        <v>1.3808527746987919E-2</v>
       </c>
       <c r="C18" s="215">
         <f t="shared" si="0"/>
@@ -26445,7 +26553,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="120">
-        <v>1.3545218864184213E-2</v>
+        <v>1.3785320492214644E-2</v>
       </c>
       <c r="C19" s="215">
         <f t="shared" si="0"/>
@@ -26461,7 +26569,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="120">
-        <v>1.3260831776829964E-2</v>
+        <v>1.3782696492379233E-2</v>
       </c>
       <c r="C20" s="215">
         <f t="shared" si="0"/>
@@ -26477,7 +26585,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="120">
-        <v>1.3045521512526304E-2</v>
+        <v>1.3316895963347531E-2</v>
       </c>
       <c r="C21" s="215">
         <f t="shared" si="0"/>
@@ -26493,7 +26601,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="120">
-        <v>1.2992104519820752E-2</v>
+        <v>1.3290563984191131E-2</v>
       </c>
       <c r="C22" s="215">
         <f t="shared" si="0"/>
@@ -26509,7 +26617,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="120">
-        <v>1.2952178621811184E-2</v>
+        <v>1.3290102202738616E-2</v>
       </c>
       <c r="C23" s="215">
         <f t="shared" si="0"/>
@@ -26525,7 +26633,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="120">
-        <v>1.2944305298576649E-2</v>
+        <v>1.3154691649279415E-2</v>
       </c>
       <c r="C24" s="215">
         <f t="shared" si="0"/>
@@ -26541,7 +26649,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="120">
-        <v>1.2746180150098659E-2</v>
+        <v>1.24889344917126E-2</v>
       </c>
       <c r="C25" s="215">
         <f t="shared" si="0"/>
@@ -26557,7 +26665,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="120">
-        <v>1.2201966476852724E-2</v>
+        <v>1.2457824356290255E-2</v>
       </c>
       <c r="C26" s="215">
         <f t="shared" si="0"/>
@@ -26573,7 +26681,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="120">
-        <v>1.2127343849557545E-2</v>
+        <v>1.2452337038115928E-2</v>
       </c>
       <c r="C27" s="215">
         <f t="shared" si="0"/>
@@ -26589,7 +26697,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="120">
-        <v>1.2004386987440666E-2</v>
+        <v>1.2344434418284821E-2</v>
       </c>
       <c r="C28" s="215">
         <f t="shared" si="0"/>
@@ -26605,7 +26713,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="120">
-        <v>1.1400472902684712E-2</v>
+        <v>1.1674234227663366E-2</v>
       </c>
       <c r="C29" s="215">
         <f t="shared" si="0"/>
@@ -26621,7 +26729,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="120">
-        <v>1.1101553557256413E-2</v>
+        <v>1.1313987087633696E-2</v>
       </c>
       <c r="C30" s="215">
         <f t="shared" si="0"/>
@@ -26637,7 +26745,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="120">
-        <v>1.1071060939994787E-2</v>
+        <v>1.1295592404275722E-2</v>
       </c>
       <c r="C31" s="215">
         <f t="shared" si="0"/>
@@ -26653,7 +26761,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="120">
-        <v>1.088437447963592E-2</v>
+        <v>1.1087344540907146E-2</v>
       </c>
       <c r="C32" s="215">
         <f t="shared" si="0"/>
@@ -26669,7 +26777,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="120">
-        <v>1.0571910778369747E-2</v>
+        <v>1.0844735656461549E-2</v>
       </c>
       <c r="C33" s="215">
         <f t="shared" si="0"/>
@@ -26685,7 +26793,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="120">
-        <v>1.0486020124955267E-2</v>
+        <v>1.0837174856599104E-2</v>
       </c>
       <c r="C34" s="215">
         <f t="shared" si="0"/>
@@ -26701,7 +26809,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="120">
-        <v>1.0290284203770549E-2</v>
+        <v>1.0813252683352153E-2</v>
       </c>
       <c r="C35" s="215">
         <f t="shared" si="0"/>
@@ -26717,7 +26825,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="120">
-        <v>1.0147863308924242E-2</v>
+        <v>1.0436510926848695E-2</v>
       </c>
       <c r="C36" s="215">
         <f t="shared" si="0"/>
@@ -26733,7 +26841,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="120">
-        <v>1.0017902508887424E-2</v>
+        <v>1.0355471201628901E-2</v>
       </c>
       <c r="C37" s="215">
         <f t="shared" si="0"/>
@@ -26749,7 +26857,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="120">
-        <v>9.6768736269436818E-3</v>
+        <v>1.0336396539525701E-2</v>
       </c>
       <c r="C38" s="215">
         <f t="shared" si="0"/>
@@ -26765,7 +26873,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="120">
-        <v>9.6377781494518429E-3</v>
+        <v>9.9635364336205165E-3</v>
       </c>
       <c r="C39" s="215">
         <f t="shared" si="0"/>
@@ -26781,7 +26889,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="120">
-        <v>9.3896733693005566E-3</v>
+        <v>9.6009794199983598E-3</v>
       </c>
       <c r="C40" s="215">
         <f t="shared" si="0"/>
@@ -26797,7 +26905,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="120">
-        <v>9.3418450702200135E-3</v>
+        <v>9.5581465570284962E-3</v>
       </c>
       <c r="C41" s="215">
         <f t="shared" si="0"/>
@@ -26813,7 +26921,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="120">
-        <v>9.0548278345516531E-3</v>
+        <v>9.5418652509790397E-3</v>
       </c>
       <c r="C42" s="215">
         <f t="shared" si="0"/>
@@ -26829,7 +26937,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="120">
-        <v>8.8717789268286575E-3</v>
+        <v>9.0132674831253663E-3</v>
       </c>
       <c r="C43" s="215">
         <f t="shared" si="0"/>
@@ -26845,7 +26953,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="120">
-        <v>8.6618696394714645E-3</v>
+        <v>8.9809918986178735E-3</v>
       </c>
       <c r="C44" s="215">
         <f t="shared" si="0"/>
@@ -26861,7 +26969,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="120">
-        <v>8.6058060203857388E-3</v>
+        <v>8.9695553703790041E-3</v>
       </c>
       <c r="C45" s="215">
         <f t="shared" si="0"/>
@@ -26877,7 +26985,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="120">
-        <v>8.5170073349799397E-3</v>
+        <v>8.8735299252237741E-3</v>
       </c>
       <c r="C46" s="215">
         <f t="shared" si="0"/>
@@ -26893,7 +27001,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="120">
-        <v>8.4545708958043697E-3</v>
+        <v>8.830250797298737E-3</v>
       </c>
       <c r="C47" s="215">
         <f t="shared" si="0"/>
@@ -26909,7 +27017,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="120">
-        <v>8.2135133901149286E-3</v>
+        <v>8.8113767176745388E-3</v>
       </c>
       <c r="C48" s="215">
         <f t="shared" si="0"/>
@@ -26925,7 +27033,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="120">
-        <v>8.0682192187579681E-3</v>
+        <v>8.5541157455958083E-3</v>
       </c>
       <c r="C49" s="215">
         <f t="shared" si="0"/>
@@ -26941,7 +27049,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="120">
-        <v>7.9825308419737961E-3</v>
+        <v>8.3886403495779891E-3</v>
       </c>
       <c r="C50" s="215">
         <f t="shared" si="0"/>
@@ -26957,7 +27065,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="120">
-        <v>7.9637372411657734E-3</v>
+        <v>8.3736105788035642E-3</v>
       </c>
       <c r="C51" s="215">
         <f t="shared" si="0"/>
@@ -26973,7 +27081,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="120">
-        <v>7.9136900695474868E-3</v>
+        <v>8.1142680768890689E-3</v>
       </c>
       <c r="C52" s="215">
         <f t="shared" si="0"/>
@@ -26989,7 +27097,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="120">
-        <v>7.883877425358574E-3</v>
+        <v>8.1068374830790598E-3</v>
       </c>
       <c r="C53" s="215">
         <f t="shared" si="0"/>
@@ -27005,7 +27113,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="120">
-        <v>7.7163517793967353E-3</v>
+        <v>8.0098082282224828E-3</v>
       </c>
       <c r="C54" s="215">
         <f t="shared" si="0"/>
@@ -27021,7 +27129,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="120">
-        <v>7.6751519147574545E-3</v>
+        <v>7.8078792513262404E-3</v>
       </c>
       <c r="C55" s="215">
         <f t="shared" si="0"/>
@@ -27037,7 +27145,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="120">
-        <v>7.5514212571688158E-3</v>
+        <v>7.7291554461632016E-3</v>
       </c>
       <c r="C56" s="215">
         <f t="shared" si="0"/>
@@ -27053,7 +27161,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="120">
-        <v>7.4724118813838964E-3</v>
+        <v>7.6446839245256715E-3</v>
       </c>
       <c r="C57" s="215">
         <f t="shared" si="0"/>
@@ -27069,7 +27177,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="120">
-        <v>7.4122524951454353E-3</v>
+        <v>7.5549132567558856E-3</v>
       </c>
       <c r="C58" s="215">
         <f t="shared" si="0"/>
@@ -27085,7 +27193,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="120">
-        <v>7.3294935411766828E-3</v>
+        <v>7.4397410750912021E-3</v>
       </c>
       <c r="C59" s="215">
         <f t="shared" si="0"/>
@@ -27101,7 +27209,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="120">
-        <v>7.2687594965938187E-3</v>
+        <v>7.439224005763365E-3</v>
       </c>
       <c r="C60" s="215">
         <f t="shared" si="0"/>
@@ -27117,7 +27225,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="120">
-        <v>6.8481960801705143E-3</v>
+        <v>7.4173665206023953E-3</v>
       </c>
       <c r="C61" s="215">
         <f t="shared" si="0"/>
@@ -27133,7 +27241,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="120">
-        <v>6.8370576896229114E-3</v>
+        <v>7.302752836209076E-3</v>
       </c>
       <c r="C62" s="215">
         <f t="shared" si="0"/>
@@ -27149,7 +27257,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="120">
-        <v>6.731083246290904E-3</v>
+        <v>7.2060601540586602E-3</v>
       </c>
       <c r="C63" s="215">
         <f t="shared" si="0"/>
@@ -27165,7 +27273,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="120">
-        <v>6.6698221792003123E-3</v>
+        <v>7.0279479790355051E-3</v>
       </c>
       <c r="C64" s="215">
         <f t="shared" si="0"/>
@@ -27181,7 +27289,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="120">
-        <v>6.6071639813753379E-3</v>
+        <v>6.9409638201818448E-3</v>
       </c>
       <c r="C65" s="215">
         <f t="shared" si="0"/>
@@ -27197,7 +27305,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="120">
-        <v>6.5822842029454173E-3</v>
+        <v>6.8403963069613482E-3</v>
       </c>
       <c r="C66" s="215">
         <f t="shared" si="0"/>
@@ -27213,7 +27321,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="120">
-        <v>6.5208647937831932E-3</v>
+        <v>6.7237767149497417E-3</v>
       </c>
       <c r="C67" s="215">
         <f t="shared" ref="C67:C131" si="1">AVERAGE($B$2:$B$203)</f>
@@ -27229,7 +27337,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="120">
-        <v>6.4987666602881302E-3</v>
+        <v>6.6724867121063141E-3</v>
       </c>
       <c r="C68" s="215">
         <f t="shared" si="1"/>
@@ -27245,7 +27353,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="120">
-        <v>6.3058261481941727E-3</v>
+        <v>6.6718843296525157E-3</v>
       </c>
       <c r="C69" s="215">
         <f t="shared" si="1"/>
@@ -27261,7 +27369,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="120">
-        <v>6.1963349339672572E-3</v>
+        <v>6.603022666631814E-3</v>
       </c>
       <c r="C70" s="215">
         <f t="shared" si="1"/>
@@ -27277,7 +27385,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="120">
-        <v>6.0920297455003443E-3</v>
+        <v>6.3044161513552488E-3</v>
       </c>
       <c r="C71" s="215">
         <f t="shared" si="1"/>
@@ -27293,7 +27401,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="120">
-        <v>6.0099686825839521E-3</v>
+        <v>6.23035426677521E-3</v>
       </c>
       <c r="C72" s="215">
         <f t="shared" si="1"/>
@@ -27309,7 +27417,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="120">
-        <v>5.8800514446850586E-3</v>
+        <v>6.1379660873850973E-3</v>
       </c>
       <c r="C73" s="215">
         <f t="shared" si="1"/>
@@ -27325,7 +27433,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="120">
-        <v>5.8381302673505674E-3</v>
+        <v>5.4219477370113338E-3</v>
       </c>
       <c r="C74" s="215">
         <f t="shared" si="1"/>
@@ -27340,7 +27448,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="120">
-        <v>5.7261858380325964E-3</v>
+        <v>5.356228620258161E-3</v>
       </c>
       <c r="C75" s="215">
         <f t="shared" si="1"/>
@@ -27355,7 +27463,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="120">
-        <v>5.2766908387614966E-3</v>
+        <v>5.3309906093833093E-3</v>
       </c>
       <c r="C76" s="215">
         <f t="shared" si="1"/>
@@ -27370,7 +27478,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="120">
-        <v>5.2595503270582442E-3</v>
+        <v>5.304312546073533E-3</v>
       </c>
       <c r="C77" s="215">
         <f t="shared" si="1"/>
@@ -27385,7 +27493,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="120">
-        <v>5.2365108958190741E-3</v>
+        <v>5.2854903721699835E-3</v>
       </c>
       <c r="C78" s="215">
         <f t="shared" si="1"/>
@@ -27400,7 +27508,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="120">
-        <v>5.2364779439928412E-3</v>
+        <v>5.165855444320579E-3</v>
       </c>
       <c r="C79" s="215">
         <f t="shared" si="1"/>
@@ -27415,7 +27523,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="120">
-        <v>5.1467129096084219E-3</v>
+        <v>5.0715470293606771E-3</v>
       </c>
       <c r="C80" s="215">
         <f t="shared" si="1"/>
@@ -27430,7 +27538,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="120">
-        <v>5.0749588942454312E-3</v>
+        <v>4.9086085806584745E-3</v>
       </c>
       <c r="C81" s="215">
         <f t="shared" si="1"/>
@@ -27445,7 +27553,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="120">
-        <v>4.8906189761698743E-3</v>
+        <v>4.8661613109304176E-3</v>
       </c>
       <c r="C82" s="215">
         <f t="shared" si="1"/>
@@ -27460,7 +27568,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="120">
-        <v>4.8822368329879337E-3</v>
+        <v>4.7596380442114427E-3</v>
       </c>
       <c r="C83" s="215">
         <f t="shared" si="1"/>
@@ -27475,7 +27583,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="120">
-        <v>4.7936650182820858E-3</v>
+        <v>4.6736227001118276E-3</v>
       </c>
       <c r="C84" s="215">
         <f t="shared" si="1"/>
@@ -27490,7 +27598,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="120">
-        <v>4.7287124143296968E-3</v>
+        <v>4.6391174750034488E-3</v>
       </c>
       <c r="C85" s="215">
         <f t="shared" si="1"/>
@@ -27505,7 +27613,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="120">
-        <v>4.6244217380966707E-3</v>
+        <v>4.5528456807515695E-3</v>
       </c>
       <c r="C86" s="215">
         <f t="shared" si="1"/>
@@ -27520,7 +27628,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="120">
-        <v>4.4780158971009891E-3</v>
+        <v>4.349327477692384E-3</v>
       </c>
       <c r="C87" s="215">
         <f t="shared" si="1"/>
@@ -27535,7 +27643,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="120">
-        <v>4.3730006228254832E-3</v>
+        <v>4.1292133729805783E-3</v>
       </c>
       <c r="C88" s="215">
         <f t="shared" si="1"/>
@@ -27550,7 +27658,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="120">
-        <v>4.2492448862754516E-3</v>
+        <v>4.0444672894074099E-3</v>
       </c>
       <c r="C89" s="215">
         <f t="shared" si="1"/>
@@ -27565,7 +27673,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="120">
-        <v>4.2258105687921496E-3</v>
+        <v>3.9105062446114971E-3</v>
       </c>
       <c r="C90" s="215">
         <f t="shared" si="1"/>
@@ -27580,7 +27688,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="120">
-        <v>4.0224209274573562E-3</v>
+        <v>3.9062833691188023E-3</v>
       </c>
       <c r="C91" s="215">
         <f t="shared" si="1"/>
@@ -27595,7 +27703,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="120">
-        <v>3.9982923929708222E-3</v>
+        <v>3.8940015783066888E-3</v>
       </c>
       <c r="C92" s="215">
         <f t="shared" si="1"/>
@@ -27610,7 +27718,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="120">
-        <v>3.9638300281556373E-3</v>
+        <v>3.8812537817998999E-3</v>
       </c>
       <c r="C93" s="215">
         <f t="shared" si="1"/>
@@ -27625,7 +27733,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="120">
-        <v>3.9200268048395666E-3</v>
+        <v>3.7128962654241413E-3</v>
       </c>
       <c r="C94" s="215">
         <f t="shared" si="1"/>
@@ -27640,7 +27748,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="120">
-        <v>3.8416751225075038E-3</v>
+        <v>3.4870783846391302E-3</v>
       </c>
       <c r="C95" s="215">
         <f t="shared" si="1"/>
@@ -27655,7 +27763,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="120">
-        <v>3.8084889614445755E-3</v>
+        <v>3.3992419228086267E-3</v>
       </c>
       <c r="C96" s="215">
         <f t="shared" si="1"/>
@@ -27670,7 +27778,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="120">
-        <v>3.8074484716491843E-3</v>
+        <v>3.361303313740524E-3</v>
       </c>
       <c r="C97" s="215">
         <f t="shared" si="1"/>
@@ -27685,7 +27793,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="120">
-        <v>3.7633254550290323E-3</v>
+        <v>3.3140140961680315E-3</v>
       </c>
       <c r="C98" s="215">
         <f t="shared" si="1"/>
@@ -27700,7 +27808,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="120">
-        <v>3.6072805072487231E-3</v>
+        <v>3.182964230650794E-3</v>
       </c>
       <c r="C99" s="215">
         <f t="shared" si="1"/>
@@ -27715,7 +27823,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="120">
-        <v>3.3347110225668336E-3</v>
+        <v>3.1654316792252757E-3</v>
       </c>
       <c r="C100" s="215">
         <f t="shared" si="1"/>
@@ -27730,7 +27838,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="120">
-        <v>3.3214781128092911E-3</v>
+        <v>3.1492288253594479E-3</v>
       </c>
       <c r="C101" s="215">
         <f t="shared" si="1"/>
@@ -27745,7 +27853,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="120">
-        <v>3.2176313684901714E-3</v>
+        <v>3.1384277556665775E-3</v>
       </c>
       <c r="C102" s="215">
         <f t="shared" si="1"/>
@@ -27760,7 +27868,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="120">
-        <v>3.1626201442374788E-3</v>
+        <v>2.7676953701666518E-3</v>
       </c>
       <c r="C103" s="215">
         <f t="shared" si="1"/>
@@ -27775,7 +27883,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="120">
-        <v>3.0944504455674097E-3</v>
+        <v>2.757823827014803E-3</v>
       </c>
       <c r="C104" s="215">
         <f t="shared" si="1"/>
@@ -27790,7 +27898,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="120">
-        <v>3.0823578746581671E-3</v>
+        <v>2.7097665566285342E-3</v>
       </c>
       <c r="C105" s="215">
         <f t="shared" si="1"/>
@@ -27805,7 +27913,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="120">
-        <v>2.8134838196032202E-3</v>
+        <v>2.6941034532339016E-3</v>
       </c>
       <c r="C106" s="215">
         <f t="shared" si="1"/>
@@ -27820,7 +27928,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="120">
-        <v>2.713956163343037E-3</v>
+        <v>2.5378013717921978E-3</v>
       </c>
       <c r="C107" s="215">
         <f t="shared" si="1"/>
@@ -27835,7 +27943,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="120">
-        <v>2.6796669280809674E-3</v>
+        <v>2.4922277625296025E-3</v>
       </c>
       <c r="C108" s="215">
         <f t="shared" si="1"/>
@@ -27850,7 +27958,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="120">
-        <v>2.6510986745924962E-3</v>
+        <v>2.277405956812435E-3</v>
       </c>
       <c r="C109" s="215">
         <f t="shared" si="1"/>
@@ -27865,7 +27973,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="120">
-        <v>2.6461835949039068E-3</v>
+        <v>2.174031821209062E-3</v>
       </c>
       <c r="C110" s="215">
         <f t="shared" si="1"/>
@@ -27880,7 +27988,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="120">
-        <v>2.5477842639907771E-3</v>
+        <v>2.1326922140377895E-3</v>
       </c>
       <c r="C111" s="215">
         <f t="shared" si="1"/>
@@ -27895,7 +28003,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="120">
-        <v>2.4011727169126291E-3</v>
+        <v>2.0481472237179996E-3</v>
       </c>
       <c r="C112" s="215">
         <f t="shared" si="1"/>
@@ -27910,7 +28018,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="120">
-        <v>2.2970995308723443E-3</v>
+        <v>1.9358285452413314E-3</v>
       </c>
       <c r="C113" s="215">
         <f t="shared" si="1"/>
@@ -27925,7 +28033,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="120">
-        <v>2.1804501521514677E-3</v>
+        <v>1.8483333359146758E-3</v>
       </c>
       <c r="C114" s="215">
         <f t="shared" si="1"/>
@@ -27940,7 +28048,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="120">
-        <v>2.1525158010601043E-3</v>
+        <v>1.781638833364099E-3</v>
       </c>
       <c r="C115" s="215">
         <f t="shared" si="1"/>
@@ -27955,7 +28063,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="120">
-        <v>2.0749072330865175E-3</v>
+        <v>1.6988457025303829E-3</v>
       </c>
       <c r="C116" s="215">
         <f t="shared" si="1"/>
@@ -27970,7 +28078,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="120">
-        <v>2.0697183143433217E-3</v>
+        <v>1.683440070836772E-3</v>
       </c>
       <c r="C117" s="215">
         <f t="shared" si="1"/>
@@ -27985,7 +28093,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="120">
-        <v>1.9060237075932489E-3</v>
+        <v>1.6212380774320108E-3</v>
       </c>
       <c r="C118" s="215">
         <f t="shared" si="1"/>
@@ -28000,7 +28108,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="120">
-        <v>1.8005989181893109E-3</v>
+        <v>1.5699138527052079E-3</v>
       </c>
       <c r="C119" s="215">
         <f t="shared" si="1"/>
@@ -28015,7 +28123,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="120">
-        <v>1.7795385160118196E-3</v>
+        <v>1.4205367674621286E-3</v>
       </c>
       <c r="C120" s="215">
         <f t="shared" si="1"/>
@@ -28030,7 +28138,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="120">
-        <v>1.6451045493905145E-3</v>
+        <v>1.3766998463060867E-3</v>
       </c>
       <c r="C121" s="215">
         <f t="shared" si="1"/>
@@ -28045,7 +28153,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="120">
-        <v>1.6021119865575009E-3</v>
+        <v>1.229614785161664E-3</v>
       </c>
       <c r="C122" s="215">
         <f t="shared" si="1"/>
@@ -28060,7 +28168,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="120">
-        <v>1.3665707949721002E-3</v>
+        <v>1.2096244012303806E-3</v>
       </c>
       <c r="C123" s="215">
         <f t="shared" si="1"/>
@@ -28075,7 +28183,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="120">
-        <v>1.2334755881539413E-3</v>
+        <v>1.1809214350173135E-3</v>
       </c>
       <c r="C124" s="215">
         <f t="shared" si="1"/>
@@ -28090,7 +28198,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="120">
-        <v>1.2161443569352075E-3</v>
+        <v>1.1655820659458092E-3</v>
       </c>
       <c r="C125" s="215">
         <f t="shared" si="1"/>
@@ -28105,7 +28213,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="253">
-        <v>1.1845293656542976E-3</v>
+        <v>1.1232624345935847E-3</v>
       </c>
       <c r="C126" s="215">
         <f t="shared" si="1"/>
@@ -28120,7 +28228,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="253">
-        <v>1.1834435138390112E-3</v>
+        <v>1.0399113448723081E-3</v>
       </c>
       <c r="C127" s="215">
         <f t="shared" si="1"/>
@@ -28135,7 +28243,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="253">
-        <v>1.1508091723830057E-3</v>
+        <v>1.0097024777435978E-3</v>
       </c>
       <c r="C128" s="215">
         <f t="shared" si="1"/>
@@ -28150,7 +28258,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="253">
-        <v>1.0159195761445207E-3</v>
+        <v>9.0792819793212903E-4</v>
       </c>
       <c r="C129" s="215">
         <f t="shared" si="1"/>
@@ -28165,7 +28273,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="253">
-        <v>9.8710701607583932E-4</v>
+        <v>9.0571893308754074E-4</v>
       </c>
       <c r="C130" s="215">
         <f t="shared" si="1"/>
@@ -28180,7 +28288,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>9.7776974515775719E-4</v>
+        <v>6.9754948048845664E-4</v>
       </c>
       <c r="C131" s="215">
         <f t="shared" si="1"/>
@@ -28195,7 +28303,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>8.7743970954118171E-4</v>
+        <v>6.2843659930169411E-4</v>
       </c>
       <c r="C132" s="215">
         <f t="shared" ref="C132:C195" si="2">AVERAGE($B$2:$B$203)</f>
@@ -28210,7 +28318,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>6.8705800341977645E-4</v>
+        <v>6.1893963323072696E-4</v>
       </c>
       <c r="C133" s="215">
         <f t="shared" si="2"/>
@@ -28225,7 +28333,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>6.1098114967575695E-4</v>
+        <v>5.6421619120872331E-4</v>
       </c>
       <c r="C134" s="215">
         <f t="shared" si="2"/>
@@ -28240,7 +28348,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>6.0880109383079509E-4</v>
+        <v>5.3032487548944688E-4</v>
       </c>
       <c r="C135" s="215">
         <f t="shared" si="2"/>
@@ -28255,7 +28363,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>5.8470717445661046E-4</v>
+        <v>5.0428471415985953E-4</v>
       </c>
       <c r="C136" s="215">
         <f t="shared" si="2"/>
@@ -28270,7 +28378,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>5.4172516658072584E-4</v>
+        <v>4.5711648109156289E-4</v>
       </c>
       <c r="C137" s="215">
         <f t="shared" si="2"/>
@@ -28285,7 +28393,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>5.1475863032430288E-4</v>
+        <v>4.3247129980915529E-4</v>
       </c>
       <c r="C138" s="215">
         <f t="shared" si="2"/>
@@ -28300,7 +28408,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>4.4944863583792422E-4</v>
+        <v>3.9178183939844903E-4</v>
       </c>
       <c r="C139" s="215">
         <f t="shared" si="2"/>
@@ -28315,7 +28423,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>4.4929766848566936E-4</v>
+        <v>3.6420198321594457E-4</v>
       </c>
       <c r="C140" s="215">
         <f t="shared" si="2"/>
@@ -28330,7 +28438,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>4.1196543597449579E-4</v>
+        <v>3.6417325560831888E-4</v>
       </c>
       <c r="C141" s="215">
         <f t="shared" si="2"/>
@@ -28345,7 +28453,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>4.0713183969113583E-4</v>
+        <v>3.58466373474702E-4</v>
       </c>
       <c r="C142" s="215">
         <f t="shared" si="2"/>
@@ -28360,7 +28468,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>3.9384740829201848E-4</v>
+        <v>3.1853974769628147E-4</v>
       </c>
       <c r="C143" s="215">
         <f t="shared" si="2"/>
@@ -28375,7 +28483,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>3.4211302945093345E-4</v>
+        <v>2.898317151535657E-4</v>
       </c>
       <c r="C144" s="215">
         <f t="shared" si="2"/>
@@ -28390,7 +28498,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>3.1919983680591622E-4</v>
+        <v>2.530936329461867E-4</v>
       </c>
       <c r="C145" s="215">
         <f t="shared" si="2"/>
@@ -28405,7 +28513,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>2.7370125900597514E-4</v>
+        <v>2.4822193594536778E-4</v>
       </c>
       <c r="C146" s="215">
         <f t="shared" si="2"/>
@@ -28420,7 +28528,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>2.6350839084243922E-4</v>
+        <v>2.4632715626623857E-4</v>
       </c>
       <c r="C147" s="215">
         <f t="shared" si="2"/>
@@ -28435,7 +28543,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>2.5486115427478213E-4</v>
+        <v>2.3683473194582833E-4</v>
       </c>
       <c r="C148" s="215">
         <f t="shared" si="2"/>
@@ -28450,7 +28558,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>2.5108296897734505E-4</v>
+        <v>2.3627415016280918E-4</v>
       </c>
       <c r="C149" s="215">
         <f t="shared" si="2"/>
@@ -28465,7 +28573,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>2.4256813271656685E-4</v>
+        <v>2.2131391372745638E-4</v>
       </c>
       <c r="C150" s="215">
         <f t="shared" si="2"/>
@@ -28480,7 +28588,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>2.2142519471729996E-4</v>
+        <v>1.8839599592692126E-4</v>
       </c>
       <c r="C151" s="215">
         <f t="shared" si="2"/>
@@ -28495,7 +28603,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>2.1357628362057244E-4</v>
+        <v>1.8744844043080134E-4</v>
       </c>
       <c r="C152" s="215">
         <f t="shared" si="2"/>
@@ -28510,7 +28618,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>2.0004548913559538E-4</v>
+        <v>1.7840391002169084E-4</v>
       </c>
       <c r="C153" s="215">
         <f t="shared" si="2"/>
@@ -28525,7 +28633,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>1.9897338344245028E-4</v>
+        <v>1.7208811580505601E-4</v>
       </c>
       <c r="C154" s="215">
         <f t="shared" si="2"/>
@@ -28540,7 +28648,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>1.9333374608214679E-4</v>
+        <v>1.4819373144525148E-4</v>
       </c>
       <c r="C155" s="215">
         <f t="shared" si="2"/>
@@ -28555,7 +28663,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>1.8282883540970011E-4</v>
+        <v>1.3688568366970313E-4</v>
       </c>
       <c r="C156" s="215">
         <f t="shared" si="2"/>
@@ -28570,7 +28678,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>1.4719652638100125E-4</v>
+        <v>1.3560021641026706E-4</v>
       </c>
       <c r="C157" s="215">
         <f t="shared" si="2"/>
@@ -28585,7 +28693,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>1.4025003909898376E-4</v>
+        <v>1.3450779425656727E-4</v>
       </c>
       <c r="C158" s="215">
         <f t="shared" si="2"/>
@@ -28600,7 +28708,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>1.3996543887037646E-4</v>
+        <v>1.33467830012035E-4</v>
       </c>
       <c r="C159" s="215">
         <f t="shared" si="2"/>
@@ -28615,7 +28723,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>1.3730853781448554E-4</v>
+        <v>1.3151123282836575E-4</v>
       </c>
       <c r="C160" s="215">
         <f t="shared" si="2"/>
@@ -28630,7 +28738,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>1.3502430368333087E-4</v>
+        <v>1.2711458360919719E-4</v>
       </c>
       <c r="C161" s="215">
         <f t="shared" si="2"/>
@@ -28645,7 +28753,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>1.2915618166881306E-4</v>
+        <v>1.1960070596602893E-4</v>
       </c>
       <c r="C162" s="215">
         <f t="shared" si="2"/>
@@ -28660,7 +28768,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>1.2416608113498395E-4</v>
+        <v>1.1331136157938487E-4</v>
       </c>
       <c r="C163" s="215">
         <f t="shared" si="2"/>
@@ -28675,7 +28783,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>1.236892848004802E-4</v>
+        <v>1.0651080106319081E-4</v>
       </c>
       <c r="C164" s="215">
         <f t="shared" si="2"/>
@@ -28690,7 +28798,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>1.1004579644682239E-4</v>
+        <v>1.0268093194315097E-4</v>
       </c>
       <c r="C165" s="215">
         <f t="shared" si="2"/>
@@ -28705,7 +28813,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>1.0686869744400136E-4</v>
+        <v>8.9365112913069217E-5</v>
       </c>
       <c r="C166" s="215">
         <f t="shared" si="2"/>
@@ -28720,7 +28828,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>1.0489848001900734E-4</v>
+        <v>7.0192975731807981E-5</v>
       </c>
       <c r="C167" s="215">
         <f t="shared" si="2"/>
@@ -28735,7 +28843,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>1.0443373857403633E-4</v>
+        <v>6.6937424084161424E-5</v>
       </c>
       <c r="C168" s="215">
         <f t="shared" si="2"/>
@@ -28750,7 +28858,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>7.1963977090625574E-5</v>
+        <v>6.4427754881311701E-5</v>
       </c>
       <c r="C169" s="215">
         <f t="shared" si="2"/>
@@ -28765,7 +28873,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>7.1029331197009651E-5</v>
+        <v>6.3388025316899371E-5</v>
       </c>
       <c r="C170" s="215">
         <f t="shared" si="2"/>
@@ -28780,7 +28888,7 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>6.9025732300064416E-5</v>
+        <v>6.2095020684198706E-5</v>
       </c>
       <c r="C171" s="215">
         <f t="shared" si="2"/>
@@ -28795,7 +28903,7 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>6.6173303165213058E-5</v>
+        <v>5.9397193243992999E-5</v>
       </c>
       <c r="C172" s="215">
         <f t="shared" si="2"/>
@@ -28810,7 +28918,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>5.5899340786949375E-5</v>
+        <v>5.356010505793728E-5</v>
       </c>
       <c r="C173" s="215">
         <f t="shared" si="2"/>
@@ -28825,7 +28933,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>5.1785610338711489E-5</v>
+        <v>5.1749478908883005E-5</v>
       </c>
       <c r="C174" s="215">
         <f t="shared" si="2"/>
@@ -28840,7 +28948,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>5.1568403245883209E-5</v>
+        <v>4.8023227964161854E-5</v>
       </c>
       <c r="C175" s="215">
         <f t="shared" si="2"/>
@@ -28855,7 +28963,7 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>4.9573788584415942E-5</v>
+        <v>4.63298866562357E-5</v>
       </c>
       <c r="C176" s="215">
         <f t="shared" si="2"/>
@@ -28870,7 +28978,7 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>4.8646941919557083E-5</v>
+        <v>4.5385533853517606E-5</v>
       </c>
       <c r="C177" s="215">
         <f t="shared" si="2"/>
@@ -28885,7 +28993,7 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>4.4789283016749116E-5</v>
+        <v>4.2419922591724881E-5</v>
       </c>
       <c r="C178" s="215">
         <f t="shared" si="2"/>
@@ -28900,7 +29008,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>4.3537711182550642E-5</v>
+        <v>4.0612982301025267E-5</v>
       </c>
       <c r="C179" s="215">
         <f t="shared" si="2"/>
@@ -28915,7 +29023,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>4.1990928478682653E-5</v>
+        <v>3.9335797869352471E-5</v>
       </c>
       <c r="C180" s="215">
         <f t="shared" si="2"/>
@@ -28930,7 +29038,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>4.021427606369372E-5</v>
+        <v>3.4469401878302092E-5</v>
       </c>
       <c r="C181" s="215">
         <f t="shared" si="2"/>
@@ -28945,7 +29053,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>3.57033970489855E-5</v>
+        <v>3.1090367073417888E-5</v>
       </c>
       <c r="C182" s="215">
         <f t="shared" si="2"/>
@@ -28960,7 +29068,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>3.3837379770206766E-5</v>
+        <v>2.389260355183545E-5</v>
       </c>
       <c r="C183" s="215">
         <f t="shared" si="2"/>
@@ -28975,7 +29083,7 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>3.3168590878083439E-5</v>
+        <v>2.3589990439503803E-5</v>
       </c>
       <c r="C184" s="215">
         <f t="shared" si="2"/>
@@ -28990,7 +29098,7 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>2.9786196238130884E-5</v>
+        <v>2.200511276113788E-5</v>
       </c>
       <c r="C185" s="215">
         <f t="shared" si="2"/>
@@ -29005,7 +29113,7 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>2.9487795618432913E-5</v>
+        <v>1.4673995712566542E-5</v>
       </c>
       <c r="C186" s="215">
         <f t="shared" si="2"/>
@@ -29020,7 +29128,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>2.8565519387390181E-5</v>
+        <v>1.4291991696123799E-5</v>
       </c>
       <c r="C187" s="215">
         <f t="shared" si="2"/>
@@ -29035,7 +29143,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>2.7905045311209616E-5</v>
+        <v>1.3819580614644794E-5</v>
       </c>
       <c r="C188" s="215">
         <f t="shared" si="2"/>
@@ -29050,7 +29158,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>1.5594980626555879E-5</v>
+        <v>1.2170345364558136E-5</v>
       </c>
       <c r="C189" s="215">
         <f t="shared" si="2"/>
@@ -29065,7 +29173,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>1.5388713080254792E-5</v>
+        <v>1.2163581055218121E-5</v>
       </c>
       <c r="C190" s="215">
         <f t="shared" si="2"/>
@@ -29080,7 +29188,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>1.3863069748482871E-5</v>
+        <v>1.2038689817260709E-5</v>
       </c>
       <c r="C191" s="215">
         <f t="shared" si="2"/>
@@ -29095,7 +29203,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>1.2997503375131399E-5</v>
+        <v>9.7038434990680698E-6</v>
       </c>
       <c r="C192" s="215">
         <f t="shared" si="2"/>
@@ -29110,7 +29218,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>1.1391878332580339E-5</v>
+        <v>8.1843173317544709E-6</v>
       </c>
       <c r="C193" s="215">
         <f t="shared" si="2"/>
@@ -29125,7 +29233,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>8.6902776151212632E-6</v>
+        <v>7.8843823337329525E-6</v>
       </c>
       <c r="C194" s="215">
         <f t="shared" si="2"/>
@@ -29140,7 +29248,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>8.6404873402441047E-6</v>
+        <v>3.55989034909555E-6</v>
       </c>
       <c r="C195" s="215">
         <f t="shared" si="2"/>
@@ -29155,7 +29263,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>6.4933118760205351E-6</v>
+        <v>3.4667085367585843E-6</v>
       </c>
       <c r="C196" s="215">
         <f t="shared" ref="C196:C202" si="3">AVERAGE($B$2:$B$203)</f>
@@ -29170,7 +29278,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>5.8556448531297556E-6</v>
+        <v>1.1336706359609298E-6</v>
       </c>
       <c r="C197" s="215">
         <f t="shared" si="3"/>
@@ -29185,7 +29293,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>4.6376463397207115E-6</v>
+        <v>1.0780376428175266E-6</v>
       </c>
       <c r="C198" s="215">
         <f t="shared" si="3"/>
@@ -29200,7 +29308,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>1.3789169055860547E-6</v>
+        <v>3.6449964043633121E-7</v>
       </c>
       <c r="C199" s="215">
         <f t="shared" si="3"/>
@@ -29215,7 +29323,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>1.2717519723324345E-6</v>
+        <v>2.9464779296595409E-7</v>
       </c>
       <c r="C200" s="215">
         <f t="shared" si="3"/>
@@ -29230,7 +29338,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>4.8482166681834344E-7</v>
+        <v>0</v>
       </c>
       <c r="C201" s="215">
         <f t="shared" si="3"/>
@@ -29245,7 +29353,7 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>3.3178941186481388E-7</v>
+        <v>0</v>
       </c>
       <c r="C202" s="215">
         <f t="shared" si="3"/>
@@ -29264,7 +29372,7 @@
       </c>
       <c r="B251" s="152">
         <f>'Credit Risk Tables'!D6</f>
-        <v>0.74184585080773002</v>
+        <v>0.70595795072435885</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="21" x14ac:dyDescent="0.35">
@@ -29273,7 +29381,7 @@
       </c>
       <c r="B252" s="152">
         <f>'Credit Risk Tables'!D5</f>
-        <v>0.14052368340793228</v>
+        <v>0.14321007890326481</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="21" x14ac:dyDescent="0.35">
@@ -29282,7 +29390,7 @@
       </c>
       <c r="B253" s="152">
         <f>'Credit Risk Tables'!D7</f>
-        <v>3.6246288637051309E-2</v>
+        <v>1.6419670822658293E-2</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="21" x14ac:dyDescent="0.35">
@@ -29291,7 +29399,7 @@
       </c>
       <c r="B254" s="153">
         <f>'Credit Risk Tables'!D8</f>
-        <v>8.6188003814129888E-2</v>
+        <v>9.3025797079759651E-2</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="21" x14ac:dyDescent="0.35">
@@ -29300,7 +29408,7 @@
       </c>
       <c r="B255" s="1">
         <f>'Credit Risk Tables'!D10</f>
-        <v>1.0547925554549654E-3</v>
+        <v>7.1859815159926697E-4</v>
       </c>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.25">
@@ -29358,13 +29466,13 @@
         <v>117</v>
       </c>
       <c r="C282" s="84">
-        <v>0.52300000000000002</v>
+        <v>0.4824</v>
       </c>
       <c r="D282" s="84"/>
       <c r="E282" s="84"/>
       <c r="F282">
         <f>C282/42</f>
-        <v>1.2452380952380953E-2</v>
+        <v>1.1485714285714285E-2</v>
       </c>
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.25">
@@ -29375,13 +29483,13 @@
         <v>118</v>
       </c>
       <c r="C283" s="84">
-        <v>5.6000000000000001E-2</v>
+        <v>4.8599999999999997E-2</v>
       </c>
       <c r="D283" s="84"/>
       <c r="E283" s="84"/>
       <c r="F283">
         <f>C283/42</f>
-        <v>1.3333333333333333E-3</v>
+        <v>1.157142857142857E-3</v>
       </c>
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.25">
@@ -29392,7 +29500,7 @@
         <v>119</v>
       </c>
       <c r="C284" s="121">
-        <v>0.27200000000000002</v>
+        <v>0.32</v>
       </c>
       <c r="D284" s="84"/>
       <c r="E284" s="84"/>
@@ -30926,7 +31034,7 @@
         <v>2</v>
       </c>
       <c r="H23" s="165">
-        <f t="shared" ref="H23:H25" si="0">G23-F23</f>
+        <f>G23-F23</f>
         <v>-1</v>
       </c>
       <c r="I23" s="160"/>
@@ -30987,7 +31095,7 @@
         <v>2</v>
       </c>
       <c r="H24" s="165">
-        <f t="shared" si="0"/>
+        <f>G24-F24</f>
         <v>-1</v>
       </c>
       <c r="I24" s="160"/>
@@ -30998,7 +31106,7 @@
         <v>71.347687500000006</v>
       </c>
       <c r="L24" s="167">
-        <f t="shared" ref="L24:L25" si="1">J24-K24</f>
+        <f>J24-K24</f>
         <v>1.0942499999998745E-2</v>
       </c>
       <c r="M24" s="160"/>
@@ -31009,7 +31117,7 @@
         <v>100</v>
       </c>
       <c r="P24" s="167">
-        <f t="shared" ref="P24:P25" si="2">N24-O24</f>
+        <f>N24-O24</f>
         <v>0</v>
       </c>
       <c r="Q24" s="168"/>
@@ -31020,7 +31128,7 @@
         <v>90.26</v>
       </c>
       <c r="T24" s="167">
-        <f t="shared" ref="T24:T25" si="3">R24-S24</f>
+        <f>R24-S24</f>
         <v>-20.897654192178209</v>
       </c>
       <c r="U24" s="183" t="s">
@@ -31048,7 +31156,7 @@
         <v>3</v>
       </c>
       <c r="H25" s="165">
-        <f t="shared" si="0"/>
+        <f>G25-F25</f>
         <v>-1</v>
       </c>
       <c r="I25" s="160"/>
@@ -31059,7 +31167,7 @@
         <v>40.500644999999999</v>
       </c>
       <c r="L25" s="167">
-        <f t="shared" si="1"/>
+        <f>J25-K25</f>
         <v>0.59870624999999933</v>
       </c>
       <c r="M25" s="160"/>
@@ -31070,7 +31178,7 @@
         <v>100</v>
       </c>
       <c r="P25" s="167">
-        <f t="shared" si="2"/>
+        <f>N25-O25</f>
         <v>-1.8205790084436586</v>
       </c>
       <c r="Q25" s="168"/>
@@ -31081,7 +31189,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="167">
-        <f t="shared" si="3"/>
+        <f>R25-S25</f>
         <v>0</v>
       </c>
       <c r="U25" s="218" t="s">
@@ -31286,7 +31394,7 @@
         <v>4</v>
       </c>
       <c r="H32" s="165">
-        <f t="shared" ref="H32:H35" si="4">G32-F32</f>
+        <f>G32-F32</f>
         <v>2</v>
       </c>
       <c r="I32" s="160"/>
@@ -31345,7 +31453,7 @@
         <v>4</v>
       </c>
       <c r="H33" s="165">
-        <f t="shared" si="4"/>
+        <f>G33-F33</f>
         <v>1</v>
       </c>
       <c r="I33" s="160"/>
@@ -31356,7 +31464,7 @@
         <v>50.39733167</v>
       </c>
       <c r="L33" s="167">
-        <f t="shared" ref="L33:L35" si="5">J33-K33</f>
+        <f>J33-K33</f>
         <v>1.1110000000002174E-2</v>
       </c>
       <c r="M33" s="160"/>
@@ -31367,7 +31475,7 @@
         <v>100</v>
       </c>
       <c r="P33" s="167">
-        <f t="shared" ref="P33:P35" si="6">N33-O33</f>
+        <f>N33-O33</f>
         <v>0</v>
       </c>
       <c r="Q33" s="168"/>
@@ -31378,7 +31486,7 @@
         <v>0</v>
       </c>
       <c r="T33" s="167">
-        <f t="shared" ref="T33:T35" si="7">R33-S33</f>
+        <f>R33-S33</f>
         <v>0</v>
       </c>
       <c r="U33" s="167"/>
@@ -31404,7 +31512,7 @@
         <v>3</v>
       </c>
       <c r="H34" s="165">
-        <f t="shared" si="4"/>
+        <f>G34-F34</f>
         <v>2</v>
       </c>
       <c r="I34" s="160"/>
@@ -31415,7 +31523,7 @@
         <v>68.382322500000001</v>
       </c>
       <c r="L34" s="167">
-        <f t="shared" si="5"/>
+        <f>J34-K34</f>
         <v>-0.1250725000000017</v>
       </c>
       <c r="M34" s="160"/>
@@ -31426,7 +31534,7 @@
         <v>100</v>
       </c>
       <c r="P34" s="167">
-        <f t="shared" si="6"/>
+        <f>N34-O34</f>
         <v>0</v>
       </c>
       <c r="Q34" s="168"/>
@@ -31437,7 +31545,7 @@
         <v>50.508867408877876</v>
       </c>
       <c r="T34" s="167">
-        <f t="shared" si="7"/>
+        <f>R34-S34</f>
         <v>-11.799524957749739</v>
       </c>
       <c r="U34" s="167"/>
@@ -31463,7 +31571,7 @@
         <v>2</v>
       </c>
       <c r="H35" s="165">
-        <f t="shared" si="4"/>
+        <f>G35-F35</f>
         <v>1</v>
       </c>
       <c r="I35" s="160"/>
@@ -31474,7 +31582,7 @@
         <v>79.303558330000001</v>
       </c>
       <c r="L35" s="167">
-        <f t="shared" si="5"/>
+        <f>J35-K35</f>
         <v>2.6336669999992068E-2</v>
       </c>
       <c r="M35" s="160"/>
@@ -31485,7 +31593,7 @@
         <v>100</v>
       </c>
       <c r="P35" s="167">
-        <f t="shared" si="6"/>
+        <f>N35-O35</f>
         <v>0</v>
       </c>
       <c r="Q35" s="168"/>
@@ -31496,7 +31604,7 @@
         <v>93.438451538461194</v>
       </c>
       <c r="T35" s="167">
-        <f t="shared" si="7"/>
+        <f>R35-S35</f>
         <v>6.5615484615388056</v>
       </c>
       <c r="U35" s="167"/>
@@ -31687,14 +31795,14 @@
         <v>0.6936234580782179</v>
       </c>
       <c r="I45" s="122">
-        <f t="shared" ref="I45:I46" si="8">H45*100</f>
+        <f>H45*100</f>
         <v>69.362345807821796</v>
       </c>
       <c r="K45" s="122">
         <v>0</v>
       </c>
       <c r="L45" s="122">
-        <f t="shared" ref="L45:L47" si="9">K45*100</f>
+        <f>K45*100</f>
         <v>0</v>
       </c>
     </row>
@@ -31703,14 +31811,14 @@
         <v>0</v>
       </c>
       <c r="I46" s="122">
-        <f t="shared" si="8"/>
+        <f>H46*100</f>
         <v>0</v>
       </c>
       <c r="K46" s="122">
         <v>0.38709342451128137</v>
       </c>
       <c r="L46" s="122">
-        <f t="shared" si="9"/>
+        <f>K46*100</f>
         <v>38.709342451128137</v>
       </c>
     </row>
@@ -31719,7 +31827,7 @@
         <v>1</v>
       </c>
       <c r="L47" s="122">
-        <f t="shared" si="9"/>
+        <f>K47*100</f>
         <v>100</v>
       </c>
     </row>
